--- a/documents/bank.xlsx
+++ b/documents/bank.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\P1365949\Documents\薪资单\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A624749-AF15-449B-A67B-AED2F291F8E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{424A18AF-AF03-4174-AA7D-C44B89DA82E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="700" yWindow="1700" windowWidth="15680" windowHeight="7940" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-24960" yWindow="-495" windowWidth="20520" windowHeight="10860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="overall-new" sheetId="3" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="135">
   <si>
     <t>美元3个月</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -304,9 +304,6 @@
   </si>
   <si>
     <t>中行基金</t>
-  </si>
-  <si>
-    <t>中行基金</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -508,6 +505,58 @@
     <t>2025.05.26</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>2025.06.24</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2025.7.2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2025.7.10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2025.7.22</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>华宝宝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2025.7.30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>银河</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>富国强</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2025.8.4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2025.8.18</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2025.8.25</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>偏债</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>偏股</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -519,7 +568,7 @@
     <numFmt numFmtId="178" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
     <numFmt numFmtId="179" formatCode="0.00_);[Red]\(0.00\)"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -548,8 +597,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -574,6 +630,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -590,7 +658,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -609,6 +677,9 @@
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="176" fontId="0" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="百分比" xfId="1" builtinId="5"/>
@@ -890,13 +961,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5DA0FD1-D6E8-4B00-9CAC-721148B3A535}">
-  <dimension ref="A1:AT43"/>
+  <dimension ref="A1:AY45"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="AJ20" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="AB20" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AQ26" sqref="AQ26"/>
+      <selection pane="bottomRight" activeCell="AI29" sqref="AI29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -905,7 +976,7 @@
     <col min="41" max="42" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:46" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:51" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C1" s="8" t="s">
         <v>3</v>
       </c>
@@ -985,54 +1056,78 @@
         <v>65</v>
       </c>
       <c r="AC1" s="8" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AD1" s="8" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AE1" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="AF1" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="AF1" s="8" t="s">
+      <c r="AG1" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="AG1" s="8" t="s">
-        <v>104</v>
-      </c>
       <c r="AH1" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="AI1" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="AI1" s="8" t="s">
+      <c r="AJ1" s="8" t="s">
         <v>108</v>
       </c>
-      <c r="AJ1" s="8" t="s">
-        <v>109</v>
-      </c>
       <c r="AK1" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="AL1" s="8" t="s">
         <v>112</v>
       </c>
-      <c r="AL1" s="8" t="s">
-        <v>113</v>
-      </c>
       <c r="AM1" s="8" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="AN1" s="8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="AO1" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="AP1" s="8" t="s">
         <v>120</v>
       </c>
-      <c r="AP1" s="8" t="s">
+      <c r="AQ1" s="8" t="s">
         <v>121</v>
       </c>
-      <c r="AQ1" s="8" t="s">
+      <c r="AR1" s="8" t="s">
         <v>122</v>
       </c>
+      <c r="AS1" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="AT1" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="AU1" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="AV1" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="AW1" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="AX1" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="AY1" s="8" t="s">
+        <v>132</v>
+      </c>
     </row>
-    <row r="2" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B2" t="s">
         <v>0</v>
@@ -1158,8 +1253,32 @@
       <c r="AQ2">
         <v>591.66</v>
       </c>
+      <c r="AR2">
+        <v>696.87</v>
+      </c>
+      <c r="AS2">
+        <v>724.51</v>
+      </c>
+      <c r="AT2">
+        <v>758.73</v>
+      </c>
+      <c r="AU2">
+        <v>792.98</v>
+      </c>
+      <c r="AV2">
+        <v>829.78</v>
+      </c>
+      <c r="AW2">
+        <v>839.04</v>
+      </c>
+      <c r="AX2">
+        <v>891.12</v>
+      </c>
+      <c r="AY2">
+        <v>911.32</v>
+      </c>
     </row>
-    <row r="3" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:51" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>1</v>
       </c>
@@ -1284,8 +1403,32 @@
       <c r="AQ3">
         <v>647.84</v>
       </c>
+      <c r="AR3">
+        <v>756.73</v>
+      </c>
+      <c r="AS3">
+        <v>784</v>
+      </c>
+      <c r="AT3">
+        <v>810.89</v>
+      </c>
+      <c r="AU3">
+        <v>850.82</v>
+      </c>
+      <c r="AV3">
+        <v>877.47</v>
+      </c>
+      <c r="AW3">
+        <v>887.46</v>
+      </c>
+      <c r="AX3">
+        <v>934.09</v>
+      </c>
+      <c r="AY3">
+        <v>957.36</v>
+      </c>
     </row>
-    <row r="4" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:51" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>2</v>
       </c>
@@ -1409,8 +1552,32 @@
       <c r="AQ4">
         <v>1407.92</v>
       </c>
+      <c r="AR4">
+        <v>1519.24</v>
+      </c>
+      <c r="AS4">
+        <v>1547.29</v>
+      </c>
+      <c r="AT4">
+        <v>1575.3</v>
+      </c>
+      <c r="AU4">
+        <v>1616.68</v>
+      </c>
+      <c r="AV4">
+        <v>1644.24</v>
+      </c>
+      <c r="AW4">
+        <v>1661.41</v>
+      </c>
+      <c r="AX4">
+        <v>1710.08</v>
+      </c>
+      <c r="AY4">
+        <v>1734.19</v>
+      </c>
     </row>
-    <row r="5" spans="1:46" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:51" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>56</v>
       </c>
@@ -1427,7 +1594,7 @@
         <v>164.48000000000002</v>
       </c>
       <c r="G5" s="2">
-        <f t="shared" ref="G5:AT5" si="0">SUM(G2:G4)</f>
+        <f t="shared" ref="G5:AY5" si="0">SUM(G2:G4)</f>
         <v>255.73000000000002</v>
       </c>
       <c r="H5" s="2">
@@ -1576,18 +1743,38 @@
       </c>
       <c r="AR5" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2972.84</v>
       </c>
       <c r="AS5" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3055.8</v>
       </c>
       <c r="AT5" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3144.92</v>
+      </c>
+      <c r="AU5" s="2">
+        <f t="shared" si="0"/>
+        <v>3260.4800000000005</v>
+      </c>
+      <c r="AV5" s="2">
+        <f t="shared" si="0"/>
+        <v>3351.49</v>
+      </c>
+      <c r="AW5" s="2">
+        <f t="shared" si="0"/>
+        <v>3387.91</v>
+      </c>
+      <c r="AX5" s="2">
+        <f t="shared" si="0"/>
+        <v>3535.29</v>
+      </c>
+      <c r="AY5" s="2">
+        <f t="shared" si="0"/>
+        <v>3602.87</v>
       </c>
     </row>
-    <row r="6" spans="1:46" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:51" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>13</v>
       </c>
@@ -1600,7 +1787,7 @@
         <v>1.7936750272628138E-3</v>
       </c>
       <c r="G6" s="3">
-        <f t="shared" ref="G6:AQ6" si="1">G5/$C5</f>
+        <f t="shared" ref="G6:AY6" si="1">G5/$C5</f>
         <v>2.7887677208287896E-3</v>
       </c>
       <c r="H6" s="3">
@@ -1747,13 +1934,45 @@
         <f t="shared" si="1"/>
         <v>2.8870447110141768E-2</v>
       </c>
+      <c r="AR6" s="3">
+        <f t="shared" si="1"/>
+        <v>3.2419193020719737E-2</v>
+      </c>
+      <c r="AS6" s="3">
+        <f t="shared" si="1"/>
+        <v>3.3323882224645586E-2</v>
+      </c>
+      <c r="AT6" s="3">
+        <f t="shared" si="1"/>
+        <v>3.4295747001090511E-2</v>
+      </c>
+      <c r="AU6" s="3">
+        <f t="shared" si="1"/>
+        <v>3.555594329334788E-2</v>
+      </c>
+      <c r="AV6" s="3">
+        <f t="shared" si="1"/>
+        <v>3.65484187568157E-2</v>
+      </c>
+      <c r="AW6" s="3">
+        <f t="shared" si="1"/>
+        <v>3.694558342420938E-2</v>
+      </c>
+      <c r="AX6" s="3">
+        <f t="shared" si="1"/>
+        <v>3.8552780806979277E-2</v>
+      </c>
+      <c r="AY6" s="3">
+        <f t="shared" si="1"/>
+        <v>3.9289749182115592E-2</v>
+      </c>
     </row>
-    <row r="7" spans="1:46" s="14" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:51" s="14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="14" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C7" s="14">
         <v>3000</v>
@@ -1825,8 +2044,32 @@
       <c r="AQ7" s="14">
         <v>38.51</v>
       </c>
+      <c r="AR7" s="14">
+        <v>47.73</v>
+      </c>
+      <c r="AS7" s="14">
+        <v>50.77</v>
+      </c>
+      <c r="AT7" s="14">
+        <v>53.2</v>
+      </c>
+      <c r="AU7" s="14">
+        <v>56.22</v>
+      </c>
+      <c r="AV7" s="14">
+        <v>59.24</v>
+      </c>
+      <c r="AW7" s="14">
+        <v>60.17</v>
+      </c>
+      <c r="AX7" s="14">
+        <v>64.38</v>
+      </c>
+      <c r="AY7" s="14">
+        <v>66.08</v>
+      </c>
     </row>
-    <row r="8" spans="1:46" s="14" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:51" s="14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="E8" s="15"/>
       <c r="F8" s="15"/>
       <c r="G8" s="15"/>
@@ -1857,135 +2100,7 @@
       <c r="AF8" s="15"/>
       <c r="AG8" s="15"/>
     </row>
-    <row r="9" spans="1:46" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9">
-        <v>14</v>
-      </c>
-      <c r="C9">
-        <v>30000</v>
-      </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-      <c r="F9">
-        <v>0</v>
-      </c>
-      <c r="G9">
-        <v>3.29</v>
-      </c>
-      <c r="H9">
-        <v>4.1900000000000004</v>
-      </c>
-      <c r="I9">
-        <v>4.1900000000000004</v>
-      </c>
-      <c r="J9">
-        <v>4.63</v>
-      </c>
-      <c r="K9">
-        <v>5.41</v>
-      </c>
-      <c r="L9">
-        <v>6.2</v>
-      </c>
-      <c r="M9">
-        <v>6.98</v>
-      </c>
-      <c r="N9">
-        <v>7.76</v>
-      </c>
-      <c r="O9">
-        <v>8.92</v>
-      </c>
-      <c r="P9">
-        <v>10.06</v>
-      </c>
-      <c r="Q9">
-        <v>10.43</v>
-      </c>
-      <c r="R9">
-        <v>14.58</v>
-      </c>
-      <c r="S9">
-        <v>19.239999999999998</v>
-      </c>
-      <c r="T9">
-        <v>20.7</v>
-      </c>
-      <c r="U9">
-        <v>36.950000000000003</v>
-      </c>
-      <c r="V9">
-        <v>52.14</v>
-      </c>
-      <c r="W9">
-        <v>60.57</v>
-      </c>
-      <c r="X9">
-        <v>72.64</v>
-      </c>
-      <c r="Y9">
-        <v>78.760000000000005</v>
-      </c>
-      <c r="Z9">
-        <v>82.32</v>
-      </c>
-      <c r="AA9">
-        <v>85.72</v>
-      </c>
-      <c r="AB9">
-        <v>96.31</v>
-      </c>
-      <c r="AC9">
-        <v>98.74</v>
-      </c>
-      <c r="AD9">
-        <v>104.44</v>
-      </c>
-      <c r="AE9">
-        <v>111.08</v>
-      </c>
-      <c r="AF9">
-        <v>114.54</v>
-      </c>
-      <c r="AG9">
-        <v>128.13999999999999</v>
-      </c>
-      <c r="AH9">
-        <v>135.13999999999999</v>
-      </c>
-      <c r="AI9">
-        <v>138.65</v>
-      </c>
-      <c r="AJ9">
-        <v>142.13</v>
-      </c>
-      <c r="AK9">
-        <v>155.30000000000001</v>
-      </c>
-      <c r="AL9">
-        <v>187.83</v>
-      </c>
-      <c r="AM9">
-        <v>212.56</v>
-      </c>
-      <c r="AN9">
-        <v>225.04</v>
-      </c>
-      <c r="AO9">
-        <v>235.04</v>
-      </c>
-      <c r="AP9">
-        <v>247.94</v>
-      </c>
-      <c r="AQ9">
-        <v>254.2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:51" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
         <v>32</v>
       </c>
@@ -2094,14 +2209,38 @@
       <c r="AQ12">
         <v>252.9</v>
       </c>
+      <c r="AR12">
+        <v>283.5</v>
+      </c>
+      <c r="AS12">
+        <v>292.04000000000002</v>
+      </c>
+      <c r="AT12">
+        <v>300.33999999999997</v>
+      </c>
+      <c r="AU12">
+        <v>312.36</v>
+      </c>
+      <c r="AV12">
+        <v>320.74</v>
+      </c>
+      <c r="AW12">
+        <v>325.81</v>
+      </c>
+      <c r="AX12">
+        <v>339.7</v>
+      </c>
+      <c r="AY12">
+        <v>346.62</v>
+      </c>
     </row>
-    <row r="14" spans="1:46" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:51" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>56</v>
       </c>
       <c r="C14" s="2">
         <f>SUM(C9:C13)</f>
-        <v>55000</v>
+        <v>25000</v>
       </c>
       <c r="E14" s="2">
         <f>SUM(E9:E13)</f>
@@ -2113,162 +2252,186 @@
       </c>
       <c r="G14" s="2">
         <f t="shared" si="2"/>
-        <v>3.29</v>
+        <v>0</v>
       </c>
       <c r="H14" s="2">
         <f t="shared" si="2"/>
-        <v>4.1900000000000004</v>
+        <v>0</v>
       </c>
       <c r="I14" s="2">
         <f t="shared" si="2"/>
-        <v>4.1900000000000004</v>
+        <v>0</v>
       </c>
       <c r="J14" s="2">
         <f t="shared" si="2"/>
-        <v>5.14</v>
+        <v>0.51</v>
       </c>
       <c r="K14" s="2">
         <f t="shared" si="2"/>
-        <v>7.01</v>
+        <v>1.6</v>
       </c>
       <c r="L14" s="2">
         <f t="shared" si="2"/>
-        <v>8.82</v>
+        <v>2.62</v>
       </c>
       <c r="M14" s="2">
         <f t="shared" si="2"/>
-        <v>10.65</v>
+        <v>3.67</v>
       </c>
       <c r="N14" s="2">
         <f t="shared" si="2"/>
-        <v>12.45</v>
+        <v>4.6900000000000004</v>
       </c>
       <c r="O14" s="2">
         <f t="shared" si="2"/>
-        <v>15.059999999999999</v>
+        <v>6.14</v>
       </c>
       <c r="P14" s="2">
         <f t="shared" si="2"/>
-        <v>17.62</v>
+        <v>7.56</v>
       </c>
       <c r="Q14" s="2">
         <f t="shared" si="2"/>
-        <v>18.46</v>
+        <v>8.0299999999999994</v>
       </c>
       <c r="R14" s="2">
         <f t="shared" si="2"/>
-        <v>25.439999999999998</v>
+        <v>10.86</v>
       </c>
       <c r="S14" s="2">
         <f t="shared" si="2"/>
-        <v>31.979999999999997</v>
+        <v>12.74</v>
       </c>
       <c r="T14" s="2">
         <f t="shared" si="2"/>
-        <v>33.909999999999997</v>
+        <v>13.21</v>
       </c>
       <c r="U14" s="2">
         <f t="shared" si="2"/>
-        <v>56.680000000000007</v>
+        <v>19.73</v>
       </c>
       <c r="V14" s="2">
         <f t="shared" si="2"/>
-        <v>77.990000000000009</v>
+        <v>25.85</v>
       </c>
       <c r="W14" s="2">
         <f t="shared" si="2"/>
-        <v>91.789999999999992</v>
+        <v>31.22</v>
       </c>
       <c r="X14" s="2">
         <f t="shared" si="2"/>
-        <v>113.18</v>
+        <v>40.54</v>
       </c>
       <c r="Y14" s="2">
         <f t="shared" si="2"/>
-        <v>126.69</v>
+        <v>47.93</v>
       </c>
       <c r="Z14" s="2">
         <f t="shared" si="2"/>
-        <v>134.41999999999999</v>
+        <v>52.1</v>
       </c>
       <c r="AA14" s="2">
         <f t="shared" si="2"/>
-        <v>142.06</v>
+        <v>56.34</v>
       </c>
       <c r="AB14" s="2">
         <f t="shared" si="2"/>
-        <v>165.05</v>
+        <v>68.739999999999995</v>
       </c>
       <c r="AC14" s="2">
         <f t="shared" ref="AC14" si="3">SUM(AC9:AC13)</f>
-        <v>170.22</v>
+        <v>71.48</v>
       </c>
       <c r="AD14" s="2">
         <f t="shared" ref="AD14" si="4">SUM(AD9:AD13)</f>
-        <v>182.63</v>
+        <v>78.19</v>
       </c>
       <c r="AE14" s="2">
-        <f t="shared" ref="AE14:AS14" si="5">SUM(AE9:AE13)</f>
-        <v>197.04</v>
+        <f t="shared" ref="AE14:AY14" si="5">SUM(AE9:AE13)</f>
+        <v>85.96</v>
       </c>
       <c r="AF14" s="2">
         <f t="shared" si="5"/>
-        <v>204.65</v>
+        <v>90.11</v>
       </c>
       <c r="AG14" s="2">
         <f t="shared" si="5"/>
-        <v>235.12</v>
+        <v>106.98</v>
       </c>
       <c r="AH14" s="2">
         <f t="shared" si="5"/>
-        <v>250.33999999999997</v>
+        <v>115.2</v>
       </c>
       <c r="AI14" s="2">
         <f t="shared" si="5"/>
-        <v>257.89999999999998</v>
+        <v>119.25</v>
       </c>
       <c r="AJ14" s="2">
         <f t="shared" si="5"/>
-        <v>265.42</v>
+        <v>123.29</v>
       </c>
       <c r="AK14" s="2">
         <f t="shared" si="5"/>
-        <v>293.41000000000003</v>
+        <v>138.11000000000001</v>
       </c>
       <c r="AL14" s="2">
         <f t="shared" si="5"/>
-        <v>363.79</v>
+        <v>175.96</v>
       </c>
       <c r="AM14" s="2">
         <f t="shared" si="5"/>
-        <v>416.63</v>
+        <v>204.07</v>
       </c>
       <c r="AN14" s="2">
         <f t="shared" si="5"/>
-        <v>443.59000000000003</v>
+        <v>218.55</v>
       </c>
       <c r="AO14" s="2">
         <f t="shared" si="5"/>
-        <v>465.41999999999996</v>
+        <v>230.38</v>
       </c>
       <c r="AP14" s="2">
         <f t="shared" si="5"/>
-        <v>493.97</v>
+        <v>246.03</v>
       </c>
       <c r="AQ14" s="2">
         <f t="shared" si="5"/>
-        <v>507.1</v>
+        <v>252.9</v>
       </c>
       <c r="AR14" s="2">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>283.5</v>
       </c>
       <c r="AS14" s="2">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>292.04000000000002</v>
+      </c>
+      <c r="AT14" s="2">
+        <f t="shared" si="5"/>
+        <v>300.33999999999997</v>
+      </c>
+      <c r="AU14" s="2">
+        <f t="shared" si="5"/>
+        <v>312.36</v>
+      </c>
+      <c r="AV14" s="2">
+        <f t="shared" si="5"/>
+        <v>320.74</v>
+      </c>
+      <c r="AW14" s="2">
+        <f t="shared" si="5"/>
+        <v>325.81</v>
+      </c>
+      <c r="AX14" s="2">
+        <f t="shared" si="5"/>
+        <v>339.7</v>
+      </c>
+      <c r="AY14" s="2">
+        <f t="shared" si="5"/>
+        <v>346.62</v>
       </c>
     </row>
-    <row r="15" spans="1:46" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:51" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
         <v>13</v>
       </c>
@@ -2282,167 +2445,191 @@
       </c>
       <c r="G15" s="3">
         <f t="shared" si="6"/>
-        <v>5.9818181818181817E-5</v>
+        <v>0</v>
       </c>
       <c r="H15" s="3">
         <f t="shared" si="6"/>
-        <v>7.6181818181818189E-5</v>
+        <v>0</v>
       </c>
       <c r="I15" s="3">
         <f t="shared" si="6"/>
-        <v>7.6181818181818189E-5</v>
+        <v>0</v>
       </c>
       <c r="J15" s="3">
         <f t="shared" si="6"/>
-        <v>9.3454545454545453E-5</v>
+        <v>2.0400000000000001E-5</v>
       </c>
       <c r="K15" s="3">
         <f t="shared" si="6"/>
-        <v>1.2745454545454545E-4</v>
+        <v>6.3999999999999997E-5</v>
       </c>
       <c r="L15" s="3">
         <f t="shared" si="6"/>
-        <v>1.6036363636363636E-4</v>
+        <v>1.048E-4</v>
       </c>
       <c r="M15" s="3">
         <f t="shared" si="6"/>
-        <v>1.9363636363636366E-4</v>
+        <v>1.4679999999999999E-4</v>
       </c>
       <c r="N15" s="3">
         <f t="shared" si="6"/>
-        <v>2.2636363636363636E-4</v>
+        <v>1.8760000000000001E-4</v>
       </c>
       <c r="O15" s="3">
         <f t="shared" ref="O15" si="7">O14/$C$14</f>
-        <v>2.7381818181818182E-4</v>
+        <v>2.4560000000000001E-4</v>
       </c>
       <c r="P15" s="3">
         <f t="shared" ref="P15" si="8">P14/$C$14</f>
-        <v>3.2036363636363637E-4</v>
+        <v>3.0239999999999998E-4</v>
       </c>
       <c r="Q15" s="3">
         <f t="shared" ref="Q15" si="9">Q14/$C$14</f>
-        <v>3.3563636363636364E-4</v>
+        <v>3.212E-4</v>
       </c>
       <c r="R15" s="3">
         <f t="shared" ref="R15" si="10">R14/$C$14</f>
-        <v>4.6254545454545452E-4</v>
+        <v>4.3439999999999999E-4</v>
       </c>
       <c r="S15" s="3">
         <f t="shared" ref="S15" si="11">S14/$C$14</f>
-        <v>5.8145454545454538E-4</v>
+        <v>5.0960000000000003E-4</v>
       </c>
       <c r="T15" s="3">
         <f t="shared" ref="T15" si="12">T14/$C$14</f>
-        <v>6.1654545454545447E-4</v>
+        <v>5.2840000000000005E-4</v>
       </c>
       <c r="U15" s="3">
         <f t="shared" ref="U15" si="13">U14/$C$14</f>
-        <v>1.0305454545454548E-3</v>
+        <v>7.8919999999999999E-4</v>
       </c>
       <c r="V15" s="3">
         <f t="shared" ref="V15:W15" si="14">V14/$C$14</f>
-        <v>1.4180000000000002E-3</v>
+        <v>1.034E-3</v>
       </c>
       <c r="W15" s="3">
         <f t="shared" si="14"/>
-        <v>1.6689090909090907E-3</v>
+        <v>1.2488E-3</v>
       </c>
       <c r="X15" s="3">
         <f t="shared" ref="X15" si="15">X14/$C$14</f>
-        <v>2.0578181818181819E-3</v>
+        <v>1.6216E-3</v>
       </c>
       <c r="Y15" s="3">
         <f t="shared" ref="Y15" si="16">Y14/$C$14</f>
-        <v>2.3034545454545456E-3</v>
+        <v>1.9172E-3</v>
       </c>
       <c r="Z15" s="3">
         <f t="shared" ref="Z15" si="17">Z14/$C$14</f>
-        <v>2.4439999999999996E-3</v>
+        <v>2.0839999999999999E-3</v>
       </c>
       <c r="AA15" s="3">
         <f t="shared" ref="AA15" si="18">AA14/$C$14</f>
-        <v>2.582909090909091E-3</v>
+        <v>2.2536000000000001E-3</v>
       </c>
       <c r="AB15" s="3">
         <f t="shared" ref="AB15" si="19">AB14/$C$14</f>
-        <v>3.000909090909091E-3</v>
+        <v>2.7495999999999996E-3</v>
       </c>
       <c r="AC15" s="3">
         <f t="shared" ref="AC15" si="20">AC14/$C$14</f>
-        <v>3.0949090909090909E-3</v>
+        <v>2.8592000000000001E-3</v>
       </c>
       <c r="AD15" s="3">
         <f t="shared" ref="AD15" si="21">AD14/$C$14</f>
-        <v>3.3205454545454545E-3</v>
+        <v>3.1275999999999999E-3</v>
       </c>
       <c r="AE15" s="3">
         <f t="shared" ref="AE15:AF15" si="22">AE14/$C$14</f>
-        <v>3.5825454545454546E-3</v>
+        <v>3.4383999999999999E-3</v>
       </c>
       <c r="AF15" s="3">
         <f t="shared" si="22"/>
-        <v>3.7209090909090911E-3</v>
+        <v>3.6043999999999998E-3</v>
       </c>
       <c r="AG15" s="3">
         <f>AG14/$C$14</f>
-        <v>4.2749090909090914E-3</v>
+        <v>4.2792000000000004E-3</v>
       </c>
       <c r="AH15" s="3">
-        <f t="shared" ref="AH15:AS15" si="23">AH14/$C$14</f>
-        <v>4.5516363636363636E-3</v>
+        <f t="shared" ref="AH15:AY15" si="23">AH14/$C$14</f>
+        <v>4.6080000000000001E-3</v>
       </c>
       <c r="AI15" s="3">
         <f t="shared" si="23"/>
-        <v>4.6890909090909084E-3</v>
+        <v>4.7699999999999999E-3</v>
       </c>
       <c r="AJ15" s="3">
         <f t="shared" si="23"/>
-        <v>4.825818181818182E-3</v>
+        <v>4.9316000000000004E-3</v>
       </c>
       <c r="AK15" s="3">
         <f t="shared" si="23"/>
-        <v>5.3347272727272731E-3</v>
+        <v>5.5244000000000005E-3</v>
       </c>
       <c r="AL15" s="3">
         <f t="shared" si="23"/>
-        <v>6.614363636363637E-3</v>
+        <v>7.0384000000000002E-3</v>
       </c>
       <c r="AM15" s="3">
         <f t="shared" si="23"/>
-        <v>7.5750909090909089E-3</v>
+        <v>8.1627999999999996E-3</v>
       </c>
       <c r="AN15" s="3">
         <f t="shared" si="23"/>
-        <v>8.0652727272727282E-3</v>
+        <v>8.7419999999999998E-3</v>
       </c>
       <c r="AO15" s="3">
         <f t="shared" si="23"/>
-        <v>8.4621818181818166E-3</v>
+        <v>9.2151999999999998E-3</v>
       </c>
       <c r="AP15" s="3">
         <f t="shared" si="23"/>
-        <v>8.9812727272727284E-3</v>
+        <v>9.8411999999999996E-3</v>
       </c>
       <c r="AQ15" s="3">
         <f t="shared" si="23"/>
-        <v>9.2200000000000008E-3</v>
+        <v>1.0116E-2</v>
       </c>
       <c r="AR15" s="3">
         <f t="shared" si="23"/>
-        <v>0</v>
+        <v>1.1339999999999999E-2</v>
       </c>
       <c r="AS15" s="3">
         <f t="shared" si="23"/>
-        <v>0</v>
+        <v>1.16816E-2</v>
+      </c>
+      <c r="AT15" s="3">
+        <f t="shared" si="23"/>
+        <v>1.2013599999999999E-2</v>
+      </c>
+      <c r="AU15" s="3">
+        <f t="shared" si="23"/>
+        <v>1.2494400000000001E-2</v>
+      </c>
+      <c r="AV15" s="3">
+        <f t="shared" si="23"/>
+        <v>1.28296E-2</v>
+      </c>
+      <c r="AW15" s="3">
+        <f t="shared" si="23"/>
+        <v>1.30324E-2</v>
+      </c>
+      <c r="AX15" s="3">
+        <f t="shared" si="23"/>
+        <v>1.3587999999999999E-2</v>
+      </c>
+      <c r="AY15" s="3">
+        <f t="shared" si="23"/>
+        <v>1.38648E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:51" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
         <v>9</v>
       </c>
       <c r="C16">
-        <v>48000</v>
+        <v>3000</v>
       </c>
       <c r="E16">
         <f>SUM(overall!E14:E24)</f>
@@ -2584,13 +2771,37 @@
       <c r="AQ16">
         <v>600.80999999999995</v>
       </c>
+      <c r="AR16">
+        <v>690.08</v>
+      </c>
+      <c r="AS16">
+        <v>713.67</v>
+      </c>
+      <c r="AT16">
+        <v>739.99</v>
+      </c>
+      <c r="AU16">
+        <v>745.17</v>
+      </c>
+      <c r="AV16">
+        <v>788.81</v>
+      </c>
+      <c r="AW16">
+        <v>795.74</v>
+      </c>
+      <c r="AX16">
+        <v>821.41</v>
+      </c>
+      <c r="AY16">
+        <v>34.24</v>
+      </c>
     </row>
-    <row r="18" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:51" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C18">
-        <v>17500</v>
+        <v>5000</v>
       </c>
       <c r="AB18">
         <v>14.17</v>
@@ -2640,11 +2851,58 @@
       <c r="AQ18">
         <v>115.66</v>
       </c>
+      <c r="AR18">
+        <v>146.43</v>
+      </c>
+      <c r="AS18">
+        <v>152.57</v>
+      </c>
+      <c r="AT18">
+        <v>167.92</v>
+      </c>
+      <c r="AU18">
+        <v>174.42</v>
+      </c>
+      <c r="AV18">
+        <v>166.55</v>
+      </c>
+      <c r="AW18">
+        <v>174.76</v>
+      </c>
+      <c r="AX18">
+        <v>181.83</v>
+      </c>
+      <c r="AY18">
+        <v>31.22</v>
+      </c>
     </row>
-    <row r="20" spans="1:45" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>67</v>
-      </c>
+    <row r="19" spans="1:51" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>66</v>
+      </c>
+      <c r="B19" t="s">
+        <v>126</v>
+      </c>
+      <c r="C19">
+        <v>3000</v>
+      </c>
+      <c r="AU19">
+        <v>7.61</v>
+      </c>
+      <c r="AV19">
+        <v>4.58</v>
+      </c>
+      <c r="AW19">
+        <v>5.05</v>
+      </c>
+      <c r="AX19">
+        <v>15.76</v>
+      </c>
+      <c r="AY19">
+        <v>18.32</v>
+      </c>
+    </row>
+    <row r="20" spans="1:51" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
         <v>50</v>
       </c>
@@ -2711,9 +2969,36 @@
       <c r="AQ20">
         <v>149.19999999999999</v>
       </c>
+      <c r="AR20">
+        <v>174.76</v>
+      </c>
+      <c r="AS20">
+        <v>181.17</v>
+      </c>
+      <c r="AT20">
+        <v>187.59</v>
+      </c>
+      <c r="AU20">
+        <v>196.61</v>
+      </c>
+      <c r="AV20">
+        <v>202.84</v>
+      </c>
+      <c r="AW20">
+        <v>205.68</v>
+      </c>
+      <c r="AX20">
+        <v>216.81</v>
+      </c>
+      <c r="AY20">
+        <v>222.63</v>
+      </c>
     </row>
-    <row r="21" spans="1:45" x14ac:dyDescent="0.3">
-      <c r="B21" t="s">
+    <row r="21" spans="1:51" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>133</v>
+      </c>
+      <c r="B21" s="18" t="s">
         <v>51</v>
       </c>
       <c r="C21">
@@ -2782,9 +3067,36 @@
       <c r="AQ21">
         <v>340.36</v>
       </c>
+      <c r="AR21">
+        <v>539.20000000000005</v>
+      </c>
+      <c r="AS21">
+        <v>542.57000000000005</v>
+      </c>
+      <c r="AT21">
+        <v>626.82000000000005</v>
+      </c>
+      <c r="AU21">
+        <v>596.49</v>
+      </c>
+      <c r="AV21">
+        <v>387.54</v>
+      </c>
+      <c r="AW21">
+        <v>502.13</v>
+      </c>
+      <c r="AX21">
+        <v>407.76</v>
+      </c>
+      <c r="AY21">
+        <v>296.55</v>
+      </c>
     </row>
-    <row r="22" spans="1:45" x14ac:dyDescent="0.3">
-      <c r="B22" t="s">
+    <row r="22" spans="1:51" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>133</v>
+      </c>
+      <c r="B22" s="18" t="s">
         <v>52</v>
       </c>
       <c r="C22">
@@ -2853,13 +3165,40 @@
       <c r="AQ22">
         <v>185.5</v>
       </c>
+      <c r="AR22">
+        <v>266.13</v>
+      </c>
+      <c r="AS22">
+        <v>259.01</v>
+      </c>
+      <c r="AT22">
+        <v>308.81</v>
+      </c>
+      <c r="AU22">
+        <v>287.47000000000003</v>
+      </c>
+      <c r="AV22">
+        <v>183.13</v>
+      </c>
+      <c r="AW22">
+        <v>244.78</v>
+      </c>
+      <c r="AX22">
+        <v>218.7</v>
+      </c>
+      <c r="AY22">
+        <v>159.41</v>
+      </c>
     </row>
-    <row r="23" spans="1:45" x14ac:dyDescent="0.3">
-      <c r="B23" t="s">
+    <row r="23" spans="1:51" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>134</v>
+      </c>
+      <c r="B23" s="19" t="s">
         <v>53</v>
       </c>
       <c r="C23">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="W23">
         <v>0</v>
@@ -2924,9 +3263,36 @@
       <c r="AQ23">
         <v>180.78</v>
       </c>
+      <c r="AR23">
+        <v>177.53</v>
+      </c>
+      <c r="AS23">
+        <v>340.35</v>
+      </c>
+      <c r="AT23">
+        <v>418.51</v>
+      </c>
+      <c r="AU23">
+        <v>610.65</v>
+      </c>
+      <c r="AV23">
+        <v>646.47</v>
+      </c>
+      <c r="AW23">
+        <v>638.33000000000004</v>
+      </c>
+      <c r="AX23">
+        <v>745.79</v>
+      </c>
+      <c r="AY23">
+        <v>843.49</v>
+      </c>
     </row>
-    <row r="24" spans="1:45" x14ac:dyDescent="0.3">
-      <c r="B24" t="s">
+    <row r="24" spans="1:51" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>133</v>
+      </c>
+      <c r="B24" s="18" t="s">
         <v>54</v>
       </c>
       <c r="C24">
@@ -2995,13 +3361,40 @@
       <c r="AQ24">
         <v>84.76</v>
       </c>
+      <c r="AR24">
+        <v>109.28</v>
+      </c>
+      <c r="AS24">
+        <v>109.28</v>
+      </c>
+      <c r="AT24">
+        <v>117.45</v>
+      </c>
+      <c r="AU24">
+        <v>118.36</v>
+      </c>
+      <c r="AV24">
+        <v>100.2</v>
+      </c>
+      <c r="AW24">
+        <v>115.63</v>
+      </c>
+      <c r="AX24">
+        <v>108.37</v>
+      </c>
+      <c r="AY24">
+        <v>97.47</v>
+      </c>
     </row>
-    <row r="25" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:51" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>134</v>
+      </c>
       <c r="B25" t="s">
         <v>58</v>
       </c>
       <c r="C25">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="X25">
         <v>0</v>
@@ -3063,13 +3456,40 @@
       <c r="AQ25">
         <v>92.4</v>
       </c>
+      <c r="AR25">
+        <v>225.07</v>
+      </c>
+      <c r="AS25">
+        <v>435.39</v>
+      </c>
+      <c r="AT25">
+        <v>474.22</v>
+      </c>
+      <c r="AU25">
+        <v>606.89</v>
+      </c>
+      <c r="AV25">
+        <v>712.05</v>
+      </c>
+      <c r="AW25">
+        <v>542.54</v>
+      </c>
+      <c r="AX25">
+        <v>918.07</v>
+      </c>
+      <c r="AY25">
+        <v>1171.1099999999999</v>
+      </c>
     </row>
-    <row r="26" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:51" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>134</v>
+      </c>
       <c r="B26" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C26">
-        <v>1000</v>
+        <v>10000</v>
       </c>
       <c r="AA26">
         <v>0</v>
@@ -3122,14 +3542,38 @@
       <c r="AQ26">
         <v>11.87</v>
       </c>
+      <c r="AR26">
+        <v>44.07</v>
+      </c>
+      <c r="AS26">
+        <v>92.36</v>
+      </c>
+      <c r="AT26">
+        <v>113.82</v>
+      </c>
+      <c r="AU26">
+        <v>156.74</v>
+      </c>
+      <c r="AV26">
+        <v>183.57</v>
+      </c>
+      <c r="AW26">
+        <v>167.47</v>
+      </c>
+      <c r="AX26">
+        <v>221.13</v>
+      </c>
+      <c r="AY26">
+        <v>242.59</v>
+      </c>
     </row>
-    <row r="27" spans="1:45" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:51" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C27" s="2">
-        <f>SUM(C20:C26)</f>
-        <v>134000</v>
+        <f>SUM(C19:C26)</f>
+        <v>161000</v>
       </c>
       <c r="X27" s="2">
         <f>SUM(X20:X25)</f>
@@ -3156,7 +3600,7 @@
         <v>244.50000000000006</v>
       </c>
       <c r="AD27" s="2">
-        <f t="shared" ref="AD27:AS27" si="24">SUM(AD20:AD26)</f>
+        <f t="shared" ref="AD27:AT27" si="24">SUM(AD20:AD26)</f>
         <v>310.15999999999997</v>
       </c>
       <c r="AE27" s="2">
@@ -3213,115 +3657,163 @@
       </c>
       <c r="AR27" s="2">
         <f t="shared" si="24"/>
-        <v>0</v>
+        <v>1536.04</v>
       </c>
       <c r="AS27" s="2">
         <f t="shared" si="24"/>
-        <v>0</v>
+        <v>1960.1299999999999</v>
+      </c>
+      <c r="AT27" s="2">
+        <f t="shared" si="24"/>
+        <v>2247.2200000000003</v>
+      </c>
+      <c r="AU27" s="2">
+        <f>SUM(AU19:AU26)</f>
+        <v>2580.8199999999997</v>
+      </c>
+      <c r="AV27" s="2">
+        <f>SUM(AV19:AV26)</f>
+        <v>2420.38</v>
+      </c>
+      <c r="AW27" s="2">
+        <f>SUM(AW19:AW26)</f>
+        <v>2421.6099999999997</v>
+      </c>
+      <c r="AX27" s="2">
+        <f>SUM(AX19:AX26)</f>
+        <v>2852.3900000000003</v>
+      </c>
+      <c r="AY27" s="2">
+        <f>SUM(AY19:AY26)</f>
+        <v>3051.57</v>
       </c>
     </row>
-    <row r="28" spans="1:45" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:51" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A28" s="3" t="s">
         <v>13</v>
       </c>
       <c r="X28" s="3">
         <f>X27/$C$27</f>
-        <v>3.4365671641791042E-4</v>
+        <v>2.8602484472049685E-4</v>
       </c>
       <c r="Y28" s="3">
         <f t="shared" ref="Y28:AD28" si="25">Y27/$C$27</f>
-        <v>8.9813432835820887E-4</v>
+        <v>7.4751552795031056E-4</v>
       </c>
       <c r="Z28" s="3">
         <f t="shared" si="25"/>
-        <v>7.8320895522388065E-4</v>
+        <v>6.5186335403726709E-4</v>
       </c>
       <c r="AA28" s="3">
         <f t="shared" si="25"/>
-        <v>1.7127611940298507E-3</v>
+        <v>1.425527950310559E-3</v>
       </c>
       <c r="AB28" s="3">
         <f t="shared" si="25"/>
-        <v>2.7358208955223879E-3</v>
+        <v>2.2770186335403725E-3</v>
       </c>
       <c r="AC28" s="3">
         <f t="shared" si="25"/>
-        <v>1.8246268656716422E-3</v>
+        <v>1.5186335403726712E-3</v>
       </c>
       <c r="AD28" s="3">
         <f t="shared" si="25"/>
-        <v>2.3146268656716418E-3</v>
+        <v>1.9264596273291924E-3</v>
       </c>
       <c r="AE28" s="3">
         <f>AE27/$C$27</f>
-        <v>2.0512686567164184E-3</v>
+        <v>1.707267080745342E-3</v>
       </c>
       <c r="AF28" s="3">
-        <f t="shared" ref="AF28:AS28" si="26">AF27/$C$27</f>
-        <v>1.7677611940298509E-3</v>
+        <f t="shared" ref="AF28:AY28" si="26">AF27/$C$27</f>
+        <v>1.471304347826087E-3</v>
       </c>
       <c r="AG28" s="3">
         <f t="shared" si="26"/>
-        <v>2.8399253731343286E-3</v>
+        <v>2.3636645962732922E-3</v>
       </c>
       <c r="AH28" s="3">
         <f t="shared" si="26"/>
-        <v>4.6436567164179115E-3</v>
+        <v>3.8649068322981375E-3</v>
       </c>
       <c r="AI28" s="3">
         <f t="shared" si="26"/>
-        <v>4.8041791044776119E-3</v>
+        <v>3.9985093167701864E-3</v>
       </c>
       <c r="AJ28" s="3">
         <f t="shared" si="26"/>
-        <v>4.4288059701492535E-3</v>
+        <v>3.6860869565217389E-3</v>
       </c>
       <c r="AK28" s="3">
         <f t="shared" si="26"/>
-        <v>6.5022388059701492E-4</v>
+        <v>5.4118012422360248E-4</v>
       </c>
       <c r="AL28" s="3">
         <f t="shared" si="26"/>
-        <v>2.3235074626865673E-3</v>
+        <v>1.9338509316770187E-3</v>
       </c>
       <c r="AM28" s="3">
         <f t="shared" si="26"/>
-        <v>3.1997761194029854E-3</v>
+        <v>2.6631677018633545E-3</v>
       </c>
       <c r="AN28" s="3">
         <f t="shared" si="26"/>
-        <v>2.7749253731343283E-3</v>
+        <v>2.3095652173913041E-3</v>
       </c>
       <c r="AO28" s="3">
         <f t="shared" si="26"/>
-        <v>5.5699253731343289E-3</v>
+        <v>4.6358385093167708E-3</v>
       </c>
       <c r="AP28" s="3">
         <f t="shared" si="26"/>
-        <v>7.196492537313433E-3</v>
+        <v>5.9896273291925465E-3</v>
       </c>
       <c r="AQ28" s="3">
         <f t="shared" si="26"/>
-        <v>7.7975373134328346E-3</v>
+        <v>6.4898757763975148E-3</v>
       </c>
       <c r="AR28" s="3">
         <f t="shared" si="26"/>
-        <v>0</v>
+        <v>9.5406211180124219E-3</v>
       </c>
       <c r="AS28" s="3">
         <f t="shared" si="26"/>
-        <v>0</v>
+        <v>1.2174720496894409E-2</v>
+      </c>
+      <c r="AT28" s="3">
+        <f t="shared" si="26"/>
+        <v>1.3957888198757765E-2</v>
+      </c>
+      <c r="AU28" s="3">
+        <f t="shared" si="26"/>
+        <v>1.6029937888198755E-2</v>
+      </c>
+      <c r="AV28" s="3">
+        <f t="shared" si="26"/>
+        <v>1.5033416149068324E-2</v>
+      </c>
+      <c r="AW28" s="3">
+        <f t="shared" si="26"/>
+        <v>1.5041055900621115E-2</v>
+      </c>
+      <c r="AX28" s="3">
+        <f t="shared" si="26"/>
+        <v>1.7716708074534165E-2</v>
+      </c>
+      <c r="AY28" s="3">
+        <f t="shared" si="26"/>
+        <v>1.8953850931677018E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>119</v>
-      </c>
-      <c r="B29" t="s">
-        <v>110</v>
+        <v>118</v>
+      </c>
+      <c r="B29" s="20" t="s">
+        <v>109</v>
       </c>
       <c r="C29">
-        <v>35000</v>
+        <v>36800</v>
       </c>
       <c r="AA29">
         <v>0</v>
@@ -3374,13 +3866,37 @@
       <c r="AQ29">
         <v>168.45</v>
       </c>
+      <c r="AR29">
+        <v>224.11</v>
+      </c>
+      <c r="AS29">
+        <v>233.28</v>
+      </c>
+      <c r="AT29">
+        <v>264.06</v>
+      </c>
+      <c r="AU29">
+        <v>272.13</v>
+      </c>
+      <c r="AV29">
+        <v>243.88</v>
+      </c>
+      <c r="AW29">
+        <v>268.08999999999997</v>
+      </c>
+      <c r="AX29">
+        <v>270.11</v>
+      </c>
+      <c r="AY29">
+        <v>249.94</v>
+      </c>
     </row>
-    <row r="30" spans="1:45" x14ac:dyDescent="0.3">
-      <c r="B30" t="s">
-        <v>105</v>
+    <row r="30" spans="1:51" x14ac:dyDescent="0.3">
+      <c r="B30" s="20" t="s">
+        <v>104</v>
       </c>
       <c r="C30">
-        <v>12600</v>
+        <v>20000</v>
       </c>
       <c r="AG30">
         <v>0.97</v>
@@ -3415,10 +3931,34 @@
       <c r="AQ30">
         <v>47.34</v>
       </c>
+      <c r="AR30">
+        <v>77.41</v>
+      </c>
+      <c r="AS30">
+        <v>78.31</v>
+      </c>
+      <c r="AT30">
+        <v>93.9</v>
+      </c>
+      <c r="AU30">
+        <v>91.01</v>
+      </c>
+      <c r="AV30">
+        <v>48.85</v>
+      </c>
+      <c r="AW30">
+        <v>76.42</v>
+      </c>
+      <c r="AX30">
+        <v>54.73</v>
+      </c>
+      <c r="AY30">
+        <v>23.7</v>
+      </c>
     </row>
-    <row r="31" spans="1:45" x14ac:dyDescent="0.3">
-      <c r="B31" t="s">
-        <v>111</v>
+    <row r="31" spans="1:51" x14ac:dyDescent="0.3">
+      <c r="B31" s="20" t="s">
+        <v>110</v>
       </c>
       <c r="C31">
         <v>10000</v>
@@ -3447,10 +3987,34 @@
       <c r="AQ31">
         <v>37.85</v>
       </c>
+      <c r="AR31">
+        <v>64.27</v>
+      </c>
+      <c r="AS31">
+        <v>93.03</v>
+      </c>
+      <c r="AT31">
+        <v>110.13</v>
+      </c>
+      <c r="AU31">
+        <v>129.56</v>
+      </c>
+      <c r="AV31">
+        <v>134.22</v>
+      </c>
+      <c r="AW31">
+        <v>136.55000000000001</v>
+      </c>
+      <c r="AX31">
+        <v>152.87</v>
+      </c>
+      <c r="AY31">
+        <v>155.19999999999999</v>
+      </c>
     </row>
-    <row r="32" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:51" x14ac:dyDescent="0.3">
       <c r="B32" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C32">
         <v>5000</v>
@@ -3473,10 +4037,34 @@
       <c r="AQ32">
         <v>48.06</v>
       </c>
+      <c r="AR32">
+        <v>71.89</v>
+      </c>
+      <c r="AS32">
+        <v>75.290000000000006</v>
+      </c>
+      <c r="AT32">
+        <v>85.5</v>
+      </c>
+      <c r="AU32">
+        <v>88.91</v>
+      </c>
+      <c r="AV32">
+        <v>78.69</v>
+      </c>
+      <c r="AW32">
+        <v>82.1</v>
+      </c>
+      <c r="AX32">
+        <v>85.5</v>
+      </c>
+      <c r="AY32">
+        <v>78.69</v>
+      </c>
     </row>
-    <row r="33" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:51" x14ac:dyDescent="0.3">
       <c r="B33" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C33">
         <v>5000</v>
@@ -3496,13 +4084,37 @@
       <c r="AQ33">
         <v>9.3000000000000007</v>
       </c>
+      <c r="AR33">
+        <v>34.590000000000003</v>
+      </c>
+      <c r="AS33">
+        <v>44.46</v>
+      </c>
+      <c r="AT33">
+        <v>52.17</v>
+      </c>
+      <c r="AU33">
+        <v>53.46</v>
+      </c>
+      <c r="AV33">
+        <v>44.03</v>
+      </c>
+      <c r="AW33">
+        <v>49.6</v>
+      </c>
+      <c r="AX33">
+        <v>50.3</v>
+      </c>
+      <c r="AY33">
+        <v>47.46</v>
+      </c>
     </row>
-    <row r="34" spans="1:45" x14ac:dyDescent="0.3">
-      <c r="B34" t="s">
-        <v>96</v>
+    <row r="34" spans="1:51" x14ac:dyDescent="0.3">
+      <c r="B34" s="20" t="s">
+        <v>95</v>
       </c>
       <c r="C34">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="AA34">
         <v>0</v>
@@ -3555,13 +4167,37 @@
       <c r="AQ34">
         <v>27.49</v>
       </c>
+      <c r="AR34">
+        <v>40.21</v>
+      </c>
+      <c r="AS34">
+        <v>41.27</v>
+      </c>
+      <c r="AT34">
+        <v>46.92</v>
+      </c>
+      <c r="AU34">
+        <v>49.66</v>
+      </c>
+      <c r="AV34">
+        <v>39.630000000000003</v>
+      </c>
+      <c r="AW34">
+        <v>46.49</v>
+      </c>
+      <c r="AX34">
+        <v>48.07</v>
+      </c>
+      <c r="AY34">
+        <v>40.159999999999997</v>
+      </c>
     </row>
-    <row r="35" spans="1:45" x14ac:dyDescent="0.3">
-      <c r="B35" t="s">
-        <v>106</v>
+    <row r="35" spans="1:51" x14ac:dyDescent="0.3">
+      <c r="B35" s="20" t="s">
+        <v>105</v>
       </c>
       <c r="C35">
-        <v>3100</v>
+        <v>5500</v>
       </c>
       <c r="AG35">
         <v>0.03</v>
@@ -3596,69 +4232,37 @@
       <c r="AQ35">
         <v>18.920000000000002</v>
       </c>
+      <c r="AR35">
+        <v>36.49</v>
+      </c>
+      <c r="AS35">
+        <v>34.950000000000003</v>
+      </c>
+      <c r="AT35">
+        <v>42.37</v>
+      </c>
+      <c r="AU35">
+        <v>39.04</v>
+      </c>
+      <c r="AV35">
+        <v>20.3</v>
+      </c>
+      <c r="AW35">
+        <v>29.3</v>
+      </c>
+      <c r="AX35">
+        <v>26.21</v>
+      </c>
+      <c r="AY35">
+        <v>20.25</v>
+      </c>
     </row>
-    <row r="36" spans="1:45" x14ac:dyDescent="0.3">
-      <c r="B36" t="s">
-        <v>77</v>
-      </c>
-      <c r="C36">
-        <v>2000</v>
-      </c>
-      <c r="AA36">
-        <v>0</v>
-      </c>
-      <c r="AB36">
-        <v>0</v>
-      </c>
-      <c r="AC36">
-        <v>-1.59</v>
-      </c>
-      <c r="AD36">
-        <v>0.99</v>
-      </c>
-      <c r="AE36">
-        <v>-1.99</v>
-      </c>
-      <c r="AF36">
-        <v>-2.48</v>
-      </c>
-      <c r="AG36">
-        <v>-0.31</v>
-      </c>
-      <c r="AH36">
-        <v>-0.31</v>
-      </c>
-      <c r="AI36">
-        <v>-0.9</v>
-      </c>
-      <c r="AJ36">
-        <v>-2.69</v>
-      </c>
-      <c r="AK36">
-        <v>-10.81</v>
-      </c>
-      <c r="AL36">
-        <v>-8.64</v>
-      </c>
-      <c r="AM36">
-        <v>0.88</v>
-      </c>
-      <c r="AN36">
-        <v>1.27</v>
-      </c>
-      <c r="AO36">
-        <v>3.65</v>
-      </c>
-      <c r="AP36">
-        <v>4.4400000000000004</v>
-      </c>
-      <c r="AQ36">
-        <v>4.05</v>
-      </c>
+    <row r="36" spans="1:51" x14ac:dyDescent="0.3">
+      <c r="B36" s="20"/>
     </row>
-    <row r="37" spans="1:45" x14ac:dyDescent="0.3">
-      <c r="B37" t="s">
-        <v>74</v>
+    <row r="37" spans="1:51" x14ac:dyDescent="0.3">
+      <c r="B37" s="20" t="s">
+        <v>73</v>
       </c>
       <c r="C37">
         <v>1000</v>
@@ -3714,69 +4318,34 @@
       <c r="AQ37">
         <v>7.86</v>
       </c>
+      <c r="AR37">
+        <v>9.5299999999999994</v>
+      </c>
+      <c r="AS37">
+        <v>10.67</v>
+      </c>
+      <c r="AT37">
+        <v>11.37</v>
+      </c>
+      <c r="AU37">
+        <v>18.510000000000002</v>
+      </c>
+      <c r="AV37">
+        <v>17.46</v>
+      </c>
+      <c r="AW37">
+        <v>11.71</v>
+      </c>
+      <c r="AX37">
+        <v>27.92</v>
+      </c>
+      <c r="AY37">
+        <v>29.75</v>
+      </c>
     </row>
-    <row r="38" spans="1:45" x14ac:dyDescent="0.3">
-      <c r="B38" t="s">
+    <row r="39" spans="1:51" x14ac:dyDescent="0.3">
+      <c r="B39" s="20" t="s">
         <v>75</v>
-      </c>
-      <c r="C38">
-        <v>1000</v>
-      </c>
-      <c r="AA38">
-        <v>0</v>
-      </c>
-      <c r="AB38">
-        <v>0</v>
-      </c>
-      <c r="AC38">
-        <v>-1.47</v>
-      </c>
-      <c r="AD38">
-        <v>-2.33</v>
-      </c>
-      <c r="AE38">
-        <v>-3.2</v>
-      </c>
-      <c r="AF38">
-        <v>-3.3</v>
-      </c>
-      <c r="AG38">
-        <v>-2.2400000000000002</v>
-      </c>
-      <c r="AH38">
-        <v>-1.37</v>
-      </c>
-      <c r="AI38">
-        <v>-1.47</v>
-      </c>
-      <c r="AJ38">
-        <v>-2.2400000000000002</v>
-      </c>
-      <c r="AK38">
-        <v>-8.1999999999999993</v>
-      </c>
-      <c r="AL38">
-        <v>-7.05</v>
-      </c>
-      <c r="AM38">
-        <v>-1.85</v>
-      </c>
-      <c r="AN38">
-        <v>-2.2400000000000002</v>
-      </c>
-      <c r="AO38">
-        <v>-0.12</v>
-      </c>
-      <c r="AP38">
-        <v>0.93</v>
-      </c>
-      <c r="AQ38">
-        <v>1.61</v>
-      </c>
-    </row>
-    <row r="39" spans="1:45" x14ac:dyDescent="0.3">
-      <c r="B39" t="s">
-        <v>76</v>
       </c>
       <c r="C39">
         <v>1000</v>
@@ -3832,10 +4401,34 @@
       <c r="AQ39">
         <v>4.46</v>
       </c>
+      <c r="AR39">
+        <v>6.11</v>
+      </c>
+      <c r="AS39">
+        <v>6.29</v>
+      </c>
+      <c r="AT39">
+        <v>11.58</v>
+      </c>
+      <c r="AU39">
+        <v>7.2</v>
+      </c>
+      <c r="AV39">
+        <v>6.47</v>
+      </c>
+      <c r="AW39">
+        <v>7.11</v>
+      </c>
+      <c r="AX39">
+        <v>7.29</v>
+      </c>
+      <c r="AY39">
+        <v>6.93</v>
+      </c>
     </row>
-    <row r="40" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:51" x14ac:dyDescent="0.3">
       <c r="B40" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C40">
         <v>1000</v>
@@ -3858,287 +4451,427 @@
       <c r="AQ40">
         <v>5.16</v>
       </c>
+      <c r="AR40">
+        <v>9.19</v>
+      </c>
+      <c r="AS40">
+        <v>10.62</v>
+      </c>
+      <c r="AT40">
+        <v>7.02</v>
+      </c>
+      <c r="AU40">
+        <v>12.64</v>
+      </c>
+      <c r="AV40">
+        <v>10.82</v>
+      </c>
+      <c r="AW40">
+        <v>10.24</v>
+      </c>
+      <c r="AX40">
+        <v>12.73</v>
+      </c>
+      <c r="AY40">
+        <v>16.09</v>
+      </c>
     </row>
-    <row r="41" spans="1:45" x14ac:dyDescent="0.3">
-      <c r="A41" t="s">
+    <row r="41" spans="1:51" x14ac:dyDescent="0.3">
+      <c r="B41" t="s">
+        <v>128</v>
+      </c>
+      <c r="C41">
+        <v>5000</v>
+      </c>
+      <c r="AV41">
+        <v>-8.57</v>
+      </c>
+      <c r="AW41">
+        <v>-2</v>
+      </c>
+      <c r="AX41">
+        <v>-5.94</v>
+      </c>
+      <c r="AY41">
+        <v>-9.8800000000000008</v>
+      </c>
+    </row>
+    <row r="42" spans="1:51" x14ac:dyDescent="0.3">
+      <c r="B42" t="s">
+        <v>129</v>
+      </c>
+      <c r="C42">
+        <v>5000</v>
+      </c>
+      <c r="AV42">
+        <v>-15.6</v>
+      </c>
+      <c r="AW42">
+        <v>-8.85</v>
+      </c>
+      <c r="AX42">
+        <v>-13.44</v>
+      </c>
+      <c r="AY42">
+        <v>-25.85</v>
+      </c>
+    </row>
+    <row r="43" spans="1:51" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
         <v>56</v>
       </c>
-      <c r="C41">
-        <f>SUM(C29:C40)</f>
-        <v>80700</v>
-      </c>
-      <c r="AB41">
+      <c r="C43">
+        <f>SUM(C29:C42)</f>
+        <v>101300</v>
+      </c>
+      <c r="AB43">
         <f>SUM(AB29:AB34)</f>
         <v>0</v>
       </c>
-      <c r="AC41">
+      <c r="AC43">
         <f>SUM(AC29:AC33)</f>
         <v>0</v>
       </c>
-      <c r="AD41">
+      <c r="AD43">
         <f>SUM(AD29:AD34)</f>
         <v>-1.36</v>
       </c>
-      <c r="AE41">
+      <c r="AE43">
         <f>SUM(AE29:AE34)</f>
         <v>-3.66</v>
       </c>
-      <c r="AF41">
+      <c r="AF43">
         <f>SUM(AF29:AF34)</f>
         <v>-3.42</v>
       </c>
-      <c r="AG41">
+      <c r="AG43">
         <f>SUM(AG29:AG37)</f>
-        <v>-7.1</v>
-      </c>
-      <c r="AH41">
+        <v>-6.79</v>
+      </c>
+      <c r="AH43">
         <f>SUM(AH29:AH37)</f>
-        <v>28</v>
-      </c>
-      <c r="AI41">
+        <v>28.31</v>
+      </c>
+      <c r="AI43">
         <f>SUM(AI29:AI37)</f>
-        <v>27.38</v>
-      </c>
-      <c r="AJ41">
+        <v>28.279999999999998</v>
+      </c>
+      <c r="AJ43">
         <f>SUM(AJ29:AJ37)</f>
-        <v>6.0600000000000005</v>
-      </c>
-      <c r="AK41">
+        <v>8.75</v>
+      </c>
+      <c r="AK43">
         <f>SUM(AK29:AK37)</f>
-        <v>-111.6</v>
-      </c>
-      <c r="AL41">
+        <v>-100.78999999999999</v>
+      </c>
+      <c r="AL43">
         <f>SUM(AL29:AL40)</f>
-        <v>-16.689999999999998</v>
-      </c>
-      <c r="AM41">
+        <v>-1.0000000000000009</v>
+      </c>
+      <c r="AM43">
         <f>SUM(AM29:AM40)</f>
-        <v>119.8</v>
-      </c>
-      <c r="AN41">
+        <v>120.77</v>
+      </c>
+      <c r="AN43">
         <f>SUM(AN29:AN40)</f>
-        <v>128.31000000000003</v>
-      </c>
-      <c r="AO41">
+        <v>129.28000000000003</v>
+      </c>
+      <c r="AO43">
         <f>SUM(AO29:AO40)</f>
-        <v>214.13</v>
-      </c>
-      <c r="AP41">
+        <v>210.6</v>
+      </c>
+      <c r="AP43">
         <f>SUM(AP29:AP40)</f>
-        <v>341.35999999999996</v>
-      </c>
-      <c r="AQ41">
-        <f t="shared" ref="AQ41:AS41" si="27">SUM(AQ29:AQ40)</f>
-        <v>380.55000000000007</v>
-      </c>
-      <c r="AR41">
+        <v>335.98999999999995</v>
+      </c>
+      <c r="AQ43">
+        <f t="shared" ref="AQ43:AY43" si="27">SUM(AQ29:AQ40)</f>
+        <v>374.89000000000004</v>
+      </c>
+      <c r="AR43">
         <f t="shared" si="27"/>
-        <v>0</v>
-      </c>
-      <c r="AS41">
+        <v>573.80000000000007</v>
+      </c>
+      <c r="AS43">
         <f t="shared" si="27"/>
-        <v>0</v>
+        <v>628.16999999999996</v>
+      </c>
+      <c r="AT43">
+        <f t="shared" si="27"/>
+        <v>725.02</v>
+      </c>
+      <c r="AU43">
+        <f t="shared" si="27"/>
+        <v>762.12</v>
+      </c>
+      <c r="AV43">
+        <f>SUM(AV29:AV42)</f>
+        <v>620.18000000000006</v>
+      </c>
+      <c r="AW43">
+        <f t="shared" si="27"/>
+        <v>717.61</v>
+      </c>
+      <c r="AX43">
+        <f t="shared" si="27"/>
+        <v>735.73</v>
+      </c>
+      <c r="AY43">
+        <f t="shared" si="27"/>
+        <v>668.17</v>
       </c>
     </row>
-    <row r="42" spans="1:45" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="12" t="s">
+    <row r="44" spans="1:51" s="12" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="AA42">
-        <v>0</v>
-      </c>
-      <c r="AB42" s="12">
-        <f t="shared" ref="AB42:AR42" si="28">AB41/$C41</f>
-        <v>0</v>
-      </c>
-      <c r="AC42" s="12">
+      <c r="AA44">
+        <v>0</v>
+      </c>
+      <c r="AB44" s="12">
+        <f t="shared" ref="AB44:AY44" si="28">AB43/$C43</f>
+        <v>0</v>
+      </c>
+      <c r="AC44" s="12">
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
-      <c r="AD42" s="12">
+      <c r="AD44" s="12">
         <f t="shared" si="28"/>
-        <v>-1.6852540272614624E-5</v>
-      </c>
-      <c r="AE42" s="12">
+        <v>-1.3425468904244818E-5</v>
+      </c>
+      <c r="AE44" s="12">
         <f t="shared" si="28"/>
-        <v>-4.5353159851301118E-5</v>
-      </c>
-      <c r="AF42" s="12">
+        <v>-3.6130306021717672E-5</v>
+      </c>
+      <c r="AF44" s="12">
         <f t="shared" si="28"/>
-        <v>-4.2379182156133827E-5</v>
-      </c>
-      <c r="AG42" s="12">
+        <v>-3.3761105626850939E-5</v>
+      </c>
+      <c r="AG44" s="12">
         <f t="shared" si="28"/>
-        <v>-8.7980173482032215E-5</v>
-      </c>
-      <c r="AH42" s="12">
+        <v>-6.7028627838104635E-5</v>
+      </c>
+      <c r="AH44" s="12">
         <f t="shared" si="28"/>
-        <v>3.4696406443618339E-4</v>
-      </c>
-      <c r="AI42" s="12">
+        <v>2.7946692991115499E-4</v>
+      </c>
+      <c r="AI44" s="12">
         <f t="shared" si="28"/>
-        <v>3.3928128872366789E-4</v>
-      </c>
-      <c r="AJ42" s="12">
+        <v>2.7917077986179664E-4</v>
+      </c>
+      <c r="AJ44" s="12">
         <f t="shared" si="28"/>
-        <v>7.5092936802973985E-5</v>
-      </c>
-      <c r="AK42" s="12">
+        <v>8.6377097729516282E-5</v>
+      </c>
+      <c r="AK44" s="12">
         <f t="shared" si="28"/>
-        <v>-1.3828996282527881E-3</v>
-      </c>
-      <c r="AL42" s="12">
+        <v>-9.9496544916090812E-4</v>
+      </c>
+      <c r="AL44" s="12">
         <f t="shared" si="28"/>
-        <v>-2.0681536555142499E-4</v>
-      </c>
-      <c r="AM42" s="12">
+        <v>-9.8716683119447278E-6</v>
+      </c>
+      <c r="AM44" s="12">
         <f t="shared" si="28"/>
-        <v>1.4845105328376703E-3</v>
-      </c>
-      <c r="AN42" s="12">
+        <v>1.1922013820335636E-3</v>
+      </c>
+      <c r="AN44" s="12">
         <f t="shared" si="28"/>
-        <v>1.5899628252788109E-3</v>
-      </c>
-      <c r="AO42" s="12">
+        <v>1.2762092793682136E-3</v>
+      </c>
+      <c r="AO44" s="12">
         <f t="shared" si="28"/>
-        <v>2.6534076827757123E-3</v>
-      </c>
-      <c r="AP42" s="12">
+        <v>2.0789733464955575E-3</v>
+      </c>
+      <c r="AP44" s="12">
         <f t="shared" si="28"/>
-        <v>4.2299876084262696E-3</v>
-      </c>
-      <c r="AQ42" s="12">
+        <v>3.3167818361303056E-3</v>
+      </c>
+      <c r="AQ44" s="12">
         <f t="shared" si="28"/>
-        <v>4.7156133828996291E-3</v>
-      </c>
-      <c r="AR42" s="12">
+        <v>3.7007897334649562E-3</v>
+      </c>
+      <c r="AR44" s="12">
         <f t="shared" si="28"/>
-        <v>0</v>
+        <v>5.66436327739388E-3</v>
+      </c>
+      <c r="AS44" s="12">
+        <f t="shared" si="28"/>
+        <v>6.2010858835143132E-3</v>
+      </c>
+      <c r="AT44" s="12">
+        <f t="shared" si="28"/>
+        <v>7.1571569595261595E-3</v>
+      </c>
+      <c r="AU44" s="12">
+        <f t="shared" si="28"/>
+        <v>7.5233958538993093E-3</v>
+      </c>
+      <c r="AV44" s="12">
+        <f>AV43/$C43</f>
+        <v>6.1222112537018761E-3</v>
+      </c>
+      <c r="AW44" s="12">
+        <f t="shared" si="28"/>
+        <v>7.08400789733465E-3</v>
+      </c>
+      <c r="AX44" s="12">
+        <f t="shared" si="28"/>
+        <v>7.2628825271470882E-3</v>
+      </c>
+      <c r="AY44" s="12">
+        <f t="shared" si="28"/>
+        <v>6.5959526159921024E-3</v>
       </c>
     </row>
-    <row r="43" spans="1:45" x14ac:dyDescent="0.3">
-      <c r="A43" t="s">
+    <row r="45" spans="1:51" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
         <v>10</v>
       </c>
-      <c r="D43">
+      <c r="D45">
         <v>585.71</v>
       </c>
-      <c r="E43">
+      <c r="E45">
         <v>601.32000000000005</v>
       </c>
-      <c r="F43">
+      <c r="F45">
         <v>594.76</v>
       </c>
-      <c r="G43">
+      <c r="G45">
         <v>592.55999999999995</v>
       </c>
-      <c r="H43">
+      <c r="H45">
         <v>587.69000000000005</v>
       </c>
-      <c r="I43">
+      <c r="I45">
         <v>587.44000000000005</v>
       </c>
-      <c r="J43">
+      <c r="J45">
         <v>591.05999999999995</v>
       </c>
-      <c r="K43">
+      <c r="K45">
         <v>593.52</v>
       </c>
-      <c r="L43">
+      <c r="L45">
         <v>598.9</v>
       </c>
-      <c r="M43">
+      <c r="M45">
         <v>609.70000000000005</v>
       </c>
-      <c r="N43">
+      <c r="N45">
         <v>620.6</v>
       </c>
-      <c r="O43">
+      <c r="O45">
         <v>624.69000000000005</v>
       </c>
-      <c r="P43">
+      <c r="P45">
         <v>623.02</v>
       </c>
-      <c r="Q43">
+      <c r="Q45">
         <v>620.52</v>
       </c>
-      <c r="R43">
+      <c r="R45">
         <v>635.91999999999996</v>
       </c>
-      <c r="S43">
+      <c r="S45">
         <v>626.71</v>
       </c>
-      <c r="T43">
+      <c r="T45">
         <v>621.01</v>
       </c>
-      <c r="U43">
+      <c r="U45">
         <v>604.63</v>
       </c>
-      <c r="V43">
+      <c r="V45">
         <v>613.6</v>
       </c>
-      <c r="W43">
+      <c r="W45">
         <v>616.4</v>
       </c>
-      <c r="X43">
+      <c r="X45">
         <v>609.95000000000005</v>
       </c>
-      <c r="Y43">
+      <c r="Y45">
         <v>614.92999999999995</v>
       </c>
-      <c r="Z43">
+      <c r="Z45">
         <v>615.96</v>
       </c>
-      <c r="AA43">
+      <c r="AA45">
         <v>616.16</v>
       </c>
-      <c r="AB43">
+      <c r="AB45">
         <v>625.63</v>
       </c>
-      <c r="AC43">
+      <c r="AC45">
         <v>632.34</v>
       </c>
-      <c r="AD43">
+      <c r="AD45">
         <v>632.20000000000005</v>
       </c>
-      <c r="AE43">
+      <c r="AE45">
         <v>637.29</v>
       </c>
-      <c r="AF43">
+      <c r="AF45">
         <v>646.17999999999995</v>
       </c>
-      <c r="AG43">
+      <c r="AG45">
         <v>670.4</v>
       </c>
-      <c r="AH43">
+      <c r="AH45">
         <v>680.48</v>
       </c>
-      <c r="AI43">
+      <c r="AI45">
         <v>685.6</v>
       </c>
-      <c r="AJ43">
+      <c r="AJ45">
         <v>675.58</v>
       </c>
-      <c r="AK43">
+      <c r="AK45">
         <v>673.4</v>
       </c>
-      <c r="AL43">
+      <c r="AL45">
         <v>721</v>
       </c>
-      <c r="AM43">
+      <c r="AM45">
         <v>785.62</v>
       </c>
-      <c r="AN43">
+      <c r="AN45">
         <v>782</v>
       </c>
-      <c r="AO43">
+      <c r="AO45">
         <v>802.62</v>
       </c>
-      <c r="AP43">
+      <c r="AP45">
         <v>752.49</v>
       </c>
-      <c r="AQ43">
+      <c r="AQ45">
         <v>776.8</v>
+      </c>
+      <c r="AR45">
+        <v>775.04</v>
+      </c>
+      <c r="AS45">
+        <v>771.45</v>
+      </c>
+      <c r="AT45">
+        <v>769.44</v>
+      </c>
+      <c r="AU45">
+        <v>780.74</v>
+      </c>
+      <c r="AV45">
+        <v>770.04</v>
+      </c>
+      <c r="AW45">
+        <v>776.8</v>
+      </c>
+      <c r="AX45">
+        <v>772</v>
+      </c>
+      <c r="AY45">
+        <v>775.05</v>
       </c>
     </row>
   </sheetData>
@@ -4152,20 +4885,20 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C941263E-87ED-4B0C-8000-E76DC56DEE1A}">
-  <dimension ref="A1:AR41"/>
+  <dimension ref="A1:AY43"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="AI23" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="D20" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AR39" sqref="AR39"/>
+      <selection pane="bottomRight" activeCell="AY27" sqref="AY27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="C1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D1" t="str">
         <f>'overall-new'!D1</f>
@@ -4327,17 +5060,45 @@
         <f>'overall-new'!AQ1</f>
         <v>2025.05.26</v>
       </c>
-      <c r="AR1">
+      <c r="AR1" t="str">
         <f>'overall-new'!AR1</f>
-        <v>0</v>
+        <v>2025.06.24</v>
+      </c>
+      <c r="AS1" t="str">
+        <f>'overall-new'!AS1</f>
+        <v>2025.7.2</v>
+      </c>
+      <c r="AT1" t="str">
+        <f>'overall-new'!AT1</f>
+        <v>2025.7.10</v>
+      </c>
+      <c r="AU1" t="str">
+        <f>'overall-new'!AU1</f>
+        <v>2025.7.22</v>
+      </c>
+      <c r="AV1" t="str">
+        <f>'overall-new'!AV1</f>
+        <v>2025.7.30</v>
+      </c>
+      <c r="AW1" t="str">
+        <f>'overall-new'!AW1</f>
+        <v>2025.8.4</v>
+      </c>
+      <c r="AX1" t="str">
+        <f>'overall-new'!AX1</f>
+        <v>2025.8.18</v>
+      </c>
+      <c r="AY1" t="str">
+        <f>'overall-new'!AY1</f>
+        <v>2025.8.25</v>
       </c>
     </row>
-    <row r="2" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C2">
         <f>'overall-new'!C2</f>
@@ -4500,10 +5261,42 @@
         <f>IFERROR(('overall-new'!AQ2-'overall-new'!AP2)/'overall-new'!$C2, "")</f>
         <v>5.1118644067796358E-4</v>
       </c>
+      <c r="AR2" s="12">
+        <f>IFERROR(('overall-new'!AR2-'overall-new'!AQ2)/'overall-new'!$C2, "")</f>
+        <v>3.5664406779661031E-3</v>
+      </c>
+      <c r="AS2" s="12">
+        <f>IFERROR(('overall-new'!AS2-'overall-new'!AR2)/'overall-new'!$C2, "")</f>
+        <v>9.3694915254237247E-4</v>
+      </c>
+      <c r="AT2" s="12">
+        <f>IFERROR(('overall-new'!AT2-'overall-new'!AS2)/'overall-new'!$C2, "")</f>
+        <v>1.1600000000000009E-3</v>
+      </c>
+      <c r="AU2" s="12">
+        <f>IFERROR(('overall-new'!AU2-'overall-new'!AT2)/'overall-new'!$C2, "")</f>
+        <v>1.1610169491525423E-3</v>
+      </c>
+      <c r="AV2" s="12">
+        <f>IFERROR(('overall-new'!AV2-'overall-new'!AU2)/'overall-new'!$C2, "")</f>
+        <v>1.2474576271186426E-3</v>
+      </c>
+      <c r="AW2" s="12">
+        <f>IFERROR(('overall-new'!AW2-'overall-new'!AV2)/'overall-new'!$C2, "")</f>
+        <v>3.1389830508474545E-4</v>
+      </c>
+      <c r="AX2" s="12">
+        <f>IFERROR(('overall-new'!AX2-'overall-new'!AW2)/'overall-new'!$C2, "")</f>
+        <v>1.7654237288135606E-3</v>
+      </c>
+      <c r="AY2" s="12">
+        <f>IFERROR(('overall-new'!AY2-'overall-new'!AX2)/'overall-new'!$C2, "")</f>
+        <v>6.8474576271186595E-4</v>
+      </c>
     </row>
-    <row r="3" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:51" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C3">
         <f>'overall-new'!C3</f>
@@ -4666,10 +5459,42 @@
         <f>IFERROR(('overall-new'!AQ3-'overall-new'!AP3)/'overall-new'!$C3, "")</f>
         <v>3.3973509933774807E-4</v>
       </c>
+      <c r="AR3" s="12">
+        <f>IFERROR(('overall-new'!AR3-'overall-new'!AQ3)/'overall-new'!$C3, "")</f>
+        <v>3.6056291390728474E-3</v>
+      </c>
+      <c r="AS3" s="12">
+        <f>IFERROR(('overall-new'!AS3-'overall-new'!AR3)/'overall-new'!$C3, "")</f>
+        <v>9.0298013245033049E-4</v>
+      </c>
+      <c r="AT3" s="12">
+        <f>IFERROR(('overall-new'!AT3-'overall-new'!AS3)/'overall-new'!$C3, "")</f>
+        <v>8.9039735099337707E-4</v>
+      </c>
+      <c r="AU3" s="12">
+        <f>IFERROR(('overall-new'!AU3-'overall-new'!AT3)/'overall-new'!$C3, "")</f>
+        <v>1.3221854304635782E-3</v>
+      </c>
+      <c r="AV3" s="12">
+        <f>IFERROR(('overall-new'!AV3-'overall-new'!AU3)/'overall-new'!$C3, "")</f>
+        <v>8.8245033112582707E-4</v>
+      </c>
+      <c r="AW3" s="12">
+        <f>IFERROR(('overall-new'!AW3-'overall-new'!AV3)/'overall-new'!$C3, "")</f>
+        <v>3.3079470198675527E-4</v>
+      </c>
+      <c r="AX3" s="12">
+        <f>IFERROR(('overall-new'!AX3-'overall-new'!AW3)/'overall-new'!$C3, "")</f>
+        <v>1.5440397350993376E-3</v>
+      </c>
+      <c r="AY3" s="12">
+        <f>IFERROR(('overall-new'!AY3-'overall-new'!AX3)/'overall-new'!$C3, "")</f>
+        <v>7.7052980132450268E-4</v>
+      </c>
     </row>
-    <row r="4" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:51" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C4">
         <f>'overall-new'!C4</f>
@@ -4832,8 +5657,40 @@
         <f>IFERROR(('overall-new'!AQ4-'overall-new'!AP4)/'overall-new'!$C4, "")</f>
         <v>3.2656250000000144E-4</v>
       </c>
+      <c r="AR4" s="12">
+        <f>IFERROR(('overall-new'!AR4-'overall-new'!AQ4)/'overall-new'!$C4, "")</f>
+        <v>3.4787499999999979E-3</v>
+      </c>
+      <c r="AS4" s="12">
+        <f>IFERROR(('overall-new'!AS4-'overall-new'!AR4)/'overall-new'!$C4, "")</f>
+        <v>8.7656249999999855E-4</v>
+      </c>
+      <c r="AT4" s="12">
+        <f>IFERROR(('overall-new'!AT4-'overall-new'!AS4)/'overall-new'!$C4, "")</f>
+        <v>8.7531249999999968E-4</v>
+      </c>
+      <c r="AU4" s="12">
+        <f>IFERROR(('overall-new'!AU4-'overall-new'!AT4)/'overall-new'!$C4, "")</f>
+        <v>1.2931250000000035E-3</v>
+      </c>
+      <c r="AV4" s="12">
+        <f>IFERROR(('overall-new'!AV4-'overall-new'!AU4)/'overall-new'!$C4, "")</f>
+        <v>8.612499999999983E-4</v>
+      </c>
+      <c r="AW4" s="12">
+        <f>IFERROR(('overall-new'!AW4-'overall-new'!AV4)/'overall-new'!$C4, "")</f>
+        <v>5.3656250000000232E-4</v>
+      </c>
+      <c r="AX4" s="12">
+        <f>IFERROR(('overall-new'!AX4-'overall-new'!AW4)/'overall-new'!$C4, "")</f>
+        <v>1.5209374999999952E-3</v>
+      </c>
+      <c r="AY4" s="12">
+        <f>IFERROR(('overall-new'!AY4-'overall-new'!AX4)/'overall-new'!$C4, "")</f>
+        <v>7.53437500000004E-4</v>
+      </c>
     </row>
-    <row r="5" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>63</v>
       </c>
@@ -4998,10 +5855,42 @@
         <f>IFERROR(('overall-new'!AQ5-'overall-new'!AP5)/'overall-new'!$C5, "")</f>
         <v>3.9029443838604102E-4</v>
       </c>
+      <c r="AR5" s="12">
+        <f>IFERROR(('overall-new'!AR5-'overall-new'!AQ5)/'overall-new'!$C5, "")</f>
+        <v>3.5487459105779722E-3</v>
+      </c>
+      <c r="AS5" s="12">
+        <f>IFERROR(('overall-new'!AS5-'overall-new'!AR5)/'overall-new'!$C5, "")</f>
+        <v>9.0468920392584558E-4</v>
+      </c>
+      <c r="AT5" s="12">
+        <f>IFERROR(('overall-new'!AT5-'overall-new'!AS5)/'overall-new'!$C5, "")</f>
+        <v>9.718647764449279E-4</v>
+      </c>
+      <c r="AU5" s="12">
+        <f>IFERROR(('overall-new'!AU5-'overall-new'!AT5)/'overall-new'!$C5, "")</f>
+        <v>1.2601962922573653E-3</v>
+      </c>
+      <c r="AV5" s="12">
+        <f>IFERROR(('overall-new'!AV5-'overall-new'!AU5)/'overall-new'!$C5, "")</f>
+        <v>9.9247546346782232E-4</v>
+      </c>
+      <c r="AW5" s="12">
+        <f>IFERROR(('overall-new'!AW5-'overall-new'!AV5)/'overall-new'!$C5, "")</f>
+        <v>3.9716466739367584E-4</v>
+      </c>
+      <c r="AX5" s="12">
+        <f>IFERROR(('overall-new'!AX5-'overall-new'!AW5)/'overall-new'!$C5, "")</f>
+        <v>1.6071973827699031E-3</v>
+      </c>
+      <c r="AY5" s="12">
+        <f>IFERROR(('overall-new'!AY5-'overall-new'!AX5)/'overall-new'!$C5, "")</f>
+        <v>7.3696837513631324E-4</v>
+      </c>
     </row>
-    <row r="6" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C6">
         <f>'overall-new'!C6</f>
@@ -5095,110 +5984,142 @@
         <f>IFERROR(('overall-new'!AQ6-'overall-new'!AP6)/'overall-new'!$C6, "")</f>
         <v/>
       </c>
+      <c r="AR6" s="12" t="str">
+        <f>IFERROR(('overall-new'!AR6-'overall-new'!AQ6)/'overall-new'!$C6, "")</f>
+        <v/>
+      </c>
+      <c r="AS6" s="12" t="str">
+        <f>IFERROR(('overall-new'!AS6-'overall-new'!AR6)/'overall-new'!$C6, "")</f>
+        <v/>
+      </c>
+      <c r="AT6" s="12" t="str">
+        <f>IFERROR(('overall-new'!AT6-'overall-new'!AS6)/'overall-new'!$C6, "")</f>
+        <v/>
+      </c>
+      <c r="AU6" s="12" t="str">
+        <f>IFERROR(('overall-new'!AU6-'overall-new'!AT6)/'overall-new'!$C6, "")</f>
+        <v/>
+      </c>
+      <c r="AV6" s="12" t="str">
+        <f>IFERROR(('overall-new'!AV6-'overall-new'!AU6)/'overall-new'!$C6, "")</f>
+        <v/>
+      </c>
+      <c r="AW6" s="12" t="str">
+        <f>IFERROR(('overall-new'!AW6-'overall-new'!AV6)/'overall-new'!$C6, "")</f>
+        <v/>
+      </c>
+      <c r="AX6" s="12" t="str">
+        <f>IFERROR(('overall-new'!AX6-'overall-new'!AW6)/'overall-new'!$C6, "")</f>
+        <v/>
+      </c>
+      <c r="AY6" s="12" t="str">
+        <f>IFERROR(('overall-new'!AY6-'overall-new'!AX6)/'overall-new'!$C6, "")</f>
+        <v/>
+      </c>
     </row>
-    <row r="7" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C7">
         <f>'overall-new'!C7</f>
         <v>3000</v>
       </c>
       <c r="D7" s="12"/>
-      <c r="E7" s="12">
+      <c r="E7" s="12" t="e">
         <f>('overall-new'!E9-'overall-new'!D9)/'overall-new'!$C9</f>
-        <v>0</v>
-      </c>
-      <c r="F7" s="12">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F7" s="12" t="e">
         <f>('overall-new'!F9-'overall-new'!E9)/'overall-new'!$C9</f>
-        <v>0</v>
-      </c>
-      <c r="G7" s="12">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G7" s="12" t="e">
         <f>('overall-new'!G9-'overall-new'!F9)/'overall-new'!$C9</f>
-        <v>1.0966666666666667E-4</v>
-      </c>
-      <c r="H7" s="12">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H7" s="12" t="e">
         <f>('overall-new'!H9-'overall-new'!G9)/'overall-new'!$C9</f>
-        <v>3.0000000000000011E-5</v>
-      </c>
-      <c r="I7" s="12">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I7" s="12" t="e">
         <f>('overall-new'!I9-'overall-new'!H9)/'overall-new'!$C9</f>
-        <v>0</v>
-      </c>
-      <c r="J7" s="12">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J7" s="12" t="e">
         <f>('overall-new'!J9-'overall-new'!I9)/'overall-new'!$C9</f>
-        <v>1.4666666666666649E-5</v>
-      </c>
-      <c r="K7" s="12">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K7" s="12" t="e">
         <f>('overall-new'!K9-'overall-new'!J9)/'overall-new'!$C9</f>
-        <v>2.6000000000000009E-5</v>
-      </c>
-      <c r="L7" s="12">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L7" s="12" t="e">
         <f>('overall-new'!L9-'overall-new'!K9)/'overall-new'!$C9</f>
-        <v>2.6333333333333334E-5</v>
-      </c>
-      <c r="M7" s="12">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M7" s="12" t="e">
         <f>('overall-new'!M9-'overall-new'!L9)/'overall-new'!$C9</f>
-        <v>2.6000000000000009E-5</v>
-      </c>
-      <c r="N7" s="12">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N7" s="12" t="e">
         <f>('overall-new'!N9-'overall-new'!M9)/'overall-new'!$C9</f>
-        <v>2.5999999999999978E-5</v>
-      </c>
-      <c r="O7" s="12">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O7" s="12" t="e">
         <f>('overall-new'!O9-'overall-new'!N9)/'overall-new'!$C9</f>
-        <v>3.8666666666666674E-5</v>
-      </c>
-      <c r="P7" s="12">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P7" s="12" t="e">
         <f>('overall-new'!P9-'overall-new'!O9)/'overall-new'!$C9</f>
-        <v>3.8000000000000016E-5</v>
-      </c>
-      <c r="Q7" s="12">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q7" s="12" t="e">
         <f>('overall-new'!Q9-'overall-new'!P9)/'overall-new'!$C9</f>
-        <v>1.2333333333333307E-5</v>
-      </c>
-      <c r="R7" s="12">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R7" s="12" t="e">
         <f>('overall-new'!R9-'overall-new'!Q9)/'overall-new'!$C9</f>
-        <v>1.3833333333333335E-4</v>
-      </c>
-      <c r="S7" s="12">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S7" s="12" t="e">
         <f>('overall-new'!S9-'overall-new'!R9)/'overall-new'!$C9</f>
-        <v>1.5533333333333328E-4</v>
-      </c>
-      <c r="T7" s="12">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T7" s="12" t="e">
         <f>('overall-new'!T9-'overall-new'!S9)/'overall-new'!$C9</f>
-        <v>4.8666666666666693E-5</v>
-      </c>
-      <c r="U7" s="12">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U7" s="12" t="e">
         <f>('overall-new'!U9-'overall-new'!T9)/'overall-new'!$C9</f>
-        <v>5.4166666666666675E-4</v>
-      </c>
-      <c r="V7" s="12">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V7" s="12" t="e">
         <f>('overall-new'!V9-'overall-new'!U9)/'overall-new'!$C9</f>
-        <v>5.0633333333333324E-4</v>
-      </c>
-      <c r="W7" s="12">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W7" s="12" t="e">
         <f>('overall-new'!W9-'overall-new'!V9)/'overall-new'!$C9</f>
-        <v>2.81E-4</v>
-      </c>
-      <c r="X7" s="12">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="X7" s="12" t="e">
         <f>('overall-new'!X9-'overall-new'!W9)/'overall-new'!$C9</f>
-        <v>4.0233333333333332E-4</v>
-      </c>
-      <c r="Y7" s="12">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Y7" s="12" t="e">
         <f>('overall-new'!Y9-'overall-new'!X9)/'overall-new'!$C9</f>
-        <v>2.0400000000000016E-4</v>
-      </c>
-      <c r="Z7" s="12">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Z7" s="12" t="e">
         <f>('overall-new'!Z9-'overall-new'!Y9)/'overall-new'!$C9</f>
-        <v>1.1866666666666627E-4</v>
-      </c>
-      <c r="AA7" s="12">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AA7" s="12" t="e">
         <f>('overall-new'!AA9-'overall-new'!Z9)/'overall-new'!$C9</f>
-        <v>1.1333333333333352E-4</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="AB7" s="12">
         <f>IFERROR(('overall-new'!AB7-'overall-new'!AA7)/'overall-new'!$C7, "")</f>
@@ -5264,8 +6185,40 @@
         <f>IFERROR(('overall-new'!AQ7-'overall-new'!AP7)/'overall-new'!$C7, "")</f>
         <v>5.2999999999999879E-4</v>
       </c>
+      <c r="AR7" s="12">
+        <f>IFERROR(('overall-new'!AR7-'overall-new'!AQ7)/'overall-new'!$C7, "")</f>
+        <v>3.0733333333333329E-3</v>
+      </c>
+      <c r="AS7" s="12">
+        <f>IFERROR(('overall-new'!AS7-'overall-new'!AR7)/'overall-new'!$C7, "")</f>
+        <v>1.0133333333333355E-3</v>
+      </c>
+      <c r="AT7" s="12">
+        <f>IFERROR(('overall-new'!AT7-'overall-new'!AS7)/'overall-new'!$C7, "")</f>
+        <v>8.0999999999999996E-4</v>
+      </c>
+      <c r="AU7" s="12">
+        <f>IFERROR(('overall-new'!AU7-'overall-new'!AT7)/'overall-new'!$C7, "")</f>
+        <v>1.0066666666666653E-3</v>
+      </c>
+      <c r="AV7" s="12">
+        <f>IFERROR(('overall-new'!AV7-'overall-new'!AU7)/'overall-new'!$C7, "")</f>
+        <v>1.0066666666666676E-3</v>
+      </c>
+      <c r="AW7" s="12">
+        <f>IFERROR(('overall-new'!AW7-'overall-new'!AV7)/'overall-new'!$C7, "")</f>
+        <v>3.0999999999999989E-4</v>
+      </c>
+      <c r="AX7" s="12">
+        <f>IFERROR(('overall-new'!AX7-'overall-new'!AW7)/'overall-new'!$C7, "")</f>
+        <v>1.4033333333333313E-3</v>
+      </c>
+      <c r="AY7" s="12">
+        <f>IFERROR(('overall-new'!AY7-'overall-new'!AX7)/'overall-new'!$C7, "")</f>
+        <v>5.6666666666666757E-4</v>
+      </c>
     </row>
-    <row r="8" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:51" x14ac:dyDescent="0.3">
       <c r="C8">
         <f>'overall-new'!C8</f>
         <v>0</v>
@@ -5427,17 +6380,49 @@
         <f>IFERROR(('overall-new'!AQ8-'overall-new'!AP8)/'overall-new'!$C8, "")</f>
         <v/>
       </c>
+      <c r="AR8" s="12" t="str">
+        <f>IFERROR(('overall-new'!AR8-'overall-new'!AQ8)/'overall-new'!$C8, "")</f>
+        <v/>
+      </c>
+      <c r="AS8" s="12" t="str">
+        <f>IFERROR(('overall-new'!AS8-'overall-new'!AR8)/'overall-new'!$C8, "")</f>
+        <v/>
+      </c>
+      <c r="AT8" s="12" t="str">
+        <f>IFERROR(('overall-new'!AT8-'overall-new'!AS8)/'overall-new'!$C8, "")</f>
+        <v/>
+      </c>
+      <c r="AU8" s="12" t="str">
+        <f>IFERROR(('overall-new'!AU8-'overall-new'!AT8)/'overall-new'!$C8, "")</f>
+        <v/>
+      </c>
+      <c r="AV8" s="12" t="str">
+        <f>IFERROR(('overall-new'!AV8-'overall-new'!AU8)/'overall-new'!$C8, "")</f>
+        <v/>
+      </c>
+      <c r="AW8" s="12" t="str">
+        <f>IFERROR(('overall-new'!AW8-'overall-new'!AV8)/'overall-new'!$C8, "")</f>
+        <v/>
+      </c>
+      <c r="AX8" s="12" t="str">
+        <f>IFERROR(('overall-new'!AX8-'overall-new'!AW8)/'overall-new'!$C8, "")</f>
+        <v/>
+      </c>
+      <c r="AY8" s="12" t="str">
+        <f>IFERROR(('overall-new'!AY8-'overall-new'!AX8)/'overall-new'!$C8, "")</f>
+        <v/>
+      </c>
     </row>
-    <row r="9" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B9">
         <v>14</v>
       </c>
       <c r="C9">
         <f>'overall-new'!C9</f>
-        <v>30000</v>
+        <v>0</v>
       </c>
       <c r="D9" s="12"/>
       <c r="E9" s="12" t="e">
@@ -5532,72 +6517,104 @@
         <f>('overall-new'!AA11-'overall-new'!Z11)/'overall-new'!$C11</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AB9" s="12">
+      <c r="AB9" s="12" t="str">
         <f>IFERROR(('overall-new'!AB9-'overall-new'!AA9)/'overall-new'!$C9, "")</f>
-        <v>3.5300000000000012E-4</v>
-      </c>
-      <c r="AC9" s="12">
+        <v/>
+      </c>
+      <c r="AC9" s="12" t="str">
         <f>IFERROR(('overall-new'!AC9-'overall-new'!AB9)/'overall-new'!$C9, "")</f>
-        <v>8.099999999999976E-5</v>
-      </c>
-      <c r="AD9" s="12">
+        <v/>
+      </c>
+      <c r="AD9" s="12" t="str">
         <f>IFERROR(('overall-new'!AD9-'overall-new'!AC9)/'overall-new'!$C9, "")</f>
-        <v>1.9000000000000009E-4</v>
-      </c>
-      <c r="AE9" s="12">
+        <v/>
+      </c>
+      <c r="AE9" s="12" t="str">
         <f>IFERROR(('overall-new'!AE9-'overall-new'!AD9)/'overall-new'!$C9, "")</f>
-        <v>2.2133333333333336E-4</v>
-      </c>
-      <c r="AF9" s="12">
+        <v/>
+      </c>
+      <c r="AF9" s="12" t="str">
         <f>IFERROR(('overall-new'!AF9-'overall-new'!AE9)/'overall-new'!$C9, "")</f>
-        <v>1.1533333333333359E-4</v>
-      </c>
-      <c r="AG9" s="12">
+        <v/>
+      </c>
+      <c r="AG9" s="12" t="str">
         <f>IFERROR(('overall-new'!AG9-'overall-new'!AF9)/'overall-new'!$C9, "")</f>
-        <v>4.5333333333333266E-4</v>
-      </c>
-      <c r="AH9" s="12">
+        <v/>
+      </c>
+      <c r="AH9" s="12" t="str">
         <f>IFERROR(('overall-new'!AH9-'overall-new'!AG9)/'overall-new'!$C9, "")</f>
-        <v>2.3333333333333333E-4</v>
-      </c>
-      <c r="AI9" s="12">
+        <v/>
+      </c>
+      <c r="AI9" s="12" t="str">
         <f>IFERROR(('overall-new'!AI9-'overall-new'!AH9)/'overall-new'!$C9, "")</f>
-        <v>1.1700000000000065E-4</v>
-      </c>
-      <c r="AJ9" s="12">
+        <v/>
+      </c>
+      <c r="AJ9" s="12" t="str">
         <f>IFERROR(('overall-new'!AJ9-'overall-new'!AI9)/'overall-new'!$C9, "")</f>
-        <v>1.1599999999999966E-4</v>
-      </c>
-      <c r="AK9" s="12">
+        <v/>
+      </c>
+      <c r="AK9" s="12" t="str">
         <f>IFERROR(('overall-new'!AK9-'overall-new'!AJ9)/'overall-new'!$C9, "")</f>
-        <v>4.3900000000000053E-4</v>
-      </c>
-      <c r="AL9" s="12">
+        <v/>
+      </c>
+      <c r="AL9" s="12" t="str">
         <f>IFERROR(('overall-new'!AL9-'overall-new'!AK9)/'overall-new'!$C9, "")</f>
-        <v>1.0843333333333334E-3</v>
-      </c>
-      <c r="AM9" s="12">
+        <v/>
+      </c>
+      <c r="AM9" s="12" t="str">
         <f>IFERROR(('overall-new'!AM9-'overall-new'!AL9)/'overall-new'!$C9, "")</f>
-        <v>8.2433333333333295E-4</v>
-      </c>
-      <c r="AN9" s="12">
+        <v/>
+      </c>
+      <c r="AN9" s="12" t="str">
         <f>IFERROR(('overall-new'!AN9-'overall-new'!AM9)/'overall-new'!$C9, "")</f>
-        <v>4.1599999999999965E-4</v>
-      </c>
-      <c r="AO9" s="12">
+        <v/>
+      </c>
+      <c r="AO9" s="12" t="str">
         <f>IFERROR(('overall-new'!AO9-'overall-new'!AN9)/'overall-new'!$C9, "")</f>
-        <v>3.3333333333333332E-4</v>
-      </c>
-      <c r="AP9" s="12">
+        <v/>
+      </c>
+      <c r="AP9" s="12" t="str">
         <f>IFERROR(('overall-new'!AP9-'overall-new'!AO9)/'overall-new'!$C9, "")</f>
-        <v>4.3000000000000021E-4</v>
-      </c>
-      <c r="AQ9" s="12">
+        <v/>
+      </c>
+      <c r="AQ9" s="12" t="str">
         <f>IFERROR(('overall-new'!AQ9-'overall-new'!AP9)/'overall-new'!$C9, "")</f>
-        <v>2.0866666666666635E-4</v>
+        <v/>
+      </c>
+      <c r="AR9" s="12" t="str">
+        <f>IFERROR(('overall-new'!AR9-'overall-new'!AQ9)/'overall-new'!$C9, "")</f>
+        <v/>
+      </c>
+      <c r="AS9" s="12" t="str">
+        <f>IFERROR(('overall-new'!AS9-'overall-new'!AR9)/'overall-new'!$C9, "")</f>
+        <v/>
+      </c>
+      <c r="AT9" s="12" t="str">
+        <f>IFERROR(('overall-new'!AT9-'overall-new'!AS9)/'overall-new'!$C9, "")</f>
+        <v/>
+      </c>
+      <c r="AU9" s="12" t="str">
+        <f>IFERROR(('overall-new'!AU9-'overall-new'!AT9)/'overall-new'!$C9, "")</f>
+        <v/>
+      </c>
+      <c r="AV9" s="12" t="str">
+        <f>IFERROR(('overall-new'!AV9-'overall-new'!AU9)/'overall-new'!$C9, "")</f>
+        <v/>
+      </c>
+      <c r="AW9" s="12" t="str">
+        <f>IFERROR(('overall-new'!AW9-'overall-new'!AV9)/'overall-new'!$C9, "")</f>
+        <v/>
+      </c>
+      <c r="AX9" s="12" t="str">
+        <f>IFERROR(('overall-new'!AX9-'overall-new'!AW9)/'overall-new'!$C9, "")</f>
+        <v/>
+      </c>
+      <c r="AY9" s="12" t="str">
+        <f>IFERROR(('overall-new'!AY9-'overall-new'!AX9)/'overall-new'!$C9, "")</f>
+        <v/>
       </c>
     </row>
-    <row r="10" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:51" x14ac:dyDescent="0.3">
       <c r="B10">
         <v>22</v>
       </c>
@@ -5762,8 +6779,40 @@
         <f>IFERROR(('overall-new'!AQ10-'overall-new'!AP10)/'overall-new'!$C10, "")</f>
         <v/>
       </c>
+      <c r="AR10" s="12" t="str">
+        <f>IFERROR(('overall-new'!AR10-'overall-new'!AQ10)/'overall-new'!$C10, "")</f>
+        <v/>
+      </c>
+      <c r="AS10" s="12" t="str">
+        <f>IFERROR(('overall-new'!AS10-'overall-new'!AR10)/'overall-new'!$C10, "")</f>
+        <v/>
+      </c>
+      <c r="AT10" s="12" t="str">
+        <f>IFERROR(('overall-new'!AT10-'overall-new'!AS10)/'overall-new'!$C10, "")</f>
+        <v/>
+      </c>
+      <c r="AU10" s="12" t="str">
+        <f>IFERROR(('overall-new'!AU10-'overall-new'!AT10)/'overall-new'!$C10, "")</f>
+        <v/>
+      </c>
+      <c r="AV10" s="12" t="str">
+        <f>IFERROR(('overall-new'!AV10-'overall-new'!AU10)/'overall-new'!$C10, "")</f>
+        <v/>
+      </c>
+      <c r="AW10" s="12" t="str">
+        <f>IFERROR(('overall-new'!AW10-'overall-new'!AV10)/'overall-new'!$C10, "")</f>
+        <v/>
+      </c>
+      <c r="AX10" s="12" t="str">
+        <f>IFERROR(('overall-new'!AX10-'overall-new'!AW10)/'overall-new'!$C10, "")</f>
+        <v/>
+      </c>
+      <c r="AY10" s="12" t="str">
+        <f>IFERROR(('overall-new'!AY10-'overall-new'!AX10)/'overall-new'!$C10, "")</f>
+        <v/>
+      </c>
     </row>
-    <row r="11" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:51" x14ac:dyDescent="0.3">
       <c r="B11">
         <v>27</v>
       </c>
@@ -5928,10 +6977,42 @@
         <f>IFERROR(('overall-new'!AQ11-'overall-new'!AP11)/'overall-new'!$C11, "")</f>
         <v/>
       </c>
+      <c r="AR11" s="12" t="str">
+        <f>IFERROR(('overall-new'!AR11-'overall-new'!AQ11)/'overall-new'!$C11, "")</f>
+        <v/>
+      </c>
+      <c r="AS11" s="12" t="str">
+        <f>IFERROR(('overall-new'!AS11-'overall-new'!AR11)/'overall-new'!$C11, "")</f>
+        <v/>
+      </c>
+      <c r="AT11" s="12" t="str">
+        <f>IFERROR(('overall-new'!AT11-'overall-new'!AS11)/'overall-new'!$C11, "")</f>
+        <v/>
+      </c>
+      <c r="AU11" s="12" t="str">
+        <f>IFERROR(('overall-new'!AU11-'overall-new'!AT11)/'overall-new'!$C11, "")</f>
+        <v/>
+      </c>
+      <c r="AV11" s="12" t="str">
+        <f>IFERROR(('overall-new'!AV11-'overall-new'!AU11)/'overall-new'!$C11, "")</f>
+        <v/>
+      </c>
+      <c r="AW11" s="12" t="str">
+        <f>IFERROR(('overall-new'!AW11-'overall-new'!AV11)/'overall-new'!$C11, "")</f>
+        <v/>
+      </c>
+      <c r="AX11" s="12" t="str">
+        <f>IFERROR(('overall-new'!AX11-'overall-new'!AW11)/'overall-new'!$C11, "")</f>
+        <v/>
+      </c>
+      <c r="AY11" s="12" t="str">
+        <f>IFERROR(('overall-new'!AY11-'overall-new'!AX11)/'overall-new'!$C11, "")</f>
+        <v/>
+      </c>
     </row>
-    <row r="12" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:51" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C12">
         <f>'overall-new'!C12</f>
@@ -5948,11 +7029,11 @@
       </c>
       <c r="G12" s="12">
         <f>('overall-new'!G14-'overall-new'!F14)/'overall-new'!$C14</f>
-        <v>5.9818181818181817E-5</v>
+        <v>0</v>
       </c>
       <c r="H12" s="12">
         <f>('overall-new'!H14-'overall-new'!G14)/'overall-new'!$C14</f>
-        <v>1.6363636363636369E-5</v>
+        <v>0</v>
       </c>
       <c r="I12" s="12">
         <f>('overall-new'!I14-'overall-new'!H14)/'overall-new'!$C14</f>
@@ -5960,75 +7041,75 @@
       </c>
       <c r="J12" s="12">
         <f>('overall-new'!J14-'overall-new'!I14)/'overall-new'!$C14</f>
-        <v>1.727272727272726E-5</v>
+        <v>2.0400000000000001E-5</v>
       </c>
       <c r="K12" s="12">
         <f>('overall-new'!K14-'overall-new'!J14)/'overall-new'!$C14</f>
-        <v>3.4E-5</v>
+        <v>4.3600000000000003E-5</v>
       </c>
       <c r="L12" s="12">
         <f>('overall-new'!L14-'overall-new'!K14)/'overall-new'!$C14</f>
-        <v>3.2909090909090917E-5</v>
+        <v>4.0800000000000002E-5</v>
       </c>
       <c r="M12" s="12">
         <f>('overall-new'!M14-'overall-new'!L14)/'overall-new'!$C14</f>
-        <v>3.3272727272727273E-5</v>
+        <v>4.1999999999999991E-5</v>
       </c>
       <c r="N12" s="12">
         <f>('overall-new'!N14-'overall-new'!M14)/'overall-new'!$C14</f>
-        <v>3.2727272727272705E-5</v>
+        <v>4.0800000000000016E-5</v>
       </c>
       <c r="O12" s="12">
         <f>('overall-new'!O14-'overall-new'!N14)/'overall-new'!$C14</f>
-        <v>4.7454545454545446E-5</v>
+        <v>5.7999999999999973E-5</v>
       </c>
       <c r="P12" s="12">
         <f>('overall-new'!P14-'overall-new'!O14)/'overall-new'!$C14</f>
-        <v>4.6545454545454589E-5</v>
+        <v>5.6799999999999998E-5</v>
       </c>
       <c r="Q12" s="12">
         <f>('overall-new'!Q14-'overall-new'!P14)/'overall-new'!$C14</f>
-        <v>1.5272727272727269E-5</v>
+        <v>1.8799999999999989E-5</v>
       </c>
       <c r="R12" s="12">
         <f>('overall-new'!R14-'overall-new'!Q14)/'overall-new'!$C14</f>
-        <v>1.2690909090909086E-4</v>
+        <v>1.132E-4</v>
       </c>
       <c r="S12" s="12">
         <f>('overall-new'!S14-'overall-new'!R14)/'overall-new'!$C14</f>
-        <v>1.1890909090909089E-4</v>
+        <v>7.5200000000000025E-5</v>
       </c>
       <c r="T12" s="12">
         <f>('overall-new'!T14-'overall-new'!S14)/'overall-new'!$C14</f>
-        <v>3.5090909090909083E-5</v>
+        <v>1.8800000000000027E-5</v>
       </c>
       <c r="U12" s="12">
         <f>('overall-new'!U14-'overall-new'!T14)/'overall-new'!$C14</f>
-        <v>4.140000000000002E-4</v>
+        <v>2.608E-4</v>
       </c>
       <c r="V12" s="12">
         <f>('overall-new'!V14-'overall-new'!U14)/'overall-new'!$C14</f>
-        <v>3.8745454545454548E-4</v>
+        <v>2.4480000000000004E-4</v>
       </c>
       <c r="W12" s="12">
         <f>('overall-new'!W14-'overall-new'!V14)/'overall-new'!$C14</f>
-        <v>2.5090909090909059E-4</v>
+        <v>2.1479999999999991E-4</v>
       </c>
       <c r="X12" s="12">
         <f>('overall-new'!X14-'overall-new'!W14)/'overall-new'!$C14</f>
-        <v>3.8890909090909118E-4</v>
+        <v>3.7280000000000001E-4</v>
       </c>
       <c r="Y12" s="12">
         <f>('overall-new'!Y14-'overall-new'!X14)/'overall-new'!$C14</f>
-        <v>2.4563636363636346E-4</v>
+        <v>2.9560000000000003E-4</v>
       </c>
       <c r="Z12" s="12">
         <f>('overall-new'!Z14-'overall-new'!Y14)/'overall-new'!$C14</f>
-        <v>1.4054545454545437E-4</v>
+        <v>1.6680000000000007E-4</v>
       </c>
       <c r="AA12" s="12">
         <f>('overall-new'!AA14-'overall-new'!Z14)/'overall-new'!$C14</f>
-        <v>1.3890909090909118E-4</v>
+        <v>1.6960000000000008E-4</v>
       </c>
       <c r="AB12" s="12">
         <f>IFERROR(('overall-new'!AB12-'overall-new'!AA12)/'overall-new'!$C12, "")</f>
@@ -6094,10 +7175,42 @@
         <f>IFERROR(('overall-new'!AQ12-'overall-new'!AP12)/'overall-new'!$C12, "")</f>
         <v>2.7480000000000017E-4</v>
       </c>
+      <c r="AR12" s="12">
+        <f>IFERROR(('overall-new'!AR12-'overall-new'!AQ12)/'overall-new'!$C12, "")</f>
+        <v>1.2239999999999998E-3</v>
+      </c>
+      <c r="AS12" s="12">
+        <f>IFERROR(('overall-new'!AS12-'overall-new'!AR12)/'overall-new'!$C12, "")</f>
+        <v>3.4160000000000082E-4</v>
+      </c>
+      <c r="AT12" s="12">
+        <f>IFERROR(('overall-new'!AT12-'overall-new'!AS12)/'overall-new'!$C12, "")</f>
+        <v>3.319999999999982E-4</v>
+      </c>
+      <c r="AU12" s="12">
+        <f>IFERROR(('overall-new'!AU12-'overall-new'!AT12)/'overall-new'!$C12, "")</f>
+        <v>4.8080000000000155E-4</v>
+      </c>
+      <c r="AV12" s="12">
+        <f>IFERROR(('overall-new'!AV12-'overall-new'!AU12)/'overall-new'!$C12, "")</f>
+        <v>3.351999999999998E-4</v>
+      </c>
+      <c r="AW12" s="12">
+        <f>IFERROR(('overall-new'!AW12-'overall-new'!AV12)/'overall-new'!$C12, "")</f>
+        <v>2.0279999999999973E-4</v>
+      </c>
+      <c r="AX12" s="12">
+        <f>IFERROR(('overall-new'!AX12-'overall-new'!AW12)/'overall-new'!$C12, "")</f>
+        <v>5.5559999999999941E-4</v>
+      </c>
+      <c r="AY12" s="12">
+        <f>IFERROR(('overall-new'!AY12-'overall-new'!AX12)/'overall-new'!$C12, "")</f>
+        <v>2.7680000000000066E-4</v>
+      </c>
     </row>
-    <row r="13" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:51" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C13">
         <f>'overall-new'!C13</f>
@@ -6191,176 +7304,200 @@
         <f>IFERROR(('overall-new'!AQ13-'overall-new'!AP13)/'overall-new'!$C13, "")</f>
         <v/>
       </c>
+      <c r="AR13" s="12" t="str">
+        <f>IFERROR(('overall-new'!AR13-'overall-new'!AQ13)/'overall-new'!$C13, "")</f>
+        <v/>
+      </c>
+      <c r="AS13" s="12" t="str">
+        <f>IFERROR(('overall-new'!AS13-'overall-new'!AR13)/'overall-new'!$C13, "")</f>
+        <v/>
+      </c>
+      <c r="AT13" s="12" t="str">
+        <f>IFERROR(('overall-new'!AT13-'overall-new'!AS13)/'overall-new'!$C13, "")</f>
+        <v/>
+      </c>
+      <c r="AU13" s="12" t="str">
+        <f>IFERROR(('overall-new'!AU13-'overall-new'!AT13)/'overall-new'!$C13, "")</f>
+        <v/>
+      </c>
+      <c r="AV13" s="12" t="str">
+        <f>IFERROR(('overall-new'!AV13-'overall-new'!AU13)/'overall-new'!$C13, "")</f>
+        <v/>
+      </c>
+      <c r="AW13" s="12" t="str">
+        <f>IFERROR(('overall-new'!AW13-'overall-new'!AV13)/'overall-new'!$C13, "")</f>
+        <v/>
+      </c>
+      <c r="AX13" s="12" t="str">
+        <f>IFERROR(('overall-new'!AX13-'overall-new'!AW13)/'overall-new'!$C13, "")</f>
+        <v/>
+      </c>
+      <c r="AY13" s="12" t="str">
+        <f>IFERROR(('overall-new'!AY13-'overall-new'!AX13)/'overall-new'!$C13, "")</f>
+        <v/>
+      </c>
     </row>
-    <row r="14" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>63</v>
-      </c>
-      <c r="C14">
-        <f>'overall-new'!C14</f>
-        <v>55000</v>
       </c>
       <c r="D14" s="12"/>
       <c r="E14" s="12">
         <f>('overall-new'!E16-'overall-new'!D16)/'overall-new'!$C16</f>
-        <v>1.0395833333333334E-4</v>
+        <v>1.6633333333333335E-3</v>
       </c>
       <c r="F14" s="12">
         <f>('overall-new'!F16-'overall-new'!E16)/'overall-new'!$C16</f>
-        <v>1.3958333333333332E-5</v>
+        <v>2.233333333333333E-4</v>
       </c>
       <c r="G14" s="12">
         <f>('overall-new'!G16-'overall-new'!F16)/'overall-new'!$C16</f>
-        <v>5.4374999999999987E-5</v>
+        <v>8.6999999999999979E-4</v>
       </c>
       <c r="H14" s="12">
         <f>('overall-new'!H16-'overall-new'!G16)/'overall-new'!$C16</f>
-        <v>9.5416666666666664E-5</v>
+        <v>1.5266666666666666E-3</v>
       </c>
       <c r="I14" s="12">
         <f>('overall-new'!I16-'overall-new'!H16)/'overall-new'!$C16</f>
-        <v>2.0833333333333295E-5</v>
+        <v>3.3333333333333273E-4</v>
       </c>
       <c r="J14" s="12">
         <f>('overall-new'!J16-'overall-new'!I16)/'overall-new'!$C16</f>
-        <v>3.8750000000000027E-5</v>
+        <v>6.2000000000000043E-4</v>
       </c>
       <c r="K14" s="12">
         <f>('overall-new'!K16-'overall-new'!J16)/'overall-new'!$C16</f>
-        <v>2.687500000000002E-5</v>
+        <v>4.3000000000000031E-4</v>
       </c>
       <c r="L14" s="12">
         <f>('overall-new'!L16-'overall-new'!K16)/'overall-new'!$C16</f>
-        <v>1.1208333333333339E-4</v>
+        <v>1.7933333333333343E-3</v>
       </c>
       <c r="M14" s="12">
         <f>('overall-new'!M16-'overall-new'!L16)/'overall-new'!$C16</f>
-        <v>4.1250000000000007E-5</v>
+        <v>6.600000000000001E-4</v>
       </c>
       <c r="N14" s="12">
         <f>('overall-new'!N16-'overall-new'!M16)/'overall-new'!$C16</f>
-        <v>7.5208333333333241E-5</v>
+        <v>1.2033333333333319E-3</v>
       </c>
       <c r="O14" s="12">
         <f>('overall-new'!O16-'overall-new'!N16)/'overall-new'!$C16</f>
-        <v>2.0000000000000093E-5</v>
+        <v>3.2000000000000149E-4</v>
       </c>
       <c r="P14" s="12">
         <f>('overall-new'!P16-'overall-new'!O16)/'overall-new'!$C16</f>
-        <v>1.1374999999999995E-4</v>
+        <v>1.8199999999999991E-3</v>
       </c>
       <c r="Q14" s="12">
         <f>('overall-new'!Q16-'overall-new'!P16)/'overall-new'!$C16</f>
-        <v>3.1666666666666734E-5</v>
+        <v>5.0666666666666774E-4</v>
       </c>
       <c r="R14" s="12">
         <f>('overall-new'!R16-'overall-new'!Q16)/'overall-new'!$C16</f>
-        <v>1.4541666666666661E-4</v>
+        <v>2.3266666666666657E-3</v>
       </c>
       <c r="S14" s="12">
         <f>('overall-new'!S16-'overall-new'!R16)/'overall-new'!$C16</f>
-        <v>7.041666666666672E-5</v>
+        <v>1.1266666666666675E-3</v>
       </c>
       <c r="T14" s="12">
         <f>('overall-new'!T16-'overall-new'!S16)/'overall-new'!$C16</f>
-        <v>7.5833333333333202E-5</v>
+        <v>1.2133333333333312E-3</v>
       </c>
       <c r="U14" s="12">
         <f>('overall-new'!U16-'overall-new'!T16)/'overall-new'!$C16</f>
-        <v>3.6666666666666683E-4</v>
+        <v>5.8666666666666693E-3</v>
       </c>
       <c r="V14" s="12">
         <f>('overall-new'!V16-'overall-new'!U16)/'overall-new'!$C16</f>
-        <v>3.1916666666666622E-4</v>
+        <v>5.1066666666666595E-3</v>
       </c>
       <c r="W14" s="12">
         <f>('overall-new'!W16-'overall-new'!V16)/'overall-new'!$C16</f>
-        <v>2.6541666666666684E-4</v>
+        <v>4.2466666666666694E-3</v>
       </c>
       <c r="X14" s="12">
         <f>('overall-new'!X16-'overall-new'!W16)/'overall-new'!$C16</f>
-        <v>6.3770833333333333E-4</v>
+        <v>1.0203333333333333E-2</v>
       </c>
       <c r="Y14" s="12">
         <f>('overall-new'!Y16-'overall-new'!X16)/'overall-new'!$C16</f>
-        <v>2.1125000000000061E-4</v>
+        <v>3.3800000000000097E-3</v>
       </c>
       <c r="Z14" s="12">
         <f>('overall-new'!Z16-'overall-new'!Y16)/'overall-new'!$C16</f>
-        <v>1.5770833333333319E-4</v>
+        <v>2.523333333333331E-3</v>
       </c>
       <c r="AA14" s="12">
         <f>('overall-new'!AA16-'overall-new'!Z16)/'overall-new'!$C16</f>
-        <v>5.833333333333298E-5</v>
+        <v>9.3333333333332769E-4</v>
       </c>
       <c r="AB14" s="12">
         <f>IFERROR(('overall-new'!AB14-'overall-new'!AA14)/'overall-new'!$C14, "")</f>
-        <v>4.1800000000000019E-4</v>
+        <v>4.959999999999997E-4</v>
       </c>
       <c r="AC14" s="12">
         <f>IFERROR(('overall-new'!AC14-'overall-new'!AB14)/'overall-new'!$C14, "")</f>
-        <v>9.3999999999999778E-5</v>
+        <v>1.0960000000000036E-4</v>
       </c>
       <c r="AD14" s="12">
         <f>IFERROR(('overall-new'!AD14-'overall-new'!AC14)/'overall-new'!$C14, "")</f>
-        <v>2.2563636363636357E-4</v>
+        <v>2.6839999999999975E-4</v>
       </c>
       <c r="AE14" s="12">
         <f>IFERROR(('overall-new'!AE14-'overall-new'!AD14)/'overall-new'!$C14, "")</f>
-        <v>2.6199999999999992E-4</v>
+        <v>3.1079999999999986E-4</v>
       </c>
       <c r="AF14" s="12">
         <f>IFERROR(('overall-new'!AF14-'overall-new'!AE14)/'overall-new'!$C14, "")</f>
-        <v>1.3836363636363661E-4</v>
+        <v>1.6600000000000024E-4</v>
       </c>
       <c r="AG14" s="12">
         <f>IFERROR(('overall-new'!AG14-'overall-new'!AF14)/'overall-new'!$C14, "")</f>
-        <v>5.5400000000000002E-4</v>
+        <v>6.7480000000000014E-4</v>
       </c>
       <c r="AH14" s="12">
         <f>IFERROR(('overall-new'!AH14-'overall-new'!AG14)/'overall-new'!$C14, "")</f>
-        <v>2.7672727272727218E-4</v>
+        <v>3.2879999999999997E-4</v>
       </c>
       <c r="AI14" s="12">
         <f>IFERROR(('overall-new'!AI14-'overall-new'!AH14)/'overall-new'!$C14, "")</f>
-        <v>1.3745454545454551E-4</v>
+        <v>1.619999999999999E-4</v>
       </c>
       <c r="AJ14" s="12">
         <f>IFERROR(('overall-new'!AJ14-'overall-new'!AI14)/'overall-new'!$C14, "")</f>
-        <v>1.3672727272727342E-4</v>
+        <v>1.6160000000000024E-4</v>
       </c>
       <c r="AK14" s="12">
         <f>IFERROR(('overall-new'!AK14-'overall-new'!AJ14)/'overall-new'!$C14, "")</f>
-        <v>5.0890909090909112E-4</v>
+        <v>5.9280000000000031E-4</v>
       </c>
       <c r="AL14" s="12">
         <f>IFERROR(('overall-new'!AL14-'overall-new'!AK14)/'overall-new'!$C14, "")</f>
-        <v>1.2796363636363637E-3</v>
+        <v>1.5139999999999997E-3</v>
       </c>
       <c r="AM14" s="12">
         <f>IFERROR(('overall-new'!AM14-'overall-new'!AL14)/'overall-new'!$C14, "")</f>
-        <v>9.6072727272727228E-4</v>
-      </c>
-      <c r="AN14" s="12">
-        <f>IFERROR(('overall-new'!AN14-'overall-new'!AM14)/'overall-new'!$C14, "")</f>
-        <v>4.9018181818181886E-4</v>
-      </c>
-      <c r="AO14" s="12">
-        <f>IFERROR(('overall-new'!AO14-'overall-new'!AN14)/'overall-new'!$C14, "")</f>
-        <v>3.9690909090908959E-4</v>
-      </c>
-      <c r="AP14" s="12">
-        <f>IFERROR(('overall-new'!AP14-'overall-new'!AO14)/'overall-new'!$C14, "")</f>
-        <v>5.1909090909091034E-4</v>
-      </c>
-      <c r="AQ14" s="12">
-        <f>IFERROR(('overall-new'!AQ14-'overall-new'!AP14)/'overall-new'!$C14, "")</f>
-        <v>2.3872727272727264E-4</v>
-      </c>
+        <v>1.1243999999999994E-3</v>
+      </c>
+      <c r="AN14" s="12"/>
+      <c r="AO14" s="12"/>
+      <c r="AP14" s="12"/>
+      <c r="AQ14" s="12"/>
+      <c r="AR14" s="12"/>
+      <c r="AS14" s="12"/>
+      <c r="AT14" s="12"/>
+      <c r="AU14" s="12"/>
+      <c r="AV14" s="12"/>
+      <c r="AW14" s="12"/>
+      <c r="AX14" s="12"/>
+      <c r="AY14" s="12"/>
     </row>
-    <row r="15" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C15">
         <f>'overall-new'!C15</f>
@@ -6523,176 +7660,99 @@
         <f>IFERROR(('overall-new'!AQ15-'overall-new'!AP15)/'overall-new'!$C15, "")</f>
         <v/>
       </c>
+      <c r="AR15" s="12" t="str">
+        <f>IFERROR(('overall-new'!AR15-'overall-new'!AQ15)/'overall-new'!$C15, "")</f>
+        <v/>
+      </c>
+      <c r="AS15" s="12" t="str">
+        <f>IFERROR(('overall-new'!AS15-'overall-new'!AR15)/'overall-new'!$C15, "")</f>
+        <v/>
+      </c>
+      <c r="AT15" s="12" t="str">
+        <f>IFERROR(('overall-new'!AT15-'overall-new'!AS15)/'overall-new'!$C15, "")</f>
+        <v/>
+      </c>
+      <c r="AU15" s="12" t="str">
+        <f>IFERROR(('overall-new'!AU15-'overall-new'!AT15)/'overall-new'!$C15, "")</f>
+        <v/>
+      </c>
+      <c r="AV15" s="12" t="str">
+        <f>IFERROR(('overall-new'!AV15-'overall-new'!AU15)/'overall-new'!$C15, "")</f>
+        <v/>
+      </c>
+      <c r="AW15" s="12" t="str">
+        <f>IFERROR(('overall-new'!AW15-'overall-new'!AV15)/'overall-new'!$C15, "")</f>
+        <v/>
+      </c>
+      <c r="AX15" s="12" t="str">
+        <f>IFERROR(('overall-new'!AX15-'overall-new'!AW15)/'overall-new'!$C15, "")</f>
+        <v/>
+      </c>
+      <c r="AY15" s="12" t="str">
+        <f>IFERROR(('overall-new'!AY15-'overall-new'!AX15)/'overall-new'!$C15, "")</f>
+        <v/>
+      </c>
     </row>
-    <row r="16" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:51" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
         <v>64</v>
       </c>
       <c r="C16">
         <f>'overall-new'!C16</f>
-        <v>48000</v>
+        <v>3000</v>
       </c>
       <c r="D16" s="12"/>
-      <c r="E16" s="12">
-        <f>('overall-new'!E18-'overall-new'!D18)/'overall-new'!$C18</f>
-        <v>0</v>
-      </c>
-      <c r="F16" s="12">
-        <f>('overall-new'!F18-'overall-new'!E18)/'overall-new'!$C18</f>
-        <v>0</v>
-      </c>
-      <c r="G16" s="12">
-        <f>('overall-new'!G18-'overall-new'!F18)/'overall-new'!$C18</f>
-        <v>0</v>
-      </c>
-      <c r="H16" s="12">
-        <f>('overall-new'!H18-'overall-new'!G18)/'overall-new'!$C18</f>
-        <v>0</v>
-      </c>
-      <c r="I16" s="12">
-        <f>('overall-new'!I18-'overall-new'!H18)/'overall-new'!$C18</f>
-        <v>0</v>
-      </c>
-      <c r="J16" s="12">
-        <f>('overall-new'!J18-'overall-new'!I18)/'overall-new'!$C18</f>
-        <v>0</v>
-      </c>
-      <c r="K16" s="12">
-        <f>('overall-new'!K18-'overall-new'!J18)/'overall-new'!$C18</f>
-        <v>0</v>
-      </c>
-      <c r="L16" s="12">
-        <f>('overall-new'!L18-'overall-new'!K18)/'overall-new'!$C18</f>
-        <v>0</v>
-      </c>
-      <c r="M16" s="12">
-        <f>('overall-new'!M18-'overall-new'!L18)/'overall-new'!$C18</f>
-        <v>0</v>
-      </c>
-      <c r="N16" s="12">
-        <f>('overall-new'!N18-'overall-new'!M18)/'overall-new'!$C18</f>
-        <v>0</v>
-      </c>
-      <c r="O16" s="12">
-        <f>('overall-new'!O18-'overall-new'!N18)/'overall-new'!$C18</f>
-        <v>0</v>
-      </c>
-      <c r="P16" s="12">
-        <f>('overall-new'!P18-'overall-new'!O18)/'overall-new'!$C18</f>
-        <v>0</v>
-      </c>
-      <c r="Q16" s="12">
-        <f>('overall-new'!Q18-'overall-new'!P18)/'overall-new'!$C18</f>
-        <v>0</v>
-      </c>
-      <c r="R16" s="12">
-        <f>('overall-new'!R18-'overall-new'!Q18)/'overall-new'!$C18</f>
-        <v>0</v>
-      </c>
-      <c r="S16" s="12">
-        <f>('overall-new'!S18-'overall-new'!R18)/'overall-new'!$C18</f>
-        <v>0</v>
-      </c>
-      <c r="T16" s="12">
-        <f>('overall-new'!T18-'overall-new'!S18)/'overall-new'!$C18</f>
-        <v>0</v>
-      </c>
-      <c r="U16" s="12">
-        <f>('overall-new'!U18-'overall-new'!T18)/'overall-new'!$C18</f>
-        <v>0</v>
-      </c>
-      <c r="V16" s="12">
-        <f>('overall-new'!V18-'overall-new'!U18)/'overall-new'!$C18</f>
-        <v>0</v>
-      </c>
-      <c r="W16" s="12">
-        <f>('overall-new'!W18-'overall-new'!V18)/'overall-new'!$C18</f>
-        <v>0</v>
-      </c>
-      <c r="X16" s="12">
-        <f>('overall-new'!X18-'overall-new'!W18)/'overall-new'!$C18</f>
-        <v>0</v>
-      </c>
-      <c r="Y16" s="12">
-        <f>('overall-new'!Y18-'overall-new'!X18)/'overall-new'!$C18</f>
-        <v>0</v>
-      </c>
-      <c r="Z16" s="12">
-        <f>('overall-new'!Z18-'overall-new'!Y18)/'overall-new'!$C18</f>
-        <v>0</v>
-      </c>
-      <c r="AA16" s="12">
-        <f>('overall-new'!AA18-'overall-new'!Z18)/'overall-new'!$C18</f>
-        <v>0</v>
-      </c>
-      <c r="AB16" s="12">
-        <f>IFERROR(('overall-new'!AB16-'overall-new'!AA16)/'overall-new'!$C16, "")</f>
-        <v>1.2591666666666667E-3</v>
-      </c>
-      <c r="AC16" s="12">
-        <f>IFERROR(('overall-new'!AC16-'overall-new'!AB16)/'overall-new'!$C16, "")</f>
-        <v>5.7499999999999812E-5</v>
-      </c>
-      <c r="AD16" s="12">
-        <f>IFERROR(('overall-new'!AD16-'overall-new'!AC16)/'overall-new'!$C16, "")</f>
-        <v>3.4770833333333387E-4</v>
-      </c>
-      <c r="AE16" s="12">
-        <f>IFERROR(('overall-new'!AE16-'overall-new'!AD16)/'overall-new'!$C16, "")</f>
-        <v>3.9312499999999949E-4</v>
-      </c>
-      <c r="AF16" s="12">
-        <f>IFERROR(('overall-new'!AF16-'overall-new'!AE16)/'overall-new'!$C16, "")</f>
-        <v>1.864583333333337E-4</v>
-      </c>
-      <c r="AG16" s="12">
-        <f>IFERROR(('overall-new'!AG16-'overall-new'!AF16)/'overall-new'!$C16, "")</f>
-        <v>2.5812500000000032E-4</v>
-      </c>
-      <c r="AH16" s="12">
-        <f>IFERROR(('overall-new'!AH16-'overall-new'!AG16)/'overall-new'!$C16, "")</f>
-        <v>8.9687499999999902E-4</v>
-      </c>
-      <c r="AI16" s="12">
-        <f>IFERROR(('overall-new'!AI16-'overall-new'!AH16)/'overall-new'!$C16, "")</f>
-        <v>1.6270833333333339E-4</v>
-      </c>
-      <c r="AJ16" s="12">
-        <f>IFERROR(('overall-new'!AJ16-'overall-new'!AI16)/'overall-new'!$C16, "")</f>
-        <v>5.0000000000000714E-5</v>
-      </c>
-      <c r="AK16" s="12">
-        <f>IFERROR(('overall-new'!AK16-'overall-new'!AJ16)/'overall-new'!$C16, "")</f>
-        <v>7.1687499999999931E-4</v>
-      </c>
-      <c r="AL16" s="12">
-        <f>IFERROR(('overall-new'!AL16-'overall-new'!AK16)/'overall-new'!$C16, "")</f>
-        <v>1.5554166666666672E-3</v>
-      </c>
-      <c r="AM16" s="12">
-        <f>IFERROR(('overall-new'!AM16-'overall-new'!AL16)/'overall-new'!$C16, "")</f>
-        <v>1.3247916666666662E-3</v>
-      </c>
-      <c r="AN16" s="12">
-        <f>IFERROR(('overall-new'!AN16-'overall-new'!AM16)/'overall-new'!$C16, "")</f>
-        <v>5.9645833333333447E-4</v>
-      </c>
-      <c r="AO16" s="12">
-        <f>IFERROR(('overall-new'!AO16-'overall-new'!AN16)/'overall-new'!$C16, "")</f>
-        <v>5.5812499999999927E-4</v>
-      </c>
-      <c r="AP16" s="12">
-        <f>IFERROR(('overall-new'!AP16-'overall-new'!AO16)/'overall-new'!$C16, "")</f>
-        <v>8.1750000000000019E-4</v>
-      </c>
-      <c r="AQ16" s="12">
-        <f>IFERROR(('overall-new'!AQ16-'overall-new'!AP16)/'overall-new'!$C16, "")</f>
-        <v>2.7999999999999878E-4</v>
-      </c>
+      <c r="E16" s="12"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="12"/>
+      <c r="H16" s="12"/>
+      <c r="I16" s="12"/>
+      <c r="J16" s="12"/>
+      <c r="K16" s="12"/>
+      <c r="L16" s="12"/>
+      <c r="M16" s="12"/>
+      <c r="N16" s="12"/>
+      <c r="O16" s="12"/>
+      <c r="P16" s="12"/>
+      <c r="Q16" s="12"/>
+      <c r="R16" s="12"/>
+      <c r="S16" s="12"/>
+      <c r="T16" s="12"/>
+      <c r="U16" s="12"/>
+      <c r="V16" s="12"/>
+      <c r="W16" s="12"/>
+      <c r="X16" s="12"/>
+      <c r="Y16" s="12"/>
+      <c r="Z16" s="12"/>
+      <c r="AA16" s="12"/>
+      <c r="AB16" s="12"/>
+      <c r="AC16" s="12"/>
+      <c r="AD16" s="12"/>
+      <c r="AE16" s="12"/>
+      <c r="AF16" s="12"/>
+      <c r="AG16" s="12"/>
+      <c r="AH16" s="12"/>
+      <c r="AI16" s="12"/>
+      <c r="AJ16" s="12"/>
+      <c r="AK16" s="12"/>
+      <c r="AL16" s="12"/>
+      <c r="AM16" s="12"/>
+      <c r="AN16" s="12"/>
+      <c r="AO16" s="12"/>
+      <c r="AP16" s="12"/>
+      <c r="AQ16" s="12"/>
+      <c r="AR16" s="12"/>
+      <c r="AS16" s="12"/>
+      <c r="AT16" s="12"/>
+      <c r="AU16" s="12"/>
+      <c r="AV16" s="12"/>
+      <c r="AW16" s="12"/>
+      <c r="AX16" s="12"/>
+      <c r="AY16" s="12"/>
     </row>
-    <row r="17" spans="1:43" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:51" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B17" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C17" s="5">
         <f>'overall-new'!C17</f>
@@ -6786,14 +7846,46 @@
         <f>IFERROR(('overall-new'!AQ17-'overall-new'!AP17)/'overall-new'!$C17, "")</f>
         <v/>
       </c>
+      <c r="AR17" s="12" t="str">
+        <f>IFERROR(('overall-new'!AR17-'overall-new'!AQ17)/'overall-new'!$C17, "")</f>
+        <v/>
+      </c>
+      <c r="AS17" s="12" t="str">
+        <f>IFERROR(('overall-new'!AS17-'overall-new'!AR17)/'overall-new'!$C17, "")</f>
+        <v/>
+      </c>
+      <c r="AT17" s="12" t="str">
+        <f>IFERROR(('overall-new'!AT17-'overall-new'!AS17)/'overall-new'!$C17, "")</f>
+        <v/>
+      </c>
+      <c r="AU17" s="12" t="str">
+        <f>IFERROR(('overall-new'!AU17-'overall-new'!AT17)/'overall-new'!$C17, "")</f>
+        <v/>
+      </c>
+      <c r="AV17" s="12" t="str">
+        <f>IFERROR(('overall-new'!AV17-'overall-new'!AU17)/'overall-new'!$C17, "")</f>
+        <v/>
+      </c>
+      <c r="AW17" s="12" t="str">
+        <f>IFERROR(('overall-new'!AW17-'overall-new'!AV17)/'overall-new'!$C17, "")</f>
+        <v/>
+      </c>
+      <c r="AX17" s="12" t="str">
+        <f>IFERROR(('overall-new'!AX17-'overall-new'!AW17)/'overall-new'!$C17, "")</f>
+        <v/>
+      </c>
+      <c r="AY17" s="12" t="str">
+        <f>IFERROR(('overall-new'!AY17-'overall-new'!AX17)/'overall-new'!$C17, "")</f>
+        <v/>
+      </c>
     </row>
-    <row r="18" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:51" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C18">
         <f>'overall-new'!C18</f>
-        <v>17500</v>
+        <v>5000</v>
       </c>
       <c r="D18" s="12"/>
       <c r="E18" s="12">
@@ -6812,148 +7904,57 @@
         <f>('overall-new'!H20-'overall-new'!G20)/'overall-new'!$C20</f>
         <v>0</v>
       </c>
-      <c r="I18" s="12">
-        <f>('overall-new'!I20-'overall-new'!H20)/'overall-new'!$C20</f>
-        <v>0</v>
-      </c>
-      <c r="J18" s="12">
-        <f>('overall-new'!J20-'overall-new'!I20)/'overall-new'!$C20</f>
-        <v>0</v>
-      </c>
-      <c r="K18" s="12">
-        <f>('overall-new'!K20-'overall-new'!J20)/'overall-new'!$C20</f>
-        <v>0</v>
-      </c>
-      <c r="L18" s="12">
-        <f>('overall-new'!L20-'overall-new'!K20)/'overall-new'!$C20</f>
-        <v>0</v>
-      </c>
-      <c r="M18" s="12">
-        <f>('overall-new'!M20-'overall-new'!L20)/'overall-new'!$C20</f>
-        <v>0</v>
-      </c>
-      <c r="N18" s="12">
-        <f>('overall-new'!N20-'overall-new'!M20)/'overall-new'!$C20</f>
-        <v>0</v>
-      </c>
-      <c r="O18" s="12">
-        <f>('overall-new'!O20-'overall-new'!N20)/'overall-new'!$C20</f>
-        <v>0</v>
-      </c>
-      <c r="P18" s="12">
-        <f>('overall-new'!P20-'overall-new'!O20)/'overall-new'!$C20</f>
-        <v>0</v>
-      </c>
-      <c r="Q18" s="12">
-        <f>('overall-new'!Q20-'overall-new'!P20)/'overall-new'!$C20</f>
-        <v>0</v>
-      </c>
-      <c r="R18" s="12">
-        <f>('overall-new'!R20-'overall-new'!Q20)/'overall-new'!$C20</f>
-        <v>0</v>
-      </c>
-      <c r="S18" s="12">
-        <f>('overall-new'!S20-'overall-new'!R20)/'overall-new'!$C20</f>
-        <v>0</v>
-      </c>
-      <c r="T18" s="12">
-        <f>('overall-new'!T20-'overall-new'!S20)/'overall-new'!$C20</f>
-        <v>0</v>
-      </c>
-      <c r="U18" s="12">
-        <f>('overall-new'!U20-'overall-new'!T20)/'overall-new'!$C20</f>
-        <v>0</v>
-      </c>
-      <c r="V18" s="12">
-        <f>('overall-new'!V20-'overall-new'!U20)/'overall-new'!$C20</f>
-        <v>0</v>
-      </c>
-      <c r="W18" s="12">
-        <f>('overall-new'!W20-'overall-new'!V20)/'overall-new'!$C20</f>
-        <v>0</v>
-      </c>
-      <c r="X18" s="12">
-        <f>('overall-new'!X20-'overall-new'!W20)/'overall-new'!$C20</f>
-        <v>0</v>
-      </c>
-      <c r="Y18" s="12">
-        <f>('overall-new'!Y20-'overall-new'!X20)/'overall-new'!$C20</f>
-        <v>8.2173913043478254E-5</v>
-      </c>
-      <c r="Z18" s="12">
-        <f>('overall-new'!Z20-'overall-new'!Y20)/'overall-new'!$C20</f>
-        <v>-4.6086956521739133E-5</v>
-      </c>
-      <c r="AA18" s="12">
-        <f>('overall-new'!AA20-'overall-new'!Z20)/'overall-new'!$C20</f>
-        <v>2.7173913043478261E-4</v>
-      </c>
-      <c r="AB18" s="12">
-        <f>IFERROR(('overall-new'!AB18-'overall-new'!AA18)/'overall-new'!$C18, "")</f>
-        <v>8.0971428571428568E-4</v>
-      </c>
-      <c r="AC18" s="12">
-        <f>IFERROR(('overall-new'!AC18-'overall-new'!AB18)/'overall-new'!$C18, "")</f>
-        <v>3.3714285714285709E-5</v>
-      </c>
-      <c r="AD18" s="12">
-        <f>IFERROR(('overall-new'!AD18-'overall-new'!AC18)/'overall-new'!$C18, "")</f>
-        <v>-1.2571428571428607E-5</v>
-      </c>
-      <c r="AE18" s="12">
-        <f>IFERROR(('overall-new'!AE18-'overall-new'!AD18)/'overall-new'!$C18, "")</f>
-        <v>-4.4571428571428533E-5</v>
-      </c>
-      <c r="AF18" s="12">
-        <f>IFERROR(('overall-new'!AF18-'overall-new'!AE18)/'overall-new'!$C18, "")</f>
-        <v>5.5428571428571465E-5</v>
-      </c>
-      <c r="AG18" s="12">
-        <f>IFERROR(('overall-new'!AG18-'overall-new'!AF18)/'overall-new'!$C18, "")</f>
-        <v>3.7142857142857143E-4</v>
-      </c>
-      <c r="AH18" s="12">
-        <f>IFERROR(('overall-new'!AH18-'overall-new'!AG18)/'overall-new'!$C18, "")</f>
-        <v>3.7542857142857142E-4</v>
-      </c>
-      <c r="AI18" s="12">
-        <f>IFERROR(('overall-new'!AI18-'overall-new'!AH18)/'overall-new'!$C18, "")</f>
-        <v>5.5428571428571364E-5</v>
-      </c>
-      <c r="AJ18" s="12">
-        <f>IFERROR(('overall-new'!AJ18-'overall-new'!AI18)/'overall-new'!$C18, "")</f>
-        <v>-1.4285714285714285E-5</v>
-      </c>
-      <c r="AK18" s="12">
-        <f>IFERROR(('overall-new'!AK18-'overall-new'!AJ18)/'overall-new'!$C18, "")</f>
-        <v>2.7428571428571452E-5</v>
-      </c>
-      <c r="AL18" s="12">
-        <f>IFERROR(('overall-new'!AL18-'overall-new'!AK18)/'overall-new'!$C18, "")</f>
-        <v>1.1257142857142859E-3</v>
-      </c>
-      <c r="AM18" s="12">
-        <f>IFERROR(('overall-new'!AM18-'overall-new'!AL18)/'overall-new'!$C18, "")</f>
-        <v>1.3142857142857142E-3</v>
-      </c>
-      <c r="AN18" s="12">
-        <f>IFERROR(('overall-new'!AN18-'overall-new'!AM18)/'overall-new'!$C18, "")</f>
-        <v>2.6228571428571447E-4</v>
-      </c>
-      <c r="AO18" s="12">
-        <f>IFERROR(('overall-new'!AO18-'overall-new'!AN18)/'overall-new'!$C18, "")</f>
-        <v>6.6971428571428564E-4</v>
-      </c>
-      <c r="AP18" s="12">
-        <f>IFERROR(('overall-new'!AP18-'overall-new'!AO18)/'overall-new'!$C18, "")</f>
-        <v>1.1891428571428565E-3</v>
-      </c>
-      <c r="AQ18" s="12">
-        <f>IFERROR(('overall-new'!AQ18-'overall-new'!AP18)/'overall-new'!$C18, "")</f>
-        <v>3.9085714285714304E-4</v>
-      </c>
+      <c r="I18" s="12"/>
+      <c r="J18" s="12"/>
+      <c r="K18" s="12"/>
+      <c r="L18" s="12"/>
+      <c r="M18" s="12"/>
+      <c r="N18" s="12"/>
+      <c r="O18" s="12"/>
+      <c r="P18" s="12"/>
+      <c r="Q18" s="12"/>
+      <c r="R18" s="12"/>
+      <c r="S18" s="12"/>
+      <c r="T18" s="12"/>
+      <c r="U18" s="12"/>
+      <c r="V18" s="12"/>
+      <c r="W18" s="12"/>
+      <c r="X18" s="12"/>
+      <c r="Y18" s="12"/>
+      <c r="Z18" s="12"/>
+      <c r="AA18" s="12"/>
+      <c r="AB18" s="12"/>
+      <c r="AC18" s="12"/>
+      <c r="AD18" s="12"/>
+      <c r="AE18" s="12"/>
+      <c r="AF18" s="12"/>
+      <c r="AG18" s="12"/>
+      <c r="AH18" s="12"/>
+      <c r="AI18" s="12"/>
+      <c r="AJ18" s="12"/>
+      <c r="AK18" s="12"/>
+      <c r="AL18" s="12"/>
+      <c r="AM18" s="12"/>
+      <c r="AN18" s="12"/>
+      <c r="AO18" s="12"/>
+      <c r="AP18" s="12"/>
+      <c r="AQ18" s="12"/>
+      <c r="AR18" s="12"/>
+      <c r="AS18" s="12"/>
+      <c r="AT18" s="12"/>
+      <c r="AU18" s="12"/>
+      <c r="AV18" s="12"/>
+      <c r="AW18" s="12"/>
+      <c r="AX18" s="12"/>
+      <c r="AY18" s="12"/>
     </row>
-    <row r="19" spans="1:43" s="16" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:51" s="16" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="B19" s="16" t="s">
+        <v>126</v>
+      </c>
       <c r="D19" s="17"/>
       <c r="E19" s="17"/>
       <c r="F19" s="17"/>
@@ -6984,13 +7985,30 @@
       <c r="AE19" s="17"/>
       <c r="AF19" s="17"/>
       <c r="AG19" s="17"/>
+      <c r="AU19" s="12">
+        <f>IFERROR(('overall-new'!AU19-'overall-new'!AT19)/'overall-new'!$C19, "")</f>
+        <v>2.5366666666666667E-3</v>
+      </c>
+      <c r="AV19" s="12">
+        <f>IFERROR(('overall-new'!AV19-'overall-new'!AU19)/'overall-new'!$C19, "")</f>
+        <v>-1.01E-3</v>
+      </c>
+      <c r="AW19" s="12">
+        <f>IFERROR(('overall-new'!AW19-'overall-new'!AV19)/'overall-new'!$C19, "")</f>
+        <v>1.5666666666666658E-4</v>
+      </c>
+      <c r="AX19" s="12">
+        <f>IFERROR(('overall-new'!AX19-'overall-new'!AW19)/'overall-new'!$C19, "")</f>
+        <v>3.5700000000000003E-3</v>
+      </c>
+      <c r="AY19" s="12">
+        <f>IFERROR(('overall-new'!AY19-'overall-new'!AX19)/'overall-new'!$C19, "")</f>
+        <v>8.5333333333333355E-4</v>
+      </c>
     </row>
-    <row r="20" spans="1:43" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>66</v>
-      </c>
+    <row r="20" spans="1:51" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C20">
         <f>'overall-new'!C20</f>
@@ -7153,10 +8171,42 @@
         <f>IFERROR(('overall-new'!AQ20-'overall-new'!AP20)/'overall-new'!$C20, "")</f>
         <v>2.282608695652174E-4</v>
       </c>
+      <c r="AR20" s="12">
+        <f>IFERROR(('overall-new'!AR20-'overall-new'!AQ20)/'overall-new'!$C20, "")</f>
+        <v>1.111304347826087E-3</v>
+      </c>
+      <c r="AS20" s="12">
+        <f>IFERROR(('overall-new'!AS20-'overall-new'!AR20)/'overall-new'!$C20, "")</f>
+        <v>2.7869565217391288E-4</v>
+      </c>
+      <c r="AT20" s="12">
+        <f>IFERROR(('overall-new'!AT20-'overall-new'!AS20)/'overall-new'!$C20, "")</f>
+        <v>2.7913043478260938E-4</v>
+      </c>
+      <c r="AU20" s="12">
+        <f>IFERROR(('overall-new'!AU20-'overall-new'!AT20)/'overall-new'!$C20, "")</f>
+        <v>3.9217391304347871E-4</v>
+      </c>
+      <c r="AV20" s="12">
+        <f>IFERROR(('overall-new'!AV20-'overall-new'!AU20)/'overall-new'!$C20, "")</f>
+        <v>2.7086956521739087E-4</v>
+      </c>
+      <c r="AW20" s="12">
+        <f>IFERROR(('overall-new'!AW20-'overall-new'!AV20)/'overall-new'!$C20, "")</f>
+        <v>1.2347826086956537E-4</v>
+      </c>
+      <c r="AX20" s="12">
+        <f>IFERROR(('overall-new'!AX20-'overall-new'!AW20)/'overall-new'!$C20, "")</f>
+        <v>4.8391304347826069E-4</v>
+      </c>
+      <c r="AY20" s="12">
+        <f>IFERROR(('overall-new'!AY20-'overall-new'!AX20)/'overall-new'!$C20, "")</f>
+        <v>2.5304347826086927E-4</v>
+      </c>
     </row>
-    <row r="21" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:51" x14ac:dyDescent="0.3">
       <c r="B21" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C21">
         <f>'overall-new'!C21</f>
@@ -7241,19 +8291,19 @@
       </c>
       <c r="X21" s="12">
         <f>('overall-new'!X23-'overall-new'!W23)/'overall-new'!$C23</f>
-        <v>4.143E-3</v>
+        <v>2.0715E-3</v>
       </c>
       <c r="Y21" s="12">
         <f>('overall-new'!Y23-'overall-new'!X23)/'overall-new'!$C23</f>
-        <v>2.4299999999999997E-4</v>
+        <v>1.2149999999999999E-4</v>
       </c>
       <c r="Z21" s="12">
         <f>('overall-new'!Z23-'overall-new'!Y23)/'overall-new'!$C23</f>
-        <v>1.1350000000000002E-3</v>
+        <v>5.6750000000000008E-4</v>
       </c>
       <c r="AA21" s="12">
         <f>('overall-new'!AA23-'overall-new'!Z23)/'overall-new'!$C23</f>
-        <v>2.0249999999999995E-3</v>
+        <v>1.0124999999999997E-3</v>
       </c>
       <c r="AB21" s="12">
         <f>IFERROR(('overall-new'!AB21-'overall-new'!AA21)/'overall-new'!$C21, "")</f>
@@ -7319,10 +8369,42 @@
         <f>IFERROR(('overall-new'!AQ21-'overall-new'!AP21)/'overall-new'!$C21, "")</f>
         <v>7.58250000000001E-4</v>
       </c>
+      <c r="AR21" s="12">
+        <f>IFERROR(('overall-new'!AR21-'overall-new'!AQ21)/'overall-new'!$C21, "")</f>
+        <v>4.9710000000000006E-3</v>
+      </c>
+      <c r="AS21" s="12">
+        <f>IFERROR(('overall-new'!AS21-'overall-new'!AR21)/'overall-new'!$C21, "")</f>
+        <v>8.425000000000011E-5</v>
+      </c>
+      <c r="AT21" s="12">
+        <f>IFERROR(('overall-new'!AT21-'overall-new'!AS21)/'overall-new'!$C21, "")</f>
+        <v>2.10625E-3</v>
+      </c>
+      <c r="AU21" s="12">
+        <f>IFERROR(('overall-new'!AU21-'overall-new'!AT21)/'overall-new'!$C21, "")</f>
+        <v>-7.58250000000001E-4</v>
+      </c>
+      <c r="AV21" s="12">
+        <f>IFERROR(('overall-new'!AV21-'overall-new'!AU21)/'overall-new'!$C21, "")</f>
+        <v>-5.2237500000000001E-3</v>
+      </c>
+      <c r="AW21" s="12">
+        <f>IFERROR(('overall-new'!AW21-'overall-new'!AV21)/'overall-new'!$C21, "")</f>
+        <v>2.8647499999999992E-3</v>
+      </c>
+      <c r="AX21" s="12">
+        <f>IFERROR(('overall-new'!AX21-'overall-new'!AW21)/'overall-new'!$C21, "")</f>
+        <v>-2.3592500000000002E-3</v>
+      </c>
+      <c r="AY21" s="12">
+        <f>IFERROR(('overall-new'!AY21-'overall-new'!AX21)/'overall-new'!$C21, "")</f>
+        <v>-2.7802499999999993E-3</v>
+      </c>
     </row>
-    <row r="22" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:51" x14ac:dyDescent="0.3">
       <c r="B22" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C22">
         <f>'overall-new'!C22</f>
@@ -7485,14 +8567,46 @@
         <f>IFERROR(('overall-new'!AQ22-'overall-new'!AP22)/'overall-new'!$C22, "")</f>
         <v>7.1133333333333346E-4</v>
       </c>
+      <c r="AR22" s="12">
+        <f>IFERROR(('overall-new'!AR22-'overall-new'!AQ22)/'overall-new'!$C22, "")</f>
+        <v>2.6876666666666663E-3</v>
+      </c>
+      <c r="AS22" s="12">
+        <f>IFERROR(('overall-new'!AS22-'overall-new'!AR22)/'overall-new'!$C22, "")</f>
+        <v>-2.3733333333333348E-4</v>
+      </c>
+      <c r="AT22" s="12">
+        <f>IFERROR(('overall-new'!AT22-'overall-new'!AS22)/'overall-new'!$C22, "")</f>
+        <v>1.6600000000000005E-3</v>
+      </c>
+      <c r="AU22" s="12">
+        <f>IFERROR(('overall-new'!AU22-'overall-new'!AT22)/'overall-new'!$C22, "")</f>
+        <v>-7.1133333333333248E-4</v>
+      </c>
+      <c r="AV22" s="12">
+        <f>IFERROR(('overall-new'!AV22-'overall-new'!AU22)/'overall-new'!$C22, "")</f>
+        <v>-3.4780000000000011E-3</v>
+      </c>
+      <c r="AW22" s="12">
+        <f>IFERROR(('overall-new'!AW22-'overall-new'!AV22)/'overall-new'!$C22, "")</f>
+        <v>2.0550000000000004E-3</v>
+      </c>
+      <c r="AX22" s="12">
+        <f>IFERROR(('overall-new'!AX22-'overall-new'!AW22)/'overall-new'!$C22, "")</f>
+        <v>-8.6933333333333372E-4</v>
+      </c>
+      <c r="AY22" s="12">
+        <f>IFERROR(('overall-new'!AY22-'overall-new'!AX22)/'overall-new'!$C22, "")</f>
+        <v>-1.976333333333333E-3</v>
+      </c>
     </row>
-    <row r="23" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:51" x14ac:dyDescent="0.3">
       <c r="B23" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C23">
         <f>'overall-new'!C23</f>
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="D23" s="12"/>
       <c r="E23" s="12">
@@ -7577,31 +8691,31 @@
       </c>
       <c r="Y23" s="12">
         <f>('overall-new'!Y25-'overall-new'!X25)/'overall-new'!$C25</f>
-        <v>-2.2559999999999998E-3</v>
+        <v>-1.8047999999999999E-3</v>
       </c>
       <c r="Z23" s="12">
         <f>('overall-new'!Z25-'overall-new'!Y25)/'overall-new'!$C25</f>
-        <v>2.4269999999999999E-3</v>
+        <v>1.9415999999999999E-3</v>
       </c>
       <c r="AA23" s="12">
         <f>('overall-new'!AA25-'overall-new'!Z25)/'overall-new'!$C25</f>
-        <v>5.6599999999999999E-4</v>
+        <v>4.528E-4</v>
       </c>
       <c r="AB23" s="12">
         <f>IFERROR(('overall-new'!AB23-'overall-new'!AA23)/'overall-new'!$C23, "")</f>
-        <v>-5.9139999999999991E-3</v>
+        <v>-2.9569999999999996E-3</v>
       </c>
       <c r="AC23" s="12">
         <f>IFERROR(('overall-new'!AC23-'overall-new'!AB23)/'overall-new'!$C23, "")</f>
-        <v>-1.1350000000000002E-3</v>
+        <v>-5.6750000000000008E-4</v>
       </c>
       <c r="AD23" s="12">
         <f>IFERROR(('overall-new'!AD23-'overall-new'!AC23)/'overall-new'!$C23, "")</f>
-        <v>1.5400000000000001E-3</v>
+        <v>7.7000000000000007E-4</v>
       </c>
       <c r="AE23" s="12">
         <f>IFERROR(('overall-new'!AE23-'overall-new'!AD23)/'overall-new'!$C23, "")</f>
-        <v>5.669999999999998E-4</v>
+        <v>2.834999999999999E-4</v>
       </c>
       <c r="AF23" s="12">
         <f>IFERROR(('overall-new'!AF23-'overall-new'!AE23)/'overall-new'!$C23, "")</f>
@@ -7609,52 +8723,84 @@
       </c>
       <c r="AG23" s="12">
         <f>IFERROR(('overall-new'!AG23-'overall-new'!AF23)/'overall-new'!$C23, "")</f>
-        <v>8.2000000000000031E-4</v>
+        <v>4.1000000000000015E-4</v>
       </c>
       <c r="AH23" s="12">
         <f>IFERROR(('overall-new'!AH23-'overall-new'!AG23)/'overall-new'!$C23, "")</f>
-        <v>6.6759999999999988E-3</v>
+        <v>3.3379999999999994E-3</v>
       </c>
       <c r="AI23" s="12">
         <f>IFERROR(('overall-new'!AI23-'overall-new'!AH23)/'overall-new'!$C23, "")</f>
-        <v>1.3030000000000001E-3</v>
+        <v>6.5150000000000006E-4</v>
       </c>
       <c r="AJ23" s="12">
         <f>IFERROR(('overall-new'!AJ23-'overall-new'!AI23)/'overall-new'!$C23, "")</f>
-        <v>4.8799999999999956E-4</v>
+        <v>2.4399999999999978E-4</v>
       </c>
       <c r="AK23" s="12">
         <f>IFERROR(('overall-new'!AK23-'overall-new'!AJ23)/'overall-new'!$C23, "")</f>
-        <v>-3.5819999999999992E-3</v>
+        <v>-1.7909999999999996E-3</v>
       </c>
       <c r="AL23" s="12">
         <f>IFERROR(('overall-new'!AL23-'overall-new'!AK23)/'overall-new'!$C23, "")</f>
-        <v>7.1650000000000004E-3</v>
+        <v>3.5825000000000002E-3</v>
       </c>
       <c r="AM23" s="12">
         <f>IFERROR(('overall-new'!AM23-'overall-new'!AL23)/'overall-new'!$C23, "")</f>
-        <v>-8.6300000000000005E-3</v>
+        <v>-4.3150000000000003E-3</v>
       </c>
       <c r="AN23" s="12">
         <f>IFERROR(('overall-new'!AN23-'overall-new'!AM23)/'overall-new'!$C23, "")</f>
-        <v>-4.0709999999999991E-3</v>
+        <v>-2.0354999999999995E-3</v>
       </c>
       <c r="AO23" s="12">
         <f>IFERROR(('overall-new'!AO23-'overall-new'!AN23)/'overall-new'!$C23, "")</f>
-        <v>1.2374E-2</v>
+        <v>6.1869999999999998E-3</v>
       </c>
       <c r="AP23" s="12">
         <f>IFERROR(('overall-new'!AP23-'overall-new'!AO23)/'overall-new'!$C23, "")</f>
-        <v>1.7919999999999987E-3</v>
+        <v>8.9599999999999934E-4</v>
       </c>
       <c r="AQ23" s="12">
         <f>IFERROR(('overall-new'!AQ23-'overall-new'!AP23)/'overall-new'!$C23, "")</f>
-        <v>1.1390000000000016E-3</v>
+        <v>5.6950000000000078E-4</v>
+      </c>
+      <c r="AR23" s="12">
+        <f>IFERROR(('overall-new'!AR23-'overall-new'!AQ23)/'overall-new'!$C23, "")</f>
+        <v>-1.6249999999999999E-4</v>
+      </c>
+      <c r="AS23" s="12">
+        <f>IFERROR(('overall-new'!AS23-'overall-new'!AR23)/'overall-new'!$C23, "")</f>
+        <v>8.1410000000000007E-3</v>
+      </c>
+      <c r="AT23" s="12">
+        <f>IFERROR(('overall-new'!AT23-'overall-new'!AS23)/'overall-new'!$C23, "")</f>
+        <v>3.9079999999999983E-3</v>
+      </c>
+      <c r="AU23" s="12">
+        <f>IFERROR(('overall-new'!AU23-'overall-new'!AT23)/'overall-new'!$C23, "")</f>
+        <v>9.6069999999999992E-3</v>
+      </c>
+      <c r="AV23" s="12">
+        <f>IFERROR(('overall-new'!AV23-'overall-new'!AU23)/'overall-new'!$C23, "")</f>
+        <v>1.7910000000000024E-3</v>
+      </c>
+      <c r="AW23" s="12">
+        <f>IFERROR(('overall-new'!AW23-'overall-new'!AV23)/'overall-new'!$C23, "")</f>
+        <v>-4.0699999999999932E-4</v>
+      </c>
+      <c r="AX23" s="12">
+        <f>IFERROR(('overall-new'!AX23-'overall-new'!AW23)/'overall-new'!$C23, "")</f>
+        <v>5.3729999999999958E-3</v>
+      </c>
+      <c r="AY23" s="12">
+        <f>IFERROR(('overall-new'!AY23-'overall-new'!AX23)/'overall-new'!$C23, "")</f>
+        <v>4.8850000000000022E-3</v>
       </c>
     </row>
-    <row r="24" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:51" x14ac:dyDescent="0.3">
       <c r="B24" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C24">
         <f>'overall-new'!C24</f>
@@ -7739,19 +8885,19 @@
       </c>
       <c r="X24" s="12">
         <f>('overall-new'!X27-'overall-new'!W27)/'overall-new'!$C27</f>
-        <v>3.4365671641791042E-4</v>
+        <v>2.8602484472049685E-4</v>
       </c>
       <c r="Y24" s="12">
         <f>('overall-new'!Y27-'overall-new'!X27)/'overall-new'!$C27</f>
-        <v>5.5447761194029851E-4</v>
+        <v>4.6149068322981366E-4</v>
       </c>
       <c r="Z24" s="12">
         <f>('overall-new'!Z27-'overall-new'!Y27)/'overall-new'!$C27</f>
-        <v>-1.149253731343283E-4</v>
+        <v>-9.5652173913043429E-5</v>
       </c>
       <c r="AA24" s="12">
         <f>('overall-new'!AA27-'overall-new'!Z27)/'overall-new'!$C27</f>
-        <v>9.2955223880597005E-4</v>
+        <v>7.7366459627329189E-4</v>
       </c>
       <c r="AB24" s="12">
         <f>IFERROR(('overall-new'!AB24-'overall-new'!AA24)/'overall-new'!$C24, "")</f>
@@ -7817,14 +8963,46 @@
         <f>IFERROR(('overall-new'!AQ24-'overall-new'!AP24)/'overall-new'!$C24, "")</f>
         <v>9.1000000000001074E-5</v>
       </c>
+      <c r="AR24" s="12">
+        <f>IFERROR(('overall-new'!AR24-'overall-new'!AQ24)/'overall-new'!$C24, "")</f>
+        <v>2.4519999999999998E-3</v>
+      </c>
+      <c r="AS24" s="12">
+        <f>IFERROR(('overall-new'!AS24-'overall-new'!AR24)/'overall-new'!$C24, "")</f>
+        <v>0</v>
+      </c>
+      <c r="AT24" s="12">
+        <f>IFERROR(('overall-new'!AT24-'overall-new'!AS24)/'overall-new'!$C24, "")</f>
+        <v>8.1700000000000013E-4</v>
+      </c>
+      <c r="AU24" s="12">
+        <f>IFERROR(('overall-new'!AU24-'overall-new'!AT24)/'overall-new'!$C24, "")</f>
+        <v>9.0999999999999664E-5</v>
+      </c>
+      <c r="AV24" s="12">
+        <f>IFERROR(('overall-new'!AV24-'overall-new'!AU24)/'overall-new'!$C24, "")</f>
+        <v>-1.8159999999999997E-3</v>
+      </c>
+      <c r="AW24" s="12">
+        <f>IFERROR(('overall-new'!AW24-'overall-new'!AV24)/'overall-new'!$C24, "")</f>
+        <v>1.5429999999999992E-3</v>
+      </c>
+      <c r="AX24" s="12">
+        <f>IFERROR(('overall-new'!AX24-'overall-new'!AW24)/'overall-new'!$C24, "")</f>
+        <v>-7.2599999999999911E-4</v>
+      </c>
+      <c r="AY24" s="12">
+        <f>IFERROR(('overall-new'!AY24-'overall-new'!AX24)/'overall-new'!$C24, "")</f>
+        <v>-1.0900000000000005E-3</v>
+      </c>
     </row>
-    <row r="25" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:51" x14ac:dyDescent="0.3">
       <c r="B25" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C25">
         <f>'overall-new'!C25</f>
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="D25" s="12"/>
       <c r="E25" s="12"/>
@@ -7852,76 +9030,108 @@
       <c r="AA25" s="12"/>
       <c r="AB25" s="12">
         <f>IFERROR(('overall-new'!AB25-'overall-new'!AA25)/'overall-new'!$C25, "")</f>
-        <v>-5.8239999999999993E-3</v>
+        <v>-4.6591999999999996E-3</v>
       </c>
       <c r="AC25" s="12">
         <f>IFERROR(('overall-new'!AC25-'overall-new'!AB25)/'overall-new'!$C25, "")</f>
-        <v>-2.0225E-3</v>
+        <v>-1.6180000000000001E-3</v>
       </c>
       <c r="AD25" s="12">
         <f>IFERROR(('overall-new'!AD25-'overall-new'!AC25)/'overall-new'!$C25, "")</f>
-        <v>4.7724999999999998E-3</v>
+        <v>3.8179999999999993E-3</v>
       </c>
       <c r="AE25" s="12">
         <f>IFERROR(('overall-new'!AE25-'overall-new'!AD25)/'overall-new'!$C25, "")</f>
-        <v>1.0520000000000002E-3</v>
+        <v>8.4160000000000007E-4</v>
       </c>
       <c r="AF25" s="12">
         <f>IFERROR(('overall-new'!AF25-'overall-new'!AE25)/'overall-new'!$C25, "")</f>
-        <v>-2.9125000000000002E-3</v>
+        <v>-2.33E-3</v>
       </c>
       <c r="AG25" s="12">
         <f>IFERROR(('overall-new'!AG25-'overall-new'!AF25)/'overall-new'!$C25, "")</f>
-        <v>2.5080000000000002E-3</v>
+        <v>2.0064000000000002E-3</v>
       </c>
       <c r="AH25" s="12">
         <f>IFERROR(('overall-new'!AH25-'overall-new'!AG25)/'overall-new'!$C25, "")</f>
-        <v>2.8309999999999997E-3</v>
+        <v>2.2648E-3</v>
       </c>
       <c r="AI25" s="12">
         <f>IFERROR(('overall-new'!AI25-'overall-new'!AH25)/'overall-new'!$C25, "")</f>
-        <v>4.0450000000000018E-4</v>
+        <v>3.2360000000000011E-4</v>
       </c>
       <c r="AJ25" s="12">
         <f>IFERROR(('overall-new'!AJ25-'overall-new'!AI25)/'overall-new'!$C25, "")</f>
-        <v>-8.1000000000000044E-5</v>
+        <v>-6.4800000000000044E-5</v>
       </c>
       <c r="AK25" s="12">
         <f>IFERROR(('overall-new'!AK25-'overall-new'!AJ25)/'overall-new'!$C25, "")</f>
-        <v>1.7800000000000003E-3</v>
+        <v>1.4240000000000004E-3</v>
       </c>
       <c r="AL25" s="12">
         <f>IFERROR(('overall-new'!AL25-'overall-new'!AK25)/'overall-new'!$C25, "")</f>
-        <v>9.7049999999999979E-4</v>
+        <v>7.763999999999999E-4</v>
       </c>
       <c r="AM25" s="12">
         <f>IFERROR(('overall-new'!AM25-'overall-new'!AL25)/'overall-new'!$C25, "")</f>
-        <v>-8.6555E-3</v>
+        <v>-6.9244000000000007E-3</v>
       </c>
       <c r="AN25" s="12">
         <f>IFERROR(('overall-new'!AN25-'overall-new'!AM25)/'overall-new'!$C25, "")</f>
-        <v>6.469999999999999E-4</v>
+        <v>5.175999999999999E-4</v>
       </c>
       <c r="AO25" s="12">
         <f>IFERROR(('overall-new'!AO25-'overall-new'!AN25)/'overall-new'!$C25, "")</f>
-        <v>5.0155E-3</v>
+        <v>4.0124000000000002E-3</v>
       </c>
       <c r="AP25" s="12">
         <f>IFERROR(('overall-new'!AP25-'overall-new'!AO25)/'overall-new'!$C25, "")</f>
-        <v>2.8314999999999998E-3</v>
+        <v>2.2651999999999998E-3</v>
       </c>
       <c r="AQ25" s="12">
         <f>IFERROR(('overall-new'!AQ25-'overall-new'!AP25)/'overall-new'!$C25, "")</f>
-        <v>5.6600000000000042E-4</v>
+        <v>4.5280000000000027E-4</v>
+      </c>
+      <c r="AR25" s="12">
+        <f>IFERROR(('overall-new'!AR25-'overall-new'!AQ25)/'overall-new'!$C25, "")</f>
+        <v>5.3067999999999995E-3</v>
+      </c>
+      <c r="AS25" s="12">
+        <f>IFERROR(('overall-new'!AS25-'overall-new'!AR25)/'overall-new'!$C25, "")</f>
+        <v>8.4127999999999998E-3</v>
+      </c>
+      <c r="AT25" s="12">
+        <f>IFERROR(('overall-new'!AT25-'overall-new'!AS25)/'overall-new'!$C25, "")</f>
+        <v>1.5532000000000015E-3</v>
+      </c>
+      <c r="AU25" s="12">
+        <f>IFERROR(('overall-new'!AU25-'overall-new'!AT25)/'overall-new'!$C25, "")</f>
+        <v>5.3067999999999987E-3</v>
+      </c>
+      <c r="AV25" s="12">
+        <f>IFERROR(('overall-new'!AV25-'overall-new'!AU25)/'overall-new'!$C25, "")</f>
+        <v>4.206399999999999E-3</v>
+      </c>
+      <c r="AW25" s="12">
+        <f>IFERROR(('overall-new'!AW25-'overall-new'!AV25)/'overall-new'!$C25, "")</f>
+        <v>-6.7803999999999998E-3</v>
+      </c>
+      <c r="AX25" s="12">
+        <f>IFERROR(('overall-new'!AX25-'overall-new'!AW25)/'overall-new'!$C25, "")</f>
+        <v>1.5021200000000004E-2</v>
+      </c>
+      <c r="AY25" s="12">
+        <f>IFERROR(('overall-new'!AY25-'overall-new'!AX25)/'overall-new'!$C25, "")</f>
+        <v>1.0121599999999994E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:51" x14ac:dyDescent="0.3">
       <c r="B26" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C26">
         <f>'overall-new'!C26</f>
-        <v>1000</v>
+        <v>10000</v>
       </c>
       <c r="D26" s="12"/>
       <c r="E26" s="12">
@@ -8022,27 +9232,27 @@
       </c>
       <c r="AC26" s="12">
         <f>IFERROR(('overall-new'!AC26-'overall-new'!AB26)/'overall-new'!$C26, "")</f>
-        <v>-1.8799999999999999E-3</v>
+        <v>-1.8799999999999999E-4</v>
       </c>
       <c r="AD26" s="12">
         <f>IFERROR(('overall-new'!AD26-'overall-new'!AC26)/'overall-new'!$C26, "")</f>
-        <v>1.0799999999999998E-3</v>
+        <v>1.0799999999999998E-4</v>
       </c>
       <c r="AE26" s="12">
         <f>IFERROR(('overall-new'!AE26-'overall-new'!AD26)/'overall-new'!$C26, "")</f>
-        <v>1.6100000000000001E-3</v>
+        <v>1.6100000000000001E-4</v>
       </c>
       <c r="AF26" s="12">
         <f>IFERROR(('overall-new'!AF26-'overall-new'!AE26)/'overall-new'!$C26, "")</f>
-        <v>-5.4000000000000001E-4</v>
+        <v>-5.4000000000000005E-5</v>
       </c>
       <c r="AG26" s="12">
         <f>IFERROR(('overall-new'!AG26-'overall-new'!AF26)/'overall-new'!$C26, "")</f>
-        <v>1.6199999999999999E-3</v>
+        <v>1.6199999999999998E-4</v>
       </c>
       <c r="AH26" s="12">
         <f>IFERROR(('overall-new'!AH26-'overall-new'!AG26)/'overall-new'!$C26, "")</f>
-        <v>1.07E-3</v>
+        <v>1.0700000000000001E-4</v>
       </c>
       <c r="AI26" s="12">
         <f>IFERROR(('overall-new'!AI26-'overall-new'!AH26)/'overall-new'!$C26, "")</f>
@@ -8054,40 +9264,72 @@
       </c>
       <c r="AK26" s="12">
         <f>IFERROR(('overall-new'!AK26-'overall-new'!AJ26)/'overall-new'!$C26, "")</f>
-        <v>-2.8640000000000002E-2</v>
+        <v>-2.8640000000000002E-3</v>
       </c>
       <c r="AL26" s="12">
         <f>IFERROR(('overall-new'!AL26-'overall-new'!AK26)/'overall-new'!$C26, "")</f>
-        <v>2.682E-2</v>
+        <v>2.6819999999999999E-3</v>
       </c>
       <c r="AM26" s="12">
         <f>IFERROR(('overall-new'!AM26-'overall-new'!AL26)/'overall-new'!$C26, "")</f>
-        <v>-3.2640000000000002E-2</v>
+        <v>-3.264E-3</v>
       </c>
       <c r="AN26" s="12">
         <f>IFERROR(('overall-new'!AN26-'overall-new'!AM26)/'overall-new'!$C26, "")</f>
-        <v>-4.9200000000000016E-3</v>
+        <v>-4.9200000000000014E-4</v>
       </c>
       <c r="AO26" s="12">
         <f>IFERROR(('overall-new'!AO26-'overall-new'!AN26)/'overall-new'!$C26, "")</f>
-        <v>3.7560000000000003E-2</v>
+        <v>3.7560000000000002E-3</v>
       </c>
       <c r="AP26" s="12">
         <f>IFERROR(('overall-new'!AP26-'overall-new'!AO26)/'overall-new'!$C26, "")</f>
-        <v>1.0729999999999998E-2</v>
+        <v>1.073E-3</v>
       </c>
       <c r="AQ26" s="12">
         <f>IFERROR(('overall-new'!AQ26-'overall-new'!AP26)/'overall-new'!$C26, "")</f>
         <v>0</v>
       </c>
+      <c r="AR26" s="12">
+        <f>IFERROR(('overall-new'!AR26-'overall-new'!AQ26)/'overall-new'!$C26, "")</f>
+        <v>3.2200000000000002E-3</v>
+      </c>
+      <c r="AS26" s="12">
+        <f>IFERROR(('overall-new'!AS26-'overall-new'!AR26)/'overall-new'!$C26, "")</f>
+        <v>4.829E-3</v>
+      </c>
+      <c r="AT26" s="12">
+        <f>IFERROR(('overall-new'!AT26-'overall-new'!AS26)/'overall-new'!$C26, "")</f>
+        <v>2.1459999999999995E-3</v>
+      </c>
+      <c r="AU26" s="12">
+        <f>IFERROR(('overall-new'!AU26-'overall-new'!AT26)/'overall-new'!$C26, "")</f>
+        <v>4.2920000000000015E-3</v>
+      </c>
+      <c r="AV26" s="12">
+        <f>IFERROR(('overall-new'!AV26-'overall-new'!AU26)/'overall-new'!$C26, "")</f>
+        <v>2.6829999999999983E-3</v>
+      </c>
+      <c r="AW26" s="12">
+        <f>IFERROR(('overall-new'!AW26-'overall-new'!AV26)/'overall-new'!$C26, "")</f>
+        <v>-1.6099999999999995E-3</v>
+      </c>
+      <c r="AX26" s="12">
+        <f>IFERROR(('overall-new'!AX26-'overall-new'!AW26)/'overall-new'!$C26, "")</f>
+        <v>5.3659999999999992E-3</v>
+      </c>
+      <c r="AY26" s="12">
+        <f>IFERROR(('overall-new'!AY26-'overall-new'!AX26)/'overall-new'!$C26, "")</f>
+        <v>2.1460000000000008E-3</v>
+      </c>
     </row>
-    <row r="27" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C27">
         <f>'overall-new'!C27</f>
-        <v>134000</v>
+        <v>161000</v>
       </c>
       <c r="D27" s="12"/>
       <c r="E27" s="12">
@@ -8184,72 +9426,104 @@
       </c>
       <c r="AB27" s="12">
         <f>IFERROR(('overall-new'!AB27-'overall-new'!AA27)/'overall-new'!$C27, "")</f>
-        <v>1.0230597014925372E-3</v>
+        <v>8.5149068322981354E-4</v>
       </c>
       <c r="AC27" s="12">
         <f>IFERROR(('overall-new'!AC27-'overall-new'!AB27)/'overall-new'!$C27, "")</f>
-        <v>-9.1119402985074562E-4</v>
+        <v>-7.5838509316770129E-4</v>
       </c>
       <c r="AD27" s="12">
         <f>IFERROR(('overall-new'!AD27-'overall-new'!AC27)/'overall-new'!$C27, "")</f>
-        <v>4.8999999999999933E-4</v>
+        <v>4.0782608695652116E-4</v>
       </c>
       <c r="AE27" s="12">
         <f>IFERROR(('overall-new'!AE27-'overall-new'!AD27)/'overall-new'!$C27, "")</f>
-        <v>-2.6335820895522318E-4</v>
+        <v>-2.1919254658385036E-4</v>
       </c>
       <c r="AF27" s="12">
         <f>IFERROR(('overall-new'!AF27-'overall-new'!AE27)/'overall-new'!$C27, "")</f>
-        <v>-2.8350746268656745E-4</v>
+        <v>-2.359627329192549E-4</v>
       </c>
       <c r="AG27" s="12">
         <f>IFERROR(('overall-new'!AG27-'overall-new'!AF27)/'overall-new'!$C27, "")</f>
-        <v>1.0721641791044776E-3</v>
+        <v>8.9236024844720489E-4</v>
       </c>
       <c r="AH27" s="12">
         <f>IFERROR(('overall-new'!AH27-'overall-new'!AG27)/'overall-new'!$C27, "")</f>
-        <v>1.8037313432835828E-3</v>
+        <v>1.5012422360248454E-3</v>
       </c>
       <c r="AI27" s="12">
         <f>IFERROR(('overall-new'!AI27-'overall-new'!AH27)/'overall-new'!$C27, "")</f>
-        <v>1.6052238805970058E-4</v>
+        <v>1.3360248447204893E-4</v>
       </c>
       <c r="AJ27" s="12">
         <f>IFERROR(('overall-new'!AJ27-'overall-new'!AI27)/'overall-new'!$C27, "")</f>
-        <v>-3.7537313432835874E-4</v>
+        <v>-3.1242236024844763E-4</v>
       </c>
       <c r="AK27" s="12">
         <f>IFERROR(('overall-new'!AK27-'overall-new'!AJ27)/'overall-new'!$C27, "")</f>
-        <v>-3.7785820895522384E-3</v>
+        <v>-3.1449068322981361E-3</v>
       </c>
       <c r="AL27" s="12">
         <f>IFERROR(('overall-new'!AL27-'overall-new'!AK27)/'overall-new'!$C27, "")</f>
-        <v>1.6732835820895524E-3</v>
+        <v>1.3926708074534163E-3</v>
       </c>
       <c r="AM27" s="12">
         <f>IFERROR(('overall-new'!AM27-'overall-new'!AL27)/'overall-new'!$C27, "")</f>
-        <v>8.7626865671641804E-4</v>
+        <v>7.2931677018633553E-4</v>
       </c>
       <c r="AN27" s="12">
         <f>IFERROR(('overall-new'!AN27-'overall-new'!AM27)/'overall-new'!$C27, "")</f>
-        <v>-4.2485074626865717E-4</v>
+        <v>-3.536024844720501E-4</v>
       </c>
       <c r="AO27" s="12">
         <f>IFERROR(('overall-new'!AO27-'overall-new'!AN27)/'overall-new'!$C27, "")</f>
-        <v>2.795000000000001E-3</v>
+        <v>2.3262732919254667E-3</v>
       </c>
       <c r="AP27" s="12">
         <f>IFERROR(('overall-new'!AP27-'overall-new'!AO27)/'overall-new'!$C27, "")</f>
-        <v>1.6265671641791039E-3</v>
+        <v>1.3537888198757759E-3</v>
       </c>
       <c r="AQ27" s="12">
         <f>IFERROR(('overall-new'!AQ27-'overall-new'!AP27)/'overall-new'!$C27, "")</f>
-        <v>6.0104477611940183E-4</v>
+        <v>5.0024844720496806E-4</v>
+      </c>
+      <c r="AR27" s="12">
+        <f>IFERROR(('overall-new'!AR27-'overall-new'!AQ27)/'overall-new'!$C27, "")</f>
+        <v>3.0507453416149075E-3</v>
+      </c>
+      <c r="AS27" s="12">
+        <f>IFERROR(('overall-new'!AS27-'overall-new'!AR27)/'overall-new'!$C27, "")</f>
+        <v>2.634099378881987E-3</v>
+      </c>
+      <c r="AT27" s="12">
+        <f>IFERROR(('overall-new'!AT27-'overall-new'!AS27)/'overall-new'!$C27, "")</f>
+        <v>1.7831677018633563E-3</v>
+      </c>
+      <c r="AU27" s="12">
+        <f>IFERROR(('overall-new'!AU27-'overall-new'!AT27)/'overall-new'!$C27, "")</f>
+        <v>2.0720496894409903E-3</v>
+      </c>
+      <c r="AV27" s="12">
+        <f>IFERROR(('overall-new'!AV27-'overall-new'!AU27)/'overall-new'!$C27, "")</f>
+        <v>-9.965217391304322E-4</v>
+      </c>
+      <c r="AW27" s="12">
+        <f>IFERROR(('overall-new'!AW27-'overall-new'!AV27)/'overall-new'!$C27, "")</f>
+        <v>7.6397515527923194E-6</v>
+      </c>
+      <c r="AX27" s="12">
+        <f>IFERROR(('overall-new'!AX27-'overall-new'!AW27)/'overall-new'!$C27, "")</f>
+        <v>2.6756521739130477E-3</v>
+      </c>
+      <c r="AY27" s="12">
+        <f>IFERROR(('overall-new'!AY27-'overall-new'!AX27)/'overall-new'!$C27, "")</f>
+        <v>1.2371428571428561E-3</v>
       </c>
     </row>
-    <row r="28" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C28">
         <f>'overall-new'!C28</f>
@@ -8412,17 +9686,49 @@
         <f>IFERROR(('overall-new'!AQ28-'overall-new'!AP28)/'overall-new'!$C28, "")</f>
         <v/>
       </c>
+      <c r="AR28" s="12" t="str">
+        <f>IFERROR(('overall-new'!AR28-'overall-new'!AQ28)/'overall-new'!$C28, "")</f>
+        <v/>
+      </c>
+      <c r="AS28" s="12" t="str">
+        <f>IFERROR(('overall-new'!AS28-'overall-new'!AR28)/'overall-new'!$C28, "")</f>
+        <v/>
+      </c>
+      <c r="AT28" s="12" t="str">
+        <f>IFERROR(('overall-new'!AT28-'overall-new'!AS28)/'overall-new'!$C28, "")</f>
+        <v/>
+      </c>
+      <c r="AU28" s="12" t="str">
+        <f>IFERROR(('overall-new'!AU28-'overall-new'!AT28)/'overall-new'!$C28, "")</f>
+        <v/>
+      </c>
+      <c r="AV28" s="12" t="str">
+        <f>IFERROR(('overall-new'!AV28-'overall-new'!AU28)/'overall-new'!$C28, "")</f>
+        <v/>
+      </c>
+      <c r="AW28" s="12" t="str">
+        <f>IFERROR(('overall-new'!AW28-'overall-new'!AV28)/'overall-new'!$C28, "")</f>
+        <v/>
+      </c>
+      <c r="AX28" s="12" t="str">
+        <f>IFERROR(('overall-new'!AX28-'overall-new'!AW28)/'overall-new'!$C28, "")</f>
+        <v/>
+      </c>
+      <c r="AY28" s="12" t="str">
+        <f>IFERROR(('overall-new'!AY28-'overall-new'!AX28)/'overall-new'!$C28, "")</f>
+        <v/>
+      </c>
     </row>
-    <row r="29" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B29" t="s">
-        <v>74</v>
+        <v>109</v>
       </c>
       <c r="C29">
         <f>'overall-new'!C29</f>
-        <v>35000</v>
+        <v>36800</v>
       </c>
       <c r="D29" s="12"/>
       <c r="E29" s="12">
@@ -8531,64 +9837,96 @@
       </c>
       <c r="AE29" s="12">
         <f>IFERROR(('overall-new'!AE29-'overall-new'!AD29)/'overall-new'!$C29, "")</f>
-        <v>-4.0571428571428571E-5</v>
+        <v>-3.8586956521739127E-5</v>
       </c>
       <c r="AF29" s="12">
         <f>IFERROR(('overall-new'!AF29-'overall-new'!AE29)/'overall-new'!$C29, "")</f>
-        <v>4.2857142857142829E-6</v>
+        <v>4.0760869565217371E-6</v>
       </c>
       <c r="AG29" s="12">
         <f>IFERROR(('overall-new'!AG29-'overall-new'!AF29)/'overall-new'!$C29, "")</f>
-        <v>-2.0600000000000002E-4</v>
+        <v>-1.9592391304347828E-4</v>
       </c>
       <c r="AH29" s="12">
         <f>IFERROR(('overall-new'!AH29-'overall-new'!AG29)/'overall-new'!$C29, "")</f>
-        <v>7.5828571428571427E-4</v>
+        <v>7.2119565217391307E-4</v>
       </c>
       <c r="AI29" s="12">
         <f>IFERROR(('overall-new'!AI29-'overall-new'!AH29)/'overall-new'!$C29, "")</f>
-        <v>-2.2285714285714216E-5</v>
+        <v>-2.1195652173912977E-5</v>
       </c>
       <c r="AJ29" s="12">
         <f>IFERROR(('overall-new'!AJ29-'overall-new'!AI29)/'overall-new'!$C29, "")</f>
-        <v>-2.5314285714285716E-4</v>
+        <v>-2.4076086956521743E-4</v>
       </c>
       <c r="AK29" s="12">
         <f>IFERROR(('overall-new'!AK29-'overall-new'!AJ29)/'overall-new'!$C29, "")</f>
-        <v>-1.974285714285714E-3</v>
+        <v>-1.8777173913043477E-3</v>
       </c>
       <c r="AL29" s="12">
         <f>IFERROR(('overall-new'!AL29-'overall-new'!AK29)/'overall-new'!$C29, "")</f>
-        <v>2.0251428571428569E-3</v>
+        <v>1.926086956521739E-3</v>
       </c>
       <c r="AM29" s="12">
         <f>IFERROR(('overall-new'!AM29-'overall-new'!AL29)/'overall-new'!$C29, "")</f>
-        <v>2.2805714285714282E-3</v>
+        <v>2.1690217391304345E-3</v>
       </c>
       <c r="AN29" s="12">
         <f>IFERROR(('overall-new'!AN29-'overall-new'!AM29)/'overall-new'!$C29, "")</f>
-        <v>-5.3428571428571152E-5</v>
+        <v>-5.0815217391304082E-5</v>
       </c>
       <c r="AO29" s="12">
         <f>IFERROR(('overall-new'!AO29-'overall-new'!AN29)/'overall-new'!$C29, "")</f>
-        <v>6.9457142857142818E-4</v>
+        <v>6.6059782608695618E-4</v>
       </c>
       <c r="AP29" s="12">
         <f>IFERROR(('overall-new'!AP29-'overall-new'!AO29)/'overall-new'!$C29, "")</f>
-        <v>1.2157142857142857E-3</v>
+        <v>1.1562499999999999E-3</v>
       </c>
       <c r="AQ29" s="12">
         <f>IFERROR(('overall-new'!AQ29-'overall-new'!AP29)/'overall-new'!$C29, "")</f>
-        <v>3.8399999999999996E-4</v>
+        <v>3.6521739130434774E-4</v>
+      </c>
+      <c r="AR29" s="12">
+        <f>IFERROR(('overall-new'!AR29-'overall-new'!AQ29)/'overall-new'!$C29, "")</f>
+        <v>1.5125000000000006E-3</v>
+      </c>
+      <c r="AS29" s="12">
+        <f>IFERROR(('overall-new'!AS29-'overall-new'!AR29)/'overall-new'!$C29, "")</f>
+        <v>2.491847826086953E-4</v>
+      </c>
+      <c r="AT29" s="12">
+        <f>IFERROR(('overall-new'!AT29-'overall-new'!AS29)/'overall-new'!$C29, "")</f>
+        <v>8.3641304347826086E-4</v>
+      </c>
+      <c r="AU29" s="12">
+        <f>IFERROR(('overall-new'!AU29-'overall-new'!AT29)/'overall-new'!$C29, "")</f>
+        <v>2.1929347826086937E-4</v>
+      </c>
+      <c r="AV29" s="12">
+        <f>IFERROR(('overall-new'!AV29-'overall-new'!AU29)/'overall-new'!$C29, "")</f>
+        <v>-7.6766304347826084E-4</v>
+      </c>
+      <c r="AW29" s="12">
+        <f>IFERROR(('overall-new'!AW29-'overall-new'!AV29)/'overall-new'!$C29, "")</f>
+        <v>6.5788043478260815E-4</v>
+      </c>
+      <c r="AX29" s="12">
+        <f>IFERROR(('overall-new'!AX29-'overall-new'!AW29)/'overall-new'!$C29, "")</f>
+        <v>5.4891304347827139E-5</v>
+      </c>
+      <c r="AY29" s="12">
+        <f>IFERROR(('overall-new'!AY29-'overall-new'!AX29)/'overall-new'!$C29, "")</f>
+        <v>-5.4809782608695697E-4</v>
       </c>
     </row>
-    <row r="30" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:51" x14ac:dyDescent="0.3">
       <c r="B30" t="s">
-        <v>75</v>
+        <v>104</v>
       </c>
       <c r="C30">
         <f>'overall-new'!C30</f>
-        <v>12600</v>
+        <v>20000</v>
       </c>
       <c r="D30" s="12"/>
       <c r="E30" s="12">
@@ -8705,52 +10043,84 @@
       </c>
       <c r="AG30" s="12">
         <f>IFERROR(('overall-new'!AG30-'overall-new'!AF30)/'overall-new'!$C30, "")</f>
-        <v>7.6984126984126983E-5</v>
+        <v>4.85E-5</v>
       </c>
       <c r="AH30" s="12">
         <f>IFERROR(('overall-new'!AH30-'overall-new'!AG30)/'overall-new'!$C30, "")</f>
-        <v>2.1349206349206352E-4</v>
+        <v>1.3450000000000002E-4</v>
       </c>
       <c r="AI30" s="12">
         <f>IFERROR(('overall-new'!AI30-'overall-new'!AH30)/'overall-new'!$C30, "")</f>
-        <v>-2.5396825396825421E-5</v>
+        <v>-1.6000000000000013E-5</v>
       </c>
       <c r="AJ30" s="12">
         <f>IFERROR(('overall-new'!AJ30-'overall-new'!AI30)/'overall-new'!$C30, "")</f>
-        <v>-9.9206349206349206E-5</v>
+        <v>-6.2500000000000001E-5</v>
       </c>
       <c r="AK30" s="12">
         <f>IFERROR(('overall-new'!AK30-'overall-new'!AJ30)/'overall-new'!$C30, "")</f>
-        <v>-1.061111111111111E-3</v>
+        <v>-6.6849999999999993E-4</v>
       </c>
       <c r="AL30" s="12">
         <f>IFERROR(('overall-new'!AL30-'overall-new'!AK30)/'overall-new'!$C30, "")</f>
-        <v>1.219047619047619E-3</v>
+        <v>7.6800000000000002E-4</v>
       </c>
       <c r="AM30" s="12">
         <f>IFERROR(('overall-new'!AM30-'overall-new'!AL30)/'overall-new'!$C30, "")</f>
-        <v>1.2944444444444446E-3</v>
+        <v>8.1550000000000014E-4</v>
       </c>
       <c r="AN30" s="12">
         <f>IFERROR(('overall-new'!AN30-'overall-new'!AM30)/'overall-new'!$C30, "")</f>
-        <v>-9.9206349206349206E-5</v>
+        <v>-6.2500000000000001E-5</v>
       </c>
       <c r="AO30" s="12">
         <f>IFERROR(('overall-new'!AO30-'overall-new'!AN30)/'overall-new'!$C30, "")</f>
-        <v>7.341269841269841E-4</v>
+        <v>4.6250000000000002E-4</v>
       </c>
       <c r="AP30" s="12">
         <f>IFERROR(('overall-new'!AP30-'overall-new'!AO30)/'overall-new'!$C30, "")</f>
-        <v>1.0484126984126984E-3</v>
+        <v>6.6050000000000006E-4</v>
       </c>
       <c r="AQ30" s="12">
         <f>IFERROR(('overall-new'!AQ30-'overall-new'!AP30)/'overall-new'!$C30, "")</f>
-        <v>4.5555555555555573E-4</v>
+        <v>2.8700000000000009E-4</v>
+      </c>
+      <c r="AR30" s="12">
+        <f>IFERROR(('overall-new'!AR30-'overall-new'!AQ30)/'overall-new'!$C30, "")</f>
+        <v>1.5034999999999996E-3</v>
+      </c>
+      <c r="AS30" s="12">
+        <f>IFERROR(('overall-new'!AS30-'overall-new'!AR30)/'overall-new'!$C30, "")</f>
+        <v>4.5000000000000287E-5</v>
+      </c>
+      <c r="AT30" s="12">
+        <f>IFERROR(('overall-new'!AT30-'overall-new'!AS30)/'overall-new'!$C30, "")</f>
+        <v>7.7950000000000014E-4</v>
+      </c>
+      <c r="AU30" s="12">
+        <f>IFERROR(('overall-new'!AU30-'overall-new'!AT30)/'overall-new'!$C30, "")</f>
+        <v>-1.4450000000000002E-4</v>
+      </c>
+      <c r="AV30" s="12">
+        <f>IFERROR(('overall-new'!AV30-'overall-new'!AU30)/'overall-new'!$C30, "")</f>
+        <v>-2.1080000000000001E-3</v>
+      </c>
+      <c r="AW30" s="12">
+        <f>IFERROR(('overall-new'!AW30-'overall-new'!AV30)/'overall-new'!$C30, "")</f>
+        <v>1.3785E-3</v>
+      </c>
+      <c r="AX30" s="12">
+        <f>IFERROR(('overall-new'!AX30-'overall-new'!AW30)/'overall-new'!$C30, "")</f>
+        <v>-1.0845000000000002E-3</v>
+      </c>
+      <c r="AY30" s="12">
+        <f>IFERROR(('overall-new'!AY30-'overall-new'!AX30)/'overall-new'!$C30, "")</f>
+        <v>-1.5514999999999999E-3</v>
       </c>
     </row>
-    <row r="31" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:51" x14ac:dyDescent="0.3">
       <c r="B31" t="s">
-        <v>76</v>
+        <v>110</v>
       </c>
       <c r="C31">
         <f>'overall-new'!C31</f>
@@ -8758,95 +10128,95 @@
       </c>
       <c r="D31" s="12"/>
       <c r="E31" s="12">
-        <f>('overall-new'!E41-'overall-new'!D41)/'overall-new'!$C41</f>
+        <f>('overall-new'!E43-'overall-new'!D43)/'overall-new'!$C43</f>
         <v>0</v>
       </c>
       <c r="F31" s="12">
-        <f>('overall-new'!F41-'overall-new'!E41)/'overall-new'!$C41</f>
+        <f>('overall-new'!F43-'overall-new'!E43)/'overall-new'!$C43</f>
         <v>0</v>
       </c>
       <c r="G31" s="12">
-        <f>('overall-new'!G41-'overall-new'!F41)/'overall-new'!$C41</f>
+        <f>('overall-new'!G43-'overall-new'!F43)/'overall-new'!$C43</f>
         <v>0</v>
       </c>
       <c r="H31" s="12">
-        <f>('overall-new'!H41-'overall-new'!G41)/'overall-new'!$C41</f>
+        <f>('overall-new'!H43-'overall-new'!G43)/'overall-new'!$C43</f>
         <v>0</v>
       </c>
       <c r="I31" s="12">
-        <f>('overall-new'!I41-'overall-new'!H41)/'overall-new'!$C41</f>
+        <f>('overall-new'!I43-'overall-new'!H43)/'overall-new'!$C43</f>
         <v>0</v>
       </c>
       <c r="J31" s="12">
-        <f>('overall-new'!J41-'overall-new'!I41)/'overall-new'!$C41</f>
+        <f>('overall-new'!J43-'overall-new'!I43)/'overall-new'!$C43</f>
         <v>0</v>
       </c>
       <c r="K31" s="12">
-        <f>('overall-new'!K41-'overall-new'!J41)/'overall-new'!$C41</f>
+        <f>('overall-new'!K43-'overall-new'!J43)/'overall-new'!$C43</f>
         <v>0</v>
       </c>
       <c r="L31" s="12">
-        <f>('overall-new'!L41-'overall-new'!K41)/'overall-new'!$C41</f>
+        <f>('overall-new'!L43-'overall-new'!K43)/'overall-new'!$C43</f>
         <v>0</v>
       </c>
       <c r="M31" s="12">
-        <f>('overall-new'!M41-'overall-new'!L41)/'overall-new'!$C41</f>
+        <f>('overall-new'!M43-'overall-new'!L43)/'overall-new'!$C43</f>
         <v>0</v>
       </c>
       <c r="N31" s="12">
-        <f>('overall-new'!N41-'overall-new'!M41)/'overall-new'!$C41</f>
+        <f>('overall-new'!N43-'overall-new'!M43)/'overall-new'!$C43</f>
         <v>0</v>
       </c>
       <c r="O31" s="12">
-        <f>('overall-new'!O41-'overall-new'!N41)/'overall-new'!$C41</f>
+        <f>('overall-new'!O43-'overall-new'!N43)/'overall-new'!$C43</f>
         <v>0</v>
       </c>
       <c r="P31" s="12">
-        <f>('overall-new'!P41-'overall-new'!O41)/'overall-new'!$C41</f>
+        <f>('overall-new'!P43-'overall-new'!O43)/'overall-new'!$C43</f>
         <v>0</v>
       </c>
       <c r="Q31" s="12">
-        <f>('overall-new'!Q41-'overall-new'!P41)/'overall-new'!$C41</f>
+        <f>('overall-new'!Q43-'overall-new'!P43)/'overall-new'!$C43</f>
         <v>0</v>
       </c>
       <c r="R31" s="12">
-        <f>('overall-new'!R41-'overall-new'!Q41)/'overall-new'!$C41</f>
+        <f>('overall-new'!R43-'overall-new'!Q43)/'overall-new'!$C43</f>
         <v>0</v>
       </c>
       <c r="S31" s="12">
-        <f>('overall-new'!S41-'overall-new'!R41)/'overall-new'!$C41</f>
+        <f>('overall-new'!S43-'overall-new'!R43)/'overall-new'!$C43</f>
         <v>0</v>
       </c>
       <c r="T31" s="12">
-        <f>('overall-new'!T41-'overall-new'!S41)/'overall-new'!$C41</f>
+        <f>('overall-new'!T43-'overall-new'!S43)/'overall-new'!$C43</f>
         <v>0</v>
       </c>
       <c r="U31" s="12">
-        <f>('overall-new'!U41-'overall-new'!T41)/'overall-new'!$C41</f>
+        <f>('overall-new'!U43-'overall-new'!T43)/'overall-new'!$C43</f>
         <v>0</v>
       </c>
       <c r="V31" s="12">
-        <f>('overall-new'!V41-'overall-new'!U41)/'overall-new'!$C41</f>
+        <f>('overall-new'!V43-'overall-new'!U43)/'overall-new'!$C43</f>
         <v>0</v>
       </c>
       <c r="W31" s="12">
-        <f>('overall-new'!W41-'overall-new'!V41)/'overall-new'!$C41</f>
+        <f>('overall-new'!W43-'overall-new'!V43)/'overall-new'!$C43</f>
         <v>0</v>
       </c>
       <c r="X31" s="12">
-        <f>('overall-new'!X41-'overall-new'!W41)/'overall-new'!$C41</f>
+        <f>('overall-new'!X43-'overall-new'!W43)/'overall-new'!$C43</f>
         <v>0</v>
       </c>
       <c r="Y31" s="12">
-        <f>('overall-new'!Y41-'overall-new'!X41)/'overall-new'!$C41</f>
+        <f>('overall-new'!Y43-'overall-new'!X43)/'overall-new'!$C43</f>
         <v>0</v>
       </c>
       <c r="Z31" s="12">
-        <f>('overall-new'!Z41-'overall-new'!Y41)/'overall-new'!$C41</f>
+        <f>('overall-new'!Z43-'overall-new'!Y43)/'overall-new'!$C43</f>
         <v>0</v>
       </c>
       <c r="AA31" s="12">
-        <f>('overall-new'!AA42-'overall-new'!Z41)/'overall-new'!$C41</f>
+        <f>('overall-new'!AA44-'overall-new'!Z43)/'overall-new'!$C43</f>
         <v>0</v>
       </c>
       <c r="AB31" s="12">
@@ -8913,10 +10283,42 @@
         <f>IFERROR(('overall-new'!AQ31-'overall-new'!AP31)/'overall-new'!$C31, "")</f>
         <v>3.1099999999999997E-4</v>
       </c>
+      <c r="AR31" s="12">
+        <f>IFERROR(('overall-new'!AR31-'overall-new'!AQ31)/'overall-new'!$C31, "")</f>
+        <v>2.6419999999999994E-3</v>
+      </c>
+      <c r="AS31" s="12">
+        <f>IFERROR(('overall-new'!AS31-'overall-new'!AR31)/'overall-new'!$C31, "")</f>
+        <v>2.8760000000000005E-3</v>
+      </c>
+      <c r="AT31" s="12">
+        <f>IFERROR(('overall-new'!AT31-'overall-new'!AS31)/'overall-new'!$C31, "")</f>
+        <v>1.7099999999999995E-3</v>
+      </c>
+      <c r="AU31" s="12">
+        <f>IFERROR(('overall-new'!AU31-'overall-new'!AT31)/'overall-new'!$C31, "")</f>
+        <v>1.9430000000000007E-3</v>
+      </c>
+      <c r="AV31" s="12">
+        <f>IFERROR(('overall-new'!AV31-'overall-new'!AU31)/'overall-new'!$C31, "")</f>
+        <v>4.6599999999999967E-4</v>
+      </c>
+      <c r="AW31" s="12">
+        <f>IFERROR(('overall-new'!AW31-'overall-new'!AV31)/'overall-new'!$C31, "")</f>
+        <v>2.3300000000000125E-4</v>
+      </c>
+      <c r="AX31" s="12">
+        <f>IFERROR(('overall-new'!AX31-'overall-new'!AW31)/'overall-new'!$C31, "")</f>
+        <v>1.6319999999999993E-3</v>
+      </c>
+      <c r="AY31" s="12">
+        <f>IFERROR(('overall-new'!AY31-'overall-new'!AX31)/'overall-new'!$C31, "")</f>
+        <v>2.329999999999984E-4</v>
+      </c>
     </row>
-    <row r="32" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:51" x14ac:dyDescent="0.3">
       <c r="B32" t="s">
-        <v>77</v>
+        <v>113</v>
       </c>
       <c r="C32">
         <f>'overall-new'!C32</f>
@@ -9010,10 +10412,42 @@
         <f>IFERROR(('overall-new'!AQ32-'overall-new'!AP32)/'overall-new'!$C32, "")</f>
         <v>1.3620000000000004E-3</v>
       </c>
+      <c r="AR32" s="12">
+        <f>IFERROR(('overall-new'!AR32-'overall-new'!AQ32)/'overall-new'!$C32, "")</f>
+        <v>4.7659999999999994E-3</v>
+      </c>
+      <c r="AS32" s="12">
+        <f>IFERROR(('overall-new'!AS32-'overall-new'!AR32)/'overall-new'!$C32, "")</f>
+        <v>6.8000000000000113E-4</v>
+      </c>
+      <c r="AT32" s="12">
+        <f>IFERROR(('overall-new'!AT32-'overall-new'!AS32)/'overall-new'!$C32, "")</f>
+        <v>2.0419999999999987E-3</v>
+      </c>
+      <c r="AU32" s="12">
+        <f>IFERROR(('overall-new'!AU32-'overall-new'!AT32)/'overall-new'!$C32, "")</f>
+        <v>6.8199999999999934E-4</v>
+      </c>
+      <c r="AV32" s="12">
+        <f>IFERROR(('overall-new'!AV32-'overall-new'!AU32)/'overall-new'!$C32, "")</f>
+        <v>-2.0439999999999998E-3</v>
+      </c>
+      <c r="AW32" s="12">
+        <f>IFERROR(('overall-new'!AW32-'overall-new'!AV32)/'overall-new'!$C32, "")</f>
+        <v>6.8199999999999934E-4</v>
+      </c>
+      <c r="AX32" s="12">
+        <f>IFERROR(('overall-new'!AX32-'overall-new'!AW32)/'overall-new'!$C32, "")</f>
+        <v>6.8000000000000113E-4</v>
+      </c>
+      <c r="AY32" s="12">
+        <f>IFERROR(('overall-new'!AY32-'overall-new'!AX32)/'overall-new'!$C32, "")</f>
+        <v>-1.3620000000000004E-3</v>
+      </c>
     </row>
-    <row r="33" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:51" x14ac:dyDescent="0.3">
       <c r="B33" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="C33">
         <f>'overall-new'!C33</f>
@@ -9083,14 +10517,46 @@
         <f>IFERROR(('overall-new'!AQ33-'overall-new'!AP33)/'overall-new'!$C33, "")</f>
         <v>4.300000000000001E-4</v>
       </c>
+      <c r="AR33" s="12">
+        <f>IFERROR(('overall-new'!AR33-'overall-new'!AQ33)/'overall-new'!$C33, "")</f>
+        <v>5.0580000000000009E-3</v>
+      </c>
+      <c r="AS33" s="12">
+        <f>IFERROR(('overall-new'!AS33-'overall-new'!AR33)/'overall-new'!$C33, "")</f>
+        <v>1.9739999999999996E-3</v>
+      </c>
+      <c r="AT33" s="12">
+        <f>IFERROR(('overall-new'!AT33-'overall-new'!AS33)/'overall-new'!$C33, "")</f>
+        <v>1.5420000000000002E-3</v>
+      </c>
+      <c r="AU33" s="12">
+        <f>IFERROR(('overall-new'!AU33-'overall-new'!AT33)/'overall-new'!$C33, "")</f>
+        <v>2.5799999999999982E-4</v>
+      </c>
+      <c r="AV33" s="12">
+        <f>IFERROR(('overall-new'!AV33-'overall-new'!AU33)/'overall-new'!$C33, "")</f>
+        <v>-1.8859999999999999E-3</v>
+      </c>
+      <c r="AW33" s="12">
+        <f>IFERROR(('overall-new'!AW33-'overall-new'!AV33)/'overall-new'!$C33, "")</f>
+        <v>1.114E-3</v>
+      </c>
+      <c r="AX33" s="12">
+        <f>IFERROR(('overall-new'!AX33-'overall-new'!AW33)/'overall-new'!$C33, "")</f>
+        <v>1.3999999999999915E-4</v>
+      </c>
+      <c r="AY33" s="12">
+        <f>IFERROR(('overall-new'!AY33-'overall-new'!AX33)/'overall-new'!$C33, "")</f>
+        <v>-5.6799999999999928E-4</v>
+      </c>
     </row>
-    <row r="34" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:51" x14ac:dyDescent="0.3">
       <c r="B34" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C34">
         <f>'overall-new'!C34</f>
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="AB34" s="12">
         <f>IFERROR(('overall-new'!AB34-'overall-new'!AA34)/'overall-new'!$C34, "")</f>
@@ -9098,145 +10564,209 @@
       </c>
       <c r="AC34" s="12">
         <f>IFERROR(('overall-new'!AC34-'overall-new'!AB34)/'overall-new'!$C34, "")</f>
-        <v>-1.85E-4</v>
+        <v>-1.2333333333333334E-4</v>
       </c>
       <c r="AD34" s="12">
         <f>IFERROR(('overall-new'!AD34-'overall-new'!AC34)/'overall-new'!$C34, "")</f>
-        <v>-1.5500000000000003E-4</v>
+        <v>-1.0333333333333336E-4</v>
       </c>
       <c r="AE34" s="12">
         <f>IFERROR(('overall-new'!AE34-'overall-new'!AD34)/'overall-new'!$C34, "")</f>
-        <v>-2.2000000000000003E-4</v>
+        <v>-1.4666666666666669E-4</v>
       </c>
       <c r="AF34" s="12">
         <f>IFERROR(('overall-new'!AF34-'overall-new'!AE34)/'overall-new'!$C34, "")</f>
-        <v>2.2500000000000076E-5</v>
+        <v>1.500000000000005E-5</v>
       </c>
       <c r="AG34" s="12">
         <f>IFERROR(('overall-new'!AG34-'overall-new'!AF34)/'overall-new'!$C34, "")</f>
-        <v>6.9999999999999999E-4</v>
+        <v>4.6666666666666666E-4</v>
       </c>
       <c r="AH34" s="12">
         <f>IFERROR(('overall-new'!AH34-'overall-new'!AG34)/'overall-new'!$C34, "")</f>
-        <v>1.1474999999999999E-3</v>
+        <v>7.6499999999999995E-4</v>
       </c>
       <c r="AI34" s="12">
         <f>IFERROR(('overall-new'!AI34-'overall-new'!AH34)/'overall-new'!$C34, "")</f>
-        <v>8.9999999999999857E-5</v>
+        <v>5.9999999999999907E-5</v>
       </c>
       <c r="AJ34" s="12">
         <f>IFERROR(('overall-new'!AJ34-'overall-new'!AI34)/'overall-new'!$C34, "")</f>
-        <v>-4.4249999999999991E-4</v>
+        <v>-2.9499999999999991E-4</v>
       </c>
       <c r="AK34" s="12">
         <f>IFERROR(('overall-new'!AK34-'overall-new'!AJ34)/'overall-new'!$C34, "")</f>
-        <v>-4.2374999999999999E-3</v>
+        <v>-2.8249999999999998E-3</v>
       </c>
       <c r="AL34" s="12">
         <f>IFERROR(('overall-new'!AL34-'overall-new'!AK34)/'overall-new'!$C34, "")</f>
-        <v>2.2074999999999994E-3</v>
+        <v>1.4716666666666665E-3</v>
       </c>
       <c r="AM34" s="12">
         <f>IFERROR(('overall-new'!AM34-'overall-new'!AL34)/'overall-new'!$C34, "")</f>
-        <v>3.9725000000000003E-3</v>
+        <v>2.6483333333333333E-3</v>
       </c>
       <c r="AN34" s="12">
         <f>IFERROR(('overall-new'!AN34-'overall-new'!AM34)/'overall-new'!$C34, "")</f>
-        <v>-4.3999999999999996E-4</v>
+        <v>-2.9333333333333327E-4</v>
       </c>
       <c r="AO34" s="12">
         <f>IFERROR(('overall-new'!AO34-'overall-new'!AN34)/'overall-new'!$C34, "")</f>
-        <v>1.2349999999999998E-3</v>
+        <v>8.2333333333333325E-4</v>
       </c>
       <c r="AP34" s="12">
         <f>IFERROR(('overall-new'!AP34-'overall-new'!AO34)/'overall-new'!$C34, "")</f>
-        <v>2.2950000000000002E-3</v>
+        <v>1.5300000000000003E-3</v>
       </c>
       <c r="AQ34" s="12">
         <f>IFERROR(('overall-new'!AQ34-'overall-new'!AP34)/'overall-new'!$C34, "")</f>
-        <v>8.8249999999999939E-4</v>
+        <v>5.8833333333333296E-4</v>
+      </c>
+      <c r="AR34" s="12">
+        <f>IFERROR(('overall-new'!AR34-'overall-new'!AQ34)/'overall-new'!$C34, "")</f>
+        <v>2.1200000000000004E-3</v>
+      </c>
+      <c r="AS34" s="12">
+        <f>IFERROR(('overall-new'!AS34-'overall-new'!AR34)/'overall-new'!$C34, "")</f>
+        <v>1.7666666666666704E-4</v>
+      </c>
+      <c r="AT34" s="12">
+        <f>IFERROR(('overall-new'!AT34-'overall-new'!AS34)/'overall-new'!$C34, "")</f>
+        <v>9.4166666666666639E-4</v>
+      </c>
+      <c r="AU34" s="12">
+        <f>IFERROR(('overall-new'!AU34-'overall-new'!AT34)/'overall-new'!$C34, "")</f>
+        <v>4.5666666666666582E-4</v>
+      </c>
+      <c r="AV34" s="12">
+        <f>IFERROR(('overall-new'!AV34-'overall-new'!AU34)/'overall-new'!$C34, "")</f>
+        <v>-1.6716666666666657E-3</v>
+      </c>
+      <c r="AW34" s="12">
+        <f>IFERROR(('overall-new'!AW34-'overall-new'!AV34)/'overall-new'!$C34, "")</f>
+        <v>1.1433333333333332E-3</v>
+      </c>
+      <c r="AX34" s="12">
+        <f>IFERROR(('overall-new'!AX34-'overall-new'!AW34)/'overall-new'!$C34, "")</f>
+        <v>2.6333333333333303E-4</v>
+      </c>
+      <c r="AY34" s="12">
+        <f>IFERROR(('overall-new'!AY34-'overall-new'!AX34)/'overall-new'!$C34, "")</f>
+        <v>-1.3183333333333339E-3</v>
       </c>
     </row>
-    <row r="35" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:51" x14ac:dyDescent="0.3">
       <c r="B35" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="C35">
         <f>'overall-new'!C35</f>
-        <v>3100</v>
+        <v>5500</v>
       </c>
       <c r="AB35" s="12">
-        <f>IFERROR(('overall-new'!AB41-'overall-new'!AA41)/'overall-new'!$C41, "")</f>
+        <f>IFERROR(('overall-new'!AB43-'overall-new'!AA43)/'overall-new'!$C43, "")</f>
         <v>0</v>
       </c>
       <c r="AC35" s="12">
-        <f>IFERROR(('overall-new'!AC41-'overall-new'!AB41)/'overall-new'!$C41, "")</f>
+        <f>IFERROR(('overall-new'!AC43-'overall-new'!AB43)/'overall-new'!$C43, "")</f>
         <v>0</v>
       </c>
       <c r="AD35" s="12">
-        <f>IFERROR(('overall-new'!AD41-'overall-new'!AC41)/'overall-new'!$C41, "")</f>
-        <v>-1.6852540272614624E-5</v>
+        <f>IFERROR(('overall-new'!AD43-'overall-new'!AC43)/'overall-new'!$C43, "")</f>
+        <v>-1.3425468904244818E-5</v>
       </c>
       <c r="AE35" s="12">
-        <f>IFERROR(('overall-new'!AE41-'overall-new'!AD41)/'overall-new'!$C41, "")</f>
-        <v>-2.8500619578686491E-5</v>
+        <f>IFERROR(('overall-new'!AE43-'overall-new'!AD43)/'overall-new'!$C43, "")</f>
+        <v>-2.2704837117472852E-5</v>
       </c>
       <c r="AF35" s="12">
-        <f>IFERROR(('overall-new'!AF41-'overall-new'!AE41)/'overall-new'!$C41, "")</f>
-        <v>2.9739776951672889E-6</v>
-      </c>
-      <c r="AG35" s="12">
+        <f>IFERROR(('overall-new'!AF43-'overall-new'!AE43)/'overall-new'!$C43, "")</f>
+        <v>2.3692003948667346E-6</v>
+      </c>
+      <c r="AG35" s="12" t="str">
         <f>IFERROR(('overall-new'!AG36-'overall-new'!AF36)/'overall-new'!$C36, "")</f>
-        <v>1.085E-3</v>
-      </c>
-      <c r="AH35" s="12">
+        <v/>
+      </c>
+      <c r="AH35" s="12" t="str">
         <f>IFERROR(('overall-new'!AH36-'overall-new'!AG36)/'overall-new'!$C36, "")</f>
-        <v>0</v>
-      </c>
-      <c r="AI35" s="12">
+        <v/>
+      </c>
+      <c r="AI35" s="12" t="str">
         <f>IFERROR(('overall-new'!AI36-'overall-new'!AH36)/'overall-new'!$C36, "")</f>
-        <v>-2.9500000000000001E-4</v>
+        <v/>
       </c>
       <c r="AJ35" s="12">
         <f>IFERROR(('overall-new'!AJ35-'overall-new'!AI35)/'overall-new'!$C35, "")</f>
-        <v>-8.3870967741935491E-5</v>
+        <v>-4.7272727272727275E-5</v>
       </c>
       <c r="AK35" s="12">
         <f>IFERROR(('overall-new'!AK35-'overall-new'!AJ35)/'overall-new'!$C35, "")</f>
-        <v>-9.4193548387096768E-4</v>
+        <v>-5.3090909090909089E-4</v>
       </c>
       <c r="AL35" s="12">
         <f>IFERROR(('overall-new'!AL35-'overall-new'!AK35)/'overall-new'!$C35, "")</f>
-        <v>1.2741935483870969E-3</v>
+        <v>7.1818181818181822E-4</v>
       </c>
       <c r="AM35" s="12">
         <f>IFERROR(('overall-new'!AM35-'overall-new'!AL35)/'overall-new'!$C35, "")</f>
-        <v>2.7935483870967742E-3</v>
+        <v>1.5745454545454546E-3</v>
       </c>
       <c r="AN35" s="12">
         <f>IFERROR(('overall-new'!AN35-'overall-new'!AM35)/'overall-new'!$C35, "")</f>
-        <v>-5.5483870967741925E-4</v>
+        <v>-3.1272727272727268E-4</v>
       </c>
       <c r="AO35" s="12">
         <f>IFERROR(('overall-new'!AO35-'overall-new'!AN35)/'overall-new'!$C35, "")</f>
-        <v>1.2806451612903224E-3</v>
+        <v>7.2181818181818176E-4</v>
       </c>
       <c r="AP35" s="12">
         <f>IFERROR(('overall-new'!AP35-'overall-new'!AO35)/'overall-new'!$C35, "")</f>
-        <v>1.3774193548387096E-3</v>
+        <v>7.7636363636363634E-4</v>
       </c>
       <c r="AQ35" s="12">
         <f>IFERROR(('overall-new'!AQ35-'overall-new'!AP35)/'overall-new'!$C35, "")</f>
-        <v>9.8709677419354914E-4</v>
+        <v>5.5636363636363674E-4</v>
+      </c>
+      <c r="AR35" s="12">
+        <f>IFERROR(('overall-new'!AR35-'overall-new'!AQ35)/'overall-new'!$C35, "")</f>
+        <v>3.1945454545454547E-3</v>
+      </c>
+      <c r="AS35" s="12">
+        <f>IFERROR(('overall-new'!AS35-'overall-new'!AR35)/'overall-new'!$C35, "")</f>
+        <v>-2.7999999999999987E-4</v>
+      </c>
+      <c r="AT35" s="12">
+        <f>IFERROR(('overall-new'!AT35-'overall-new'!AS35)/'overall-new'!$C35, "")</f>
+        <v>1.3490909090909081E-3</v>
+      </c>
+      <c r="AU35" s="12">
+        <f>IFERROR(('overall-new'!AU35-'overall-new'!AT35)/'overall-new'!$C35, "")</f>
+        <v>-6.0545454545454509E-4</v>
+      </c>
+      <c r="AV35" s="12">
+        <f>IFERROR(('overall-new'!AV35-'overall-new'!AU35)/'overall-new'!$C35, "")</f>
+        <v>-3.4072727272727271E-3</v>
+      </c>
+      <c r="AW35" s="12">
+        <f>IFERROR(('overall-new'!AW35-'overall-new'!AV35)/'overall-new'!$C35, "")</f>
+        <v>1.6363636363636363E-3</v>
+      </c>
+      <c r="AX35" s="12">
+        <f>IFERROR(('overall-new'!AX35-'overall-new'!AW35)/'overall-new'!$C35, "")</f>
+        <v>-5.6181818181818177E-4</v>
+      </c>
+      <c r="AY35" s="12">
+        <f>IFERROR(('overall-new'!AY35-'overall-new'!AX35)/'overall-new'!$C35, "")</f>
+        <v>-1.0836363636363639E-3</v>
       </c>
     </row>
-    <row r="36" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:51" x14ac:dyDescent="0.3">
       <c r="B36" t="s">
-        <v>105</v>
+        <v>76</v>
       </c>
       <c r="C36">
         <f>'overall-new'!C36</f>
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="AG36" s="12">
         <f>IFERROR(('overall-new'!AG37-'overall-new'!AF37)/'overall-new'!$C37, "")</f>
@@ -9250,58 +10780,90 @@
         <f>IFERROR(('overall-new'!AI37-'overall-new'!AH37)/'overall-new'!$C37, "")</f>
         <v>7.899999999999998E-4</v>
       </c>
-      <c r="AJ36" s="12">
+      <c r="AJ36" s="12" t="str">
         <f>IFERROR(('overall-new'!AJ36-'overall-new'!AI36)/'overall-new'!$C36, "")</f>
-        <v>-8.9500000000000007E-4</v>
-      </c>
-      <c r="AK36" s="12">
+        <v/>
+      </c>
+      <c r="AK36" s="12" t="str">
         <f>IFERROR(('overall-new'!AK36-'overall-new'!AJ36)/'overall-new'!$C36, "")</f>
-        <v>-4.0600000000000002E-3</v>
-      </c>
-      <c r="AL36" s="12">
+        <v/>
+      </c>
+      <c r="AL36" s="12" t="str">
         <f>IFERROR(('overall-new'!AL36-'overall-new'!AK36)/'overall-new'!$C36, "")</f>
-        <v>1.085E-3</v>
-      </c>
-      <c r="AM36" s="12">
+        <v/>
+      </c>
+      <c r="AM36" s="12" t="str">
         <f>IFERROR(('overall-new'!AM36-'overall-new'!AL36)/'overall-new'!$C36, "")</f>
-        <v>4.7600000000000003E-3</v>
-      </c>
-      <c r="AN36" s="12">
+        <v/>
+      </c>
+      <c r="AN36" s="12" t="str">
         <f>IFERROR(('overall-new'!AN36-'overall-new'!AM36)/'overall-new'!$C36, "")</f>
-        <v>1.95E-4</v>
-      </c>
-      <c r="AO36" s="12">
+        <v/>
+      </c>
+      <c r="AO36" s="12" t="str">
         <f>IFERROR(('overall-new'!AO36-'overall-new'!AN36)/'overall-new'!$C36, "")</f>
-        <v>1.1899999999999999E-3</v>
-      </c>
-      <c r="AP36" s="12">
+        <v/>
+      </c>
+      <c r="AP36" s="12" t="str">
         <f>IFERROR(('overall-new'!AP36-'overall-new'!AO36)/'overall-new'!$C36, "")</f>
-        <v>3.9500000000000022E-4</v>
-      </c>
-      <c r="AQ36" s="12">
+        <v/>
+      </c>
+      <c r="AQ36" s="12" t="str">
         <f>IFERROR(('overall-new'!AQ36-'overall-new'!AP36)/'overall-new'!$C36, "")</f>
-        <v>-1.9500000000000029E-4</v>
+        <v/>
+      </c>
+      <c r="AR36" s="12" t="str">
+        <f>IFERROR(('overall-new'!AR36-'overall-new'!AQ36)/'overall-new'!$C36, "")</f>
+        <v/>
+      </c>
+      <c r="AS36" s="12" t="str">
+        <f>IFERROR(('overall-new'!AS36-'overall-new'!AR36)/'overall-new'!$C36, "")</f>
+        <v/>
+      </c>
+      <c r="AT36" s="12" t="str">
+        <f>IFERROR(('overall-new'!AT36-'overall-new'!AS36)/'overall-new'!$C36, "")</f>
+        <v/>
+      </c>
+      <c r="AU36" s="12" t="str">
+        <f>IFERROR(('overall-new'!AU36-'overall-new'!AT36)/'overall-new'!$C36, "")</f>
+        <v/>
+      </c>
+      <c r="AV36" s="12" t="str">
+        <f>IFERROR(('overall-new'!AV36-'overall-new'!AU36)/'overall-new'!$C36, "")</f>
+        <v/>
+      </c>
+      <c r="AW36" s="12" t="str">
+        <f>IFERROR(('overall-new'!AW36-'overall-new'!AV36)/'overall-new'!$C36, "")</f>
+        <v/>
+      </c>
+      <c r="AX36" s="12" t="str">
+        <f>IFERROR(('overall-new'!AX36-'overall-new'!AW36)/'overall-new'!$C36, "")</f>
+        <v/>
+      </c>
+      <c r="AY36" s="12" t="str">
+        <f>IFERROR(('overall-new'!AY36-'overall-new'!AX36)/'overall-new'!$C36, "")</f>
+        <v/>
       </c>
     </row>
-    <row r="37" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:51" x14ac:dyDescent="0.3">
       <c r="B37" t="s">
-        <v>106</v>
+        <v>73</v>
       </c>
       <c r="C37">
         <f>'overall-new'!C37</f>
         <v>1000</v>
       </c>
       <c r="AG37" s="12">
-        <f>IFERROR(('overall-new'!AG41-'overall-new'!AF41)/'overall-new'!$C41, "")</f>
-        <v>-4.5600991325898388E-5</v>
+        <f>IFERROR(('overall-new'!AG43-'overall-new'!AF43)/'overall-new'!$C43, "")</f>
+        <v>-3.3267522211253703E-5</v>
       </c>
       <c r="AH37" s="12">
-        <f>IFERROR(('overall-new'!AH41-'overall-new'!AG41)/'overall-new'!$C41, "")</f>
-        <v>4.3494423791821561E-4</v>
+        <f>IFERROR(('overall-new'!AH43-'overall-new'!AG43)/'overall-new'!$C43, "")</f>
+        <v>3.4649555774925964E-4</v>
       </c>
       <c r="AI37" s="12">
-        <f>IFERROR(('overall-new'!AI41-'overall-new'!AH41)/'overall-new'!$C41, "")</f>
-        <v>-7.6827757125155012E-6</v>
+        <f>IFERROR(('overall-new'!AI43-'overall-new'!AH43)/'overall-new'!$C43, "")</f>
+        <v>-2.9615004935835278E-7</v>
       </c>
       <c r="AJ37" s="12">
         <f>IFERROR(('overall-new'!AJ37-'overall-new'!AI37)/'overall-new'!$C37, "")</f>
@@ -9335,44 +10897,108 @@
         <f>IFERROR(('overall-new'!AQ37-'overall-new'!AP37)/'overall-new'!$C37, "")</f>
         <v>7.9000000000000001E-4</v>
       </c>
+      <c r="AR37" s="12">
+        <f>IFERROR(('overall-new'!AR37-'overall-new'!AQ37)/'overall-new'!$C37, "")</f>
+        <v>1.669999999999999E-3</v>
+      </c>
+      <c r="AS37" s="12">
+        <f>IFERROR(('overall-new'!AS37-'overall-new'!AR37)/'overall-new'!$C37, "")</f>
+        <v>1.1400000000000006E-3</v>
+      </c>
+      <c r="AT37" s="12">
+        <f>IFERROR(('overall-new'!AT37-'overall-new'!AS37)/'overall-new'!$C37, "")</f>
+        <v>6.9999999999999934E-4</v>
+      </c>
+      <c r="AU37" s="12">
+        <f>IFERROR(('overall-new'!AU37-'overall-new'!AT37)/'overall-new'!$C37, "")</f>
+        <v>7.1400000000000022E-3</v>
+      </c>
+      <c r="AV37" s="12">
+        <f>IFERROR(('overall-new'!AV37-'overall-new'!AU37)/'overall-new'!$C37, "")</f>
+        <v>-1.0500000000000008E-3</v>
+      </c>
+      <c r="AW37" s="12">
+        <f>IFERROR(('overall-new'!AW37-'overall-new'!AV37)/'overall-new'!$C37, "")</f>
+        <v>-5.7499999999999999E-3</v>
+      </c>
+      <c r="AX37" s="12">
+        <f>IFERROR(('overall-new'!AX37-'overall-new'!AW37)/'overall-new'!$C37, "")</f>
+        <v>1.6210000000000002E-2</v>
+      </c>
+      <c r="AY37" s="12">
+        <f>IFERROR(('overall-new'!AY37-'overall-new'!AX37)/'overall-new'!$C37, "")</f>
+        <v>1.8299999999999983E-3</v>
+      </c>
     </row>
-    <row r="38" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:51" x14ac:dyDescent="0.3">
       <c r="B38" t="s">
-        <v>114</v>
+        <v>74</v>
       </c>
       <c r="C38">
         <f>'overall-new'!C38</f>
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AG38" s="12"/>
-      <c r="AL38" s="12">
+      <c r="AL38" s="12" t="str">
         <f>IFERROR(('overall-new'!AL38-'overall-new'!AK38)/'overall-new'!$C38, "")</f>
-        <v>1.1499999999999995E-3</v>
-      </c>
-      <c r="AM38" s="12">
+        <v/>
+      </c>
+      <c r="AM38" s="12" t="str">
         <f>IFERROR(('overall-new'!AM38-'overall-new'!AL38)/'overall-new'!$C38, "")</f>
-        <v>5.1999999999999989E-3</v>
-      </c>
-      <c r="AN38" s="12">
+        <v/>
+      </c>
+      <c r="AN38" s="12" t="str">
         <f>IFERROR(('overall-new'!AN38-'overall-new'!AM38)/'overall-new'!$C38, "")</f>
-        <v>-3.900000000000001E-4</v>
-      </c>
-      <c r="AO38" s="12">
+        <v/>
+      </c>
+      <c r="AO38" s="12" t="str">
         <f>IFERROR(('overall-new'!AO38-'overall-new'!AN38)/'overall-new'!$C38, "")</f>
-        <v>2.1199999999999999E-3</v>
-      </c>
-      <c r="AP38" s="12">
+        <v/>
+      </c>
+      <c r="AP38" s="12" t="str">
         <f>IFERROR(('overall-new'!AP38-'overall-new'!AO38)/'overall-new'!$C38, "")</f>
-        <v>1.0500000000000002E-3</v>
-      </c>
-      <c r="AQ38" s="12">
+        <v/>
+      </c>
+      <c r="AQ38" s="12" t="str">
         <f>IFERROR(('overall-new'!AQ38-'overall-new'!AP38)/'overall-new'!$C38, "")</f>
-        <v>6.8000000000000005E-4</v>
+        <v/>
+      </c>
+      <c r="AR38" s="12" t="str">
+        <f>IFERROR(('overall-new'!AR38-'overall-new'!AQ38)/'overall-new'!$C38, "")</f>
+        <v/>
+      </c>
+      <c r="AS38" s="12" t="str">
+        <f>IFERROR(('overall-new'!AS38-'overall-new'!AR38)/'overall-new'!$C38, "")</f>
+        <v/>
+      </c>
+      <c r="AT38" s="12" t="str">
+        <f>IFERROR(('overall-new'!AT38-'overall-new'!AS38)/'overall-new'!$C38, "")</f>
+        <v/>
+      </c>
+      <c r="AU38" s="12" t="str">
+        <f>IFERROR(('overall-new'!AU38-'overall-new'!AT38)/'overall-new'!$C38, "")</f>
+        <v/>
+      </c>
+      <c r="AV38" s="12" t="str">
+        <f>IFERROR(('overall-new'!AV38-'overall-new'!AU38)/'overall-new'!$C38, "")</f>
+        <v/>
+      </c>
+      <c r="AW38" s="12" t="str">
+        <f>IFERROR(('overall-new'!AW38-'overall-new'!AV38)/'overall-new'!$C38, "")</f>
+        <v/>
+      </c>
+      <c r="AX38" s="12" t="str">
+        <f>IFERROR(('overall-new'!AX38-'overall-new'!AW38)/'overall-new'!$C38, "")</f>
+        <v/>
+      </c>
+      <c r="AY38" s="12" t="str">
+        <f>IFERROR(('overall-new'!AY38-'overall-new'!AX38)/'overall-new'!$C38, "")</f>
+        <v/>
       </c>
     </row>
-    <row r="39" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:51" x14ac:dyDescent="0.3">
       <c r="B39" t="s">
-        <v>115</v>
+        <v>75</v>
       </c>
       <c r="C39">
         <f>'overall-new'!C39</f>
@@ -9402,10 +11028,42 @@
         <f>IFERROR(('overall-new'!AQ39-'overall-new'!AP39)/'overall-new'!$C39, "")</f>
         <v>1.7999999999999971E-4</v>
       </c>
+      <c r="AR39" s="12">
+        <f>IFERROR(('overall-new'!AR39-'overall-new'!AQ39)/'overall-new'!$C39, "")</f>
+        <v>1.6500000000000004E-3</v>
+      </c>
+      <c r="AS39" s="12">
+        <f>IFERROR(('overall-new'!AS39-'overall-new'!AR39)/'overall-new'!$C39, "")</f>
+        <v>1.7999999999999971E-4</v>
+      </c>
+      <c r="AT39" s="12">
+        <f>IFERROR(('overall-new'!AT39-'overall-new'!AS39)/'overall-new'!$C39, "")</f>
+        <v>5.2900000000000004E-3</v>
+      </c>
+      <c r="AU39" s="12">
+        <f>IFERROR(('overall-new'!AU39-'overall-new'!AT39)/'overall-new'!$C39, "")</f>
+        <v>-4.3800000000000002E-3</v>
+      </c>
+      <c r="AV39" s="12">
+        <f>IFERROR(('overall-new'!AV39-'overall-new'!AU39)/'overall-new'!$C39, "")</f>
+        <v>-7.300000000000004E-4</v>
+      </c>
+      <c r="AW39" s="12">
+        <f>IFERROR(('overall-new'!AW39-'overall-new'!AV39)/'overall-new'!$C39, "")</f>
+        <v>6.4000000000000059E-4</v>
+      </c>
+      <c r="AX39" s="12">
+        <f>IFERROR(('overall-new'!AX39-'overall-new'!AW39)/'overall-new'!$C39, "")</f>
+        <v>1.7999999999999971E-4</v>
+      </c>
+      <c r="AY39" s="12">
+        <f>IFERROR(('overall-new'!AY39-'overall-new'!AX39)/'overall-new'!$C39, "")</f>
+        <v>-3.6000000000000029E-4</v>
+      </c>
     </row>
-    <row r="40" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:51" x14ac:dyDescent="0.3">
       <c r="B40" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C40">
         <f>'overall-new'!C40</f>
@@ -9435,43 +11093,469 @@
         <f>IFERROR(('overall-new'!AQ40-'overall-new'!AP40)/'overall-new'!$C40, "")</f>
         <v>8.9999999999999857E-5</v>
       </c>
+      <c r="AR40" s="12">
+        <f>IFERROR(('overall-new'!AR40-'overall-new'!AQ40)/'overall-new'!$C40, "")</f>
+        <v>4.0299999999999997E-3</v>
+      </c>
+      <c r="AS40" s="12">
+        <f>IFERROR(('overall-new'!AS40-'overall-new'!AR40)/'overall-new'!$C40, "")</f>
+        <v>1.4299999999999996E-3</v>
+      </c>
+      <c r="AT40" s="12">
+        <f>IFERROR(('overall-new'!AT40-'overall-new'!AS40)/'overall-new'!$C40, "")</f>
+        <v>-3.5999999999999995E-3</v>
+      </c>
+      <c r="AU40" s="12">
+        <f>IFERROR(('overall-new'!AU40-'overall-new'!AT40)/'overall-new'!$C40, "")</f>
+        <v>5.6200000000000009E-3</v>
+      </c>
+      <c r="AV40" s="12">
+        <f>IFERROR(('overall-new'!AV40-'overall-new'!AU40)/'overall-new'!$C40, "")</f>
+        <v>-1.8200000000000002E-3</v>
+      </c>
+      <c r="AW40" s="12">
+        <f>IFERROR(('overall-new'!AW40-'overall-new'!AV40)/'overall-new'!$C40, "")</f>
+        <v>-5.8000000000000011E-4</v>
+      </c>
+      <c r="AX40" s="12">
+        <f>IFERROR(('overall-new'!AX40-'overall-new'!AW40)/'overall-new'!$C40, "")</f>
+        <v>2.49E-3</v>
+      </c>
+      <c r="AY40" s="12">
+        <f>IFERROR(('overall-new'!AY40-'overall-new'!AX40)/'overall-new'!$C40, "")</f>
+        <v>3.3599999999999993E-3</v>
+      </c>
     </row>
-    <row r="41" spans="1:43" x14ac:dyDescent="0.3">
-      <c r="A41" t="s">
-        <v>56</v>
+    <row r="41" spans="1:51" x14ac:dyDescent="0.3">
+      <c r="B41" t="s">
+        <v>128</v>
       </c>
       <c r="C41">
         <f>'overall-new'!C41</f>
-        <v>80700</v>
+        <v>5000</v>
       </c>
       <c r="AL41" s="12">
-        <f>IFERROR(('overall-new'!AL41-'overall-new'!AK41)/'overall-new'!$C41, "")</f>
-        <v>1.176084262701363E-3</v>
+        <f>IFERROR(('overall-new'!AL43-'overall-new'!AK43)/'overall-new'!$C43, "")</f>
+        <v>9.8509378084896343E-4</v>
       </c>
       <c r="AM41" s="12">
-        <f>IFERROR(('overall-new'!AM41-'overall-new'!AL41)/'overall-new'!$C41, "")</f>
-        <v>1.6913258983890956E-3</v>
+        <f>IFERROR(('overall-new'!AM43-'overall-new'!AL43)/'overall-new'!$C43, "")</f>
+        <v>1.2020730503455083E-3</v>
       </c>
       <c r="AN41" s="12">
-        <f>IFERROR(('overall-new'!AN41-'overall-new'!AM41)/'overall-new'!$C41, "")</f>
-        <v>1.0545229244114044E-4</v>
+        <f>IFERROR(('overall-new'!AN43-'overall-new'!AM43)/'overall-new'!$C43, "")</f>
+        <v>8.4007897334649888E-5</v>
       </c>
       <c r="AO41" s="12">
-        <f>IFERROR(('overall-new'!AO41-'overall-new'!AN41)/'overall-new'!$C41, "")</f>
-        <v>1.0634448574969016E-3</v>
+        <f>IFERROR(('overall-new'!AO43-'overall-new'!AN43)/'overall-new'!$C43, "")</f>
+        <v>8.0276406712734413E-4</v>
       </c>
       <c r="AP41" s="12">
-        <f>IFERROR(('overall-new'!AP41-'overall-new'!AO41)/'overall-new'!$C41, "")</f>
-        <v>1.5765799256505571E-3</v>
+        <f>IFERROR(('overall-new'!AP43-'overall-new'!AO43)/'overall-new'!$C43, "")</f>
+        <v>1.2378084896347479E-3</v>
       </c>
       <c r="AQ41" s="12">
-        <f>IFERROR(('overall-new'!AQ41-'overall-new'!AP41)/'overall-new'!$C41, "")</f>
-        <v>4.8562577447335952E-4</v>
+        <f>IFERROR(('overall-new'!AQ43-'overall-new'!AP43)/'overall-new'!$C43, "")</f>
+        <v>3.8400789733465044E-4</v>
+      </c>
+      <c r="AR41" s="12">
+        <f>IFERROR(('overall-new'!AR43-'overall-new'!AQ43)/'overall-new'!$C43, "")</f>
+        <v>1.9635735439289242E-3</v>
+      </c>
+      <c r="AS41" s="12">
+        <f>IFERROR(('overall-new'!AS43-'overall-new'!AR43)/'overall-new'!$C43, "")</f>
+        <v>5.3672260612043325E-4</v>
+      </c>
+      <c r="AT41" s="12">
+        <f>IFERROR(('overall-new'!AT43-'overall-new'!AS43)/'overall-new'!$C43, "")</f>
+        <v>9.5607107601184619E-4</v>
+      </c>
+      <c r="AU41" s="12">
+        <f>IFERROR(('overall-new'!AU43-'overall-new'!AT43)/'overall-new'!$C43, "")</f>
+        <v>3.6623889437314928E-4</v>
+      </c>
+      <c r="AV41" s="12">
+        <f>IFERROR(('overall-new'!AV41-'overall-new'!AU41)/'overall-new'!$C41, "")</f>
+        <v>-1.714E-3</v>
+      </c>
+      <c r="AW41" s="12">
+        <f>IFERROR(('overall-new'!AW41-'overall-new'!AV41)/'overall-new'!$C41, "")</f>
+        <v>1.3140000000000001E-3</v>
+      </c>
+      <c r="AX41" s="12">
+        <f>IFERROR(('overall-new'!AX41-'overall-new'!AW41)/'overall-new'!$C41, "")</f>
+        <v>-7.8800000000000007E-4</v>
+      </c>
+      <c r="AY41" s="12">
+        <f>IFERROR(('overall-new'!AY41-'overall-new'!AX41)/'overall-new'!$C41, "")</f>
+        <v>-7.8800000000000007E-4</v>
+      </c>
+    </row>
+    <row r="42" spans="1:51" x14ac:dyDescent="0.3">
+      <c r="B42" t="s">
+        <v>129</v>
+      </c>
+      <c r="C42">
+        <f>'overall-new'!C42</f>
+        <v>5000</v>
+      </c>
+      <c r="AV42" s="12">
+        <f>IFERROR(('overall-new'!AV42-'overall-new'!AU42)/'overall-new'!$C42, "")</f>
+        <v>-3.1199999999999999E-3</v>
+      </c>
+      <c r="AW42" s="12">
+        <f>IFERROR(('overall-new'!AW42-'overall-new'!AV42)/'overall-new'!$C42, "")</f>
+        <v>1.3500000000000001E-3</v>
+      </c>
+      <c r="AX42" s="12">
+        <f>IFERROR(('overall-new'!AX42-'overall-new'!AW42)/'overall-new'!$C42, "")</f>
+        <v>-9.1799999999999998E-4</v>
+      </c>
+      <c r="AY42" s="12">
+        <f>IFERROR(('overall-new'!AY42-'overall-new'!AX42)/'overall-new'!$C42, "")</f>
+        <v>-2.4820000000000003E-3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:51" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>56</v>
+      </c>
+      <c r="C43">
+        <f>'overall-new'!C43</f>
+        <v>101300</v>
+      </c>
+      <c r="AV43" s="12">
+        <f>IFERROR(('overall-new'!AV43-'overall-new'!AU43)/'overall-new'!$C43, "")</f>
+        <v>-1.4011846001974327E-3</v>
+      </c>
+      <c r="AW43" s="12">
+        <f>IFERROR(('overall-new'!AW43-'overall-new'!AV43)/'overall-new'!$C43, "")</f>
+        <v>9.6179664363277349E-4</v>
+      </c>
+      <c r="AX43" s="12">
+        <f>IFERROR(('overall-new'!AX43-'overall-new'!AW43)/'overall-new'!$C43, "")</f>
+        <v>1.7887462981243835E-4</v>
+      </c>
+      <c r="AY43" s="12">
+        <f>IFERROR(('overall-new'!AY43-'overall-new'!AX43)/'overall-new'!$C43, "")</f>
+        <v>-6.669299111549858E-4</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="AB2:AB18">
+    <cfRule type="colorScale" priority="47">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AB19">
+    <cfRule type="colorScale" priority="56">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AB20:AB35">
+    <cfRule type="colorScale" priority="48">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AC2:AC18">
+    <cfRule type="colorScale" priority="53">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AC19:AC35">
+    <cfRule type="colorScale" priority="52">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AD2:AD18">
+    <cfRule type="colorScale" priority="51">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AD20:AD35">
+    <cfRule type="colorScale" priority="49">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AE2:AE18">
+    <cfRule type="colorScale" priority="46">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AE20:AE35">
+    <cfRule type="colorScale" priority="45">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AF2:AF18">
+    <cfRule type="colorScale" priority="44">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AF20:AF35">
+    <cfRule type="colorScale" priority="43">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AG2:AG18">
+    <cfRule type="colorScale" priority="42">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AG20:AG38">
+    <cfRule type="colorScale" priority="41">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AH2:AH18">
+    <cfRule type="colorScale" priority="40">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AH20:AH37">
+    <cfRule type="colorScale" priority="39">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AI2:AI18">
+    <cfRule type="colorScale" priority="38">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AI20:AI37">
+    <cfRule type="colorScale" priority="37">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AJ2:AJ18">
+    <cfRule type="colorScale" priority="36">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AJ20:AJ37">
+    <cfRule type="colorScale" priority="35">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AK2:AK18">
+    <cfRule type="colorScale" priority="34">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AK20:AK37">
+    <cfRule type="colorScale" priority="33">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AL2:AL18">
+    <cfRule type="colorScale" priority="32">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AL20:AL41">
+    <cfRule type="colorScale" priority="31">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AM2:AM18">
+    <cfRule type="colorScale" priority="30">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AM20:AM41">
+    <cfRule type="colorScale" priority="29">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AN2:AN18">
+    <cfRule type="colorScale" priority="28">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AN20:AN41">
     <cfRule type="colorScale" priority="27">
       <colorScale>
         <cfvo type="min"/>
@@ -9483,79 +11567,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AB19">
-    <cfRule type="colorScale" priority="36">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AB20:AB35">
-    <cfRule type="colorScale" priority="28">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AC2:AC18">
-    <cfRule type="colorScale" priority="33">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AC19:AC35">
-    <cfRule type="colorScale" priority="32">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AD2:AD18">
-    <cfRule type="colorScale" priority="31">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AD20:AD35">
-    <cfRule type="colorScale" priority="29">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AE2:AE18">
+  <conditionalFormatting sqref="AO2:AO18">
     <cfRule type="colorScale" priority="26">
       <colorScale>
         <cfvo type="min"/>
@@ -9567,7 +11579,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AE20:AE35">
+  <conditionalFormatting sqref="AO20:AO41">
     <cfRule type="colorScale" priority="25">
       <colorScale>
         <cfvo type="min"/>
@@ -9579,7 +11591,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AF2:AF18">
+  <conditionalFormatting sqref="AP2:AP18">
     <cfRule type="colorScale" priority="24">
       <colorScale>
         <cfvo type="min"/>
@@ -9591,7 +11603,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AF20:AF35">
+  <conditionalFormatting sqref="AP20:AP41">
     <cfRule type="colorScale" priority="23">
       <colorScale>
         <cfvo type="min"/>
@@ -9603,7 +11615,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AG2:AG18">
+  <conditionalFormatting sqref="AQ2:AQ18">
     <cfRule type="colorScale" priority="22">
       <colorScale>
         <cfvo type="min"/>
@@ -9615,7 +11627,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AG20:AG38">
+  <conditionalFormatting sqref="AQ20:AQ41">
     <cfRule type="colorScale" priority="21">
       <colorScale>
         <cfvo type="min"/>
@@ -9627,7 +11639,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AH2:AH18">
+  <conditionalFormatting sqref="AR2:AR18">
     <cfRule type="colorScale" priority="20">
       <colorScale>
         <cfvo type="min"/>
@@ -9639,7 +11651,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AH20:AH37">
+  <conditionalFormatting sqref="AR20:AR41">
     <cfRule type="colorScale" priority="19">
       <colorScale>
         <cfvo type="min"/>
@@ -9651,7 +11663,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AI2:AI18">
+  <conditionalFormatting sqref="AS2:AS18">
     <cfRule type="colorScale" priority="18">
       <colorScale>
         <cfvo type="min"/>
@@ -9663,7 +11675,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AI20:AI37">
+  <conditionalFormatting sqref="AS20:AS41">
     <cfRule type="colorScale" priority="17">
       <colorScale>
         <cfvo type="min"/>
@@ -9675,7 +11687,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AJ2:AJ18">
+  <conditionalFormatting sqref="AT2:AT18">
     <cfRule type="colorScale" priority="16">
       <colorScale>
         <cfvo type="min"/>
@@ -9687,7 +11699,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AJ20:AJ37">
+  <conditionalFormatting sqref="AT20:AT41">
     <cfRule type="colorScale" priority="15">
       <colorScale>
         <cfvo type="min"/>
@@ -9699,31 +11711,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AK2:AK18">
-    <cfRule type="colorScale" priority="14">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AK20:AK37">
-    <cfRule type="colorScale" priority="13">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AL2:AL18">
+  <conditionalFormatting sqref="AU2:AU18">
     <cfRule type="colorScale" priority="12">
       <colorScale>
         <cfvo type="min"/>
@@ -9735,7 +11723,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AL20:AL41">
+  <conditionalFormatting sqref="AU19:AU41">
     <cfRule type="colorScale" priority="11">
       <colorScale>
         <cfvo type="min"/>
@@ -9747,8 +11735,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AM2:AM18">
-    <cfRule type="colorScale" priority="10">
+  <conditionalFormatting sqref="AV2:AV18">
+    <cfRule type="colorScale" priority="7">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -9759,19 +11747,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AM20:AM41">
-    <cfRule type="colorScale" priority="9">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AN2:AN18">
+  <conditionalFormatting sqref="AV19:AV43">
     <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="min"/>
@@ -9783,19 +11759,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AN20:AN41">
-    <cfRule type="colorScale" priority="7">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AO2:AO18">
+  <conditionalFormatting sqref="AW2:AW18">
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="min"/>
@@ -9807,7 +11771,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AO20:AO41">
+  <conditionalFormatting sqref="AW19:AW43">
     <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="min"/>
@@ -9819,7 +11783,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AP2:AP18">
+  <conditionalFormatting sqref="AX2:AX18">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min"/>
@@ -9831,7 +11795,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AP20:AP41">
+  <conditionalFormatting sqref="AX19:AX43">
     <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
@@ -9843,7 +11807,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AQ2:AQ18">
+  <conditionalFormatting sqref="AY2:AY18">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
@@ -9855,7 +11819,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AQ20:AQ41">
+  <conditionalFormatting sqref="AY19:AY43">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
